--- a/_2_cases_input_outputs/_08_CAPITOUL/DOE_Ref_MediumOffice_4B/vcwg_ep_saving/ver1.1/CAPITOUL_Bypass_2004_debugging_canyon.xlsx
+++ b/_2_cases_input_outputs/_08_CAPITOUL/DOE_Ref_MediumOffice_4B/vcwg_ep_saving/ver1.1/CAPITOUL_Bypass_2004_debugging_canyon.xlsx
@@ -453,13 +453,13 @@
         <v>300</v>
       </c>
       <c r="E2">
-        <v>290.2924321381673</v>
+        <v>288.1932356663564</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>296.0513114853209</v>
+        <v>288.3062916666667</v>
       </c>
       <c r="H2">
         <v>296.0513114853209</v>
@@ -476,25 +476,25 @@
         <v>38139.00347222222</v>
       </c>
       <c r="B3">
-        <v>291.1469078999079</v>
+        <v>288.5986340606634</v>
       </c>
       <c r="C3">
-        <v>291.1848073333354</v>
+        <v>288.5776607295194</v>
       </c>
       <c r="D3">
         <v>294.54</v>
       </c>
       <c r="E3">
-        <v>289.4324812418727</v>
+        <v>288.0893535615139</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>290.1692281689665</v>
+        <v>288.2179166666667</v>
       </c>
       <c r="H3">
-        <v>290.1692281689665</v>
+        <v>289.939825046251</v>
       </c>
       <c r="I3">
         <v>600</v>
@@ -508,25 +508,25 @@
         <v>38139.00694444445</v>
       </c>
       <c r="B4">
-        <v>290.1353993303802</v>
+        <v>288.5092326936182</v>
       </c>
       <c r="C4">
-        <v>290.1398148106043</v>
+        <v>288.4893241547164</v>
       </c>
       <c r="D4">
         <v>294.54</v>
       </c>
       <c r="E4">
-        <v>288.9290992637713</v>
+        <v>287.9743475533864</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>288.9195451075033</v>
+        <v>288.1295416666666</v>
       </c>
       <c r="H4">
-        <v>288.9195451075033</v>
+        <v>288.7972612261858</v>
       </c>
       <c r="I4">
         <v>900</v>
@@ -540,25 +540,25 @@
         <v>38139.01041666666</v>
       </c>
       <c r="B5">
-        <v>289.5376097161179</v>
+        <v>288.4119804360429</v>
       </c>
       <c r="C5">
-        <v>289.5300214782367</v>
+        <v>288.3933469300744</v>
       </c>
       <c r="D5">
         <v>294.54</v>
       </c>
       <c r="E5">
-        <v>288.7409859808636</v>
+        <v>287.8512481945716</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>289.0510867248721</v>
+        <v>288.0411666666666</v>
       </c>
       <c r="H5">
-        <v>289.0510867248721</v>
+        <v>288.911050312919</v>
       </c>
       <c r="I5">
         <v>1200</v>
@@ -572,25 +572,25 @@
         <v>38139.01388888889</v>
       </c>
       <c r="B6">
-        <v>289.3169156693407</v>
+        <v>288.3072306037062</v>
       </c>
       <c r="C6">
-        <v>289.3123038932915</v>
+        <v>288.2936772687602</v>
       </c>
       <c r="D6">
         <v>294.54</v>
       </c>
       <c r="E6">
-        <v>288.6595863447258</v>
+        <v>287.7200982331391</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>289.3623103195695</v>
+        <v>287.9527916666667</v>
       </c>
       <c r="H6">
-        <v>289.3623103195695</v>
+        <v>289.2057976501019</v>
       </c>
       <c r="I6">
         <v>1500</v>
@@ -604,25 +604,25 @@
         <v>38139.01736111111</v>
       </c>
       <c r="B7">
-        <v>289.2545392358742</v>
+        <v>288.20019033809</v>
       </c>
       <c r="C7">
-        <v>289.247822847123</v>
+        <v>288.1881428000468</v>
       </c>
       <c r="D7">
         <v>294.54</v>
       </c>
       <c r="E7">
-        <v>288.5471960567793</v>
+        <v>287.5823269426623</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>289.3806175041194</v>
+        <v>287.8644166666667</v>
       </c>
       <c r="H7">
-        <v>289.3806175041194</v>
+        <v>289.1889808952836</v>
       </c>
       <c r="I7">
         <v>1800</v>
@@ -636,25 +636,25 @@
         <v>38139.02083333334</v>
       </c>
       <c r="B8">
-        <v>289.1735462636615</v>
+        <v>288.0903529500857</v>
       </c>
       <c r="C8">
-        <v>289.1659782036791</v>
+        <v>288.0788765095535</v>
       </c>
       <c r="D8">
         <v>294.54</v>
       </c>
       <c r="E8">
-        <v>288.4599702088819</v>
+        <v>287.4386312899901</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>289.5165474556151</v>
+        <v>287.7760416666666</v>
       </c>
       <c r="H8">
-        <v>289.5165474556151</v>
+        <v>289.3302917481501</v>
       </c>
       <c r="I8">
         <v>2100</v>
@@ -668,25 +668,25 @@
         <v>38139.02430555555</v>
       </c>
       <c r="B9">
-        <v>289.1358523863688</v>
+        <v>287.9780399469893</v>
       </c>
       <c r="C9">
-        <v>289.1282214028104</v>
+        <v>287.9667060150296</v>
       </c>
       <c r="D9">
         <v>294.54</v>
       </c>
       <c r="E9">
-        <v>288.3316279712781</v>
+        <v>287.289414762418</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>289.4357340345404</v>
+        <v>287.6876666666666</v>
       </c>
       <c r="H9">
-        <v>289.4357340345404</v>
+        <v>289.6102451410316</v>
       </c>
       <c r="I9">
         <v>2400</v>
@@ -700,25 +700,25 @@
         <v>38139.02777777778</v>
       </c>
       <c r="B10">
-        <v>289.053467593602</v>
+        <v>287.8635284714254</v>
       </c>
       <c r="C10">
-        <v>289.0464969903498</v>
+        <v>287.8521377152532</v>
       </c>
       <c r="D10">
         <v>294.54</v>
       </c>
       <c r="E10">
-        <v>288.2229717308725</v>
+        <v>287.1349021433309</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>289.5109052986889</v>
+        <v>287.5992916666667</v>
       </c>
       <c r="H10">
-        <v>289.5109052986889</v>
+        <v>289.8181879933676</v>
       </c>
       <c r="I10">
         <v>2700</v>
@@ -732,25 +732,25 @@
         <v>38139.03125</v>
       </c>
       <c r="B11">
-        <v>289.0038434159514</v>
+        <v>287.7470139684064</v>
       </c>
       <c r="C11">
-        <v>288.9983432778209</v>
+        <v>287.7355093538876</v>
       </c>
       <c r="D11">
         <v>294.54</v>
       </c>
       <c r="E11">
-        <v>288.0831111082856</v>
+        <v>286.9751818481611</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>289.4310093916164</v>
+        <v>287.5109166666666</v>
       </c>
       <c r="H11">
-        <v>289.4310093916164</v>
+        <v>289.654032314757</v>
       </c>
       <c r="I11">
         <v>3000</v>
@@ -764,25 +764,25 @@
         <v>38139.03472222222</v>
       </c>
       <c r="B12">
-        <v>288.919403396422</v>
+        <v>287.6286266049356</v>
       </c>
       <c r="C12">
-        <v>288.9155841904171</v>
+        <v>287.617049169766</v>
       </c>
       <c r="D12">
         <v>294.54</v>
       </c>
       <c r="E12">
-        <v>287.9649787876722</v>
+        <v>286.8102325159721</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>289.5267812233168</v>
+        <v>287.4225416666666</v>
       </c>
       <c r="H12">
-        <v>289.5267812233168</v>
+        <v>289.786301055347</v>
       </c>
       <c r="I12">
         <v>3300</v>
@@ -796,25 +796,25 @@
         <v>38139.03819444445</v>
       </c>
       <c r="B13">
-        <v>288.8727360435844</v>
+        <v>287.5084465755</v>
       </c>
       <c r="C13">
-        <v>288.8717645540096</v>
+        <v>287.4969094636688</v>
       </c>
       <c r="D13">
         <v>294.54</v>
       </c>
       <c r="E13">
-        <v>287.8194147037345</v>
+        <v>286.6399407130036</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>289.4738464509534</v>
+        <v>287.3341666666666</v>
       </c>
       <c r="H13">
-        <v>289.4738464509534</v>
+        <v>289.5745579383371</v>
       </c>
       <c r="I13">
         <v>3600</v>
@@ -828,25 +828,25 @@
         <v>38139.04166666666</v>
       </c>
       <c r="B14">
-        <v>288.7958887521345</v>
+        <v>287.3865151007989</v>
       </c>
       <c r="C14">
-        <v>288.7977406115659</v>
+        <v>287.3751874882506</v>
       </c>
       <c r="D14">
         <v>294.54</v>
       </c>
       <c r="E14">
-        <v>287.7379278179035</v>
+        <v>286.5194141549507</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>289.5995461596182</v>
+        <v>287.3340694444444</v>
       </c>
       <c r="H14">
-        <v>289.5995461596182</v>
+        <v>289.703807703247</v>
       </c>
       <c r="I14">
         <v>3900</v>
@@ -860,25 +860,25 @@
         <v>38139.04513888889</v>
       </c>
       <c r="B15">
-        <v>288.782530711225</v>
+        <v>287.3083587077896</v>
       </c>
       <c r="C15">
-        <v>288.7878881759452</v>
+        <v>287.2979873633201</v>
       </c>
       <c r="D15">
         <v>294.54</v>
       </c>
       <c r="E15">
-        <v>287.6417415563958</v>
+        <v>286.4177664991072</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>289.52321035852</v>
+        <v>287.3339722222222</v>
       </c>
       <c r="H15">
-        <v>289.52321035852</v>
+        <v>289.4725414952485</v>
       </c>
       <c r="I15">
         <v>4200</v>
@@ -892,25 +892,25 @@
         <v>38139.04861111111</v>
       </c>
       <c r="B16">
-        <v>288.737009238861</v>
+        <v>287.2477433075102</v>
       </c>
       <c r="C16">
-        <v>288.7447224914081</v>
+        <v>287.2386300202243</v>
       </c>
       <c r="D16">
         <v>294.54</v>
       </c>
       <c r="E16">
-        <v>287.566009899481</v>
+        <v>286.3282410318842</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>289.5636591137605</v>
+        <v>287.333875</v>
       </c>
       <c r="H16">
-        <v>289.5636591137605</v>
+        <v>289.6426262154588</v>
       </c>
       <c r="I16">
         <v>4500</v>
@@ -924,25 +924,25 @@
         <v>38139.05208333334</v>
       </c>
       <c r="B17">
-        <v>288.7156841162396</v>
+        <v>287.1982222873837</v>
       </c>
       <c r="C17">
-        <v>288.7262907894493</v>
+        <v>287.1905082561528</v>
       </c>
       <c r="D17">
         <v>294.54</v>
       </c>
       <c r="E17">
-        <v>287.5246493460195</v>
+        <v>286.2476239940976</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>289.7486789131571</v>
+        <v>287.3337777777778</v>
       </c>
       <c r="H17">
-        <v>289.7486789131571</v>
+        <v>289.3794389223004</v>
       </c>
       <c r="I17">
         <v>4800</v>
@@ -956,25 +956,25 @@
         <v>38139.05555555555</v>
       </c>
       <c r="B18">
-        <v>288.7428888988707</v>
+        <v>287.1564683883519</v>
       </c>
       <c r="C18">
-        <v>288.7577091966265</v>
+        <v>287.1502486331681</v>
       </c>
       <c r="D18">
         <v>294.54</v>
       </c>
       <c r="E18">
-        <v>287.5093134134065</v>
+        <v>286.1737347872528</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>289.9937804260866</v>
+        <v>287.3336805555555</v>
       </c>
       <c r="H18">
-        <v>289.9937804260866</v>
+        <v>289.571267360429</v>
       </c>
       <c r="I18">
         <v>5100</v>
@@ -988,25 +988,25 @@
         <v>38139.05902777778</v>
       </c>
       <c r="B19">
-        <v>288.8083506714725</v>
+        <v>287.1203563421094</v>
       </c>
       <c r="C19">
-        <v>288.8284014533979</v>
+        <v>287.1156898410533</v>
       </c>
       <c r="D19">
         <v>294.54</v>
       </c>
       <c r="E19">
-        <v>287.4487632808813</v>
+        <v>286.104944486547</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>289.8830568951317</v>
+        <v>287.3335833333333</v>
       </c>
       <c r="H19">
-        <v>289.8830568951317</v>
+        <v>289.26164972913</v>
       </c>
       <c r="I19">
         <v>5400</v>
@@ -1020,25 +1020,25 @@
         <v>38139.0625</v>
       </c>
       <c r="B20">
-        <v>288.7979611839597</v>
+        <v>287.0884376000139</v>
       </c>
       <c r="C20">
-        <v>288.8205866922906</v>
+        <v>287.0853638647201</v>
       </c>
       <c r="D20">
         <v>294.54</v>
       </c>
       <c r="E20">
-        <v>287.4160181529784</v>
+        <v>286.0399953751817</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>290.0280936963878</v>
+        <v>287.3334861111111</v>
       </c>
       <c r="H20">
-        <v>290.0280936963878</v>
+        <v>289.4676186882333</v>
       </c>
       <c r="I20">
         <v>5700</v>
@@ -1052,25 +1052,25 @@
         <v>38139.06597222222</v>
       </c>
       <c r="B21">
-        <v>288.8312412448419</v>
+        <v>287.0596920565567</v>
       </c>
       <c r="C21">
-        <v>288.8580290787571</v>
+        <v>287.0582390841294</v>
       </c>
       <c r="D21">
         <v>294.54</v>
       </c>
       <c r="E21">
-        <v>287.3397441464937</v>
+        <v>285.9778971810075</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>289.8468013279112</v>
+        <v>287.3333888888889</v>
       </c>
       <c r="H21">
-        <v>289.8468013279112</v>
+        <v>289.1060341825254</v>
       </c>
       <c r="I21">
         <v>6000</v>
@@ -1084,25 +1084,25 @@
         <v>38139.06944444445</v>
       </c>
       <c r="B22">
-        <v>288.7906798399432</v>
+        <v>287.0333829838943</v>
       </c>
       <c r="C22">
-        <v>288.8188600050103</v>
+        <v>287.0335717677343</v>
       </c>
       <c r="D22">
         <v>294.54</v>
       </c>
       <c r="E22">
-        <v>287.2919875348072</v>
+        <v>285.917857762507</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>289.9564324860841</v>
+        <v>287.3332916666666</v>
       </c>
       <c r="H22">
-        <v>289.9564324860841</v>
+        <v>289.3366838498188</v>
       </c>
       <c r="I22">
         <v>6300</v>
@@ -1116,25 +1116,25 @@
         <v>38139.07291666666</v>
       </c>
       <c r="B23">
-        <v>288.7992723114678</v>
+        <v>287.0089672798121</v>
       </c>
       <c r="C23">
-        <v>288.8309215315225</v>
+        <v>287.0108143383771</v>
       </c>
       <c r="D23">
         <v>294.54</v>
       </c>
       <c r="E23">
-        <v>287.202448136254</v>
+        <v>285.8592341856652</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>289.7384644586088</v>
+        <v>287.3331944444444</v>
       </c>
       <c r="H23">
-        <v>289.7384644586088</v>
+        <v>288.9397134581743</v>
       </c>
       <c r="I23">
         <v>6600</v>
@@ -1148,25 +1148,25 @@
         <v>38139.07638888889</v>
       </c>
       <c r="B24">
-        <v>288.7363660550517</v>
+        <v>286.986037506541</v>
       </c>
       <c r="C24">
-        <v>288.7685245229324</v>
+        <v>286.989556191754</v>
       </c>
       <c r="D24">
         <v>294.54</v>
       </c>
       <c r="E24">
-        <v>287.1449128741611</v>
+        <v>285.8014971830422</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>289.8530282031732</v>
+        <v>287.3330972222222</v>
       </c>
       <c r="H24">
-        <v>289.8530282031732</v>
+        <v>289.2200079937942</v>
       </c>
       <c r="I24">
         <v>6900</v>
@@ -1180,25 +1180,25 @@
         <v>38139.07986111111</v>
       </c>
       <c r="B25">
-        <v>288.7325339927365</v>
+        <v>286.9642832482315</v>
       </c>
       <c r="C25">
-        <v>288.7679405182647</v>
+        <v>286.969484274807</v>
       </c>
       <c r="D25">
         <v>294.54</v>
       </c>
       <c r="E25">
-        <v>287.0462501470003</v>
+        <v>285.7442048338432</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>289.6142085150645</v>
+        <v>287.333</v>
       </c>
       <c r="H25">
-        <v>289.6142085150645</v>
+        <v>288.7950990082052</v>
       </c>
       <c r="I25">
         <v>7200</v>
@@ -1212,25 +1212,25 @@
         <v>38139.08333333334</v>
       </c>
       <c r="B26">
-        <v>288.6564584162537</v>
+        <v>286.9434646967983</v>
       </c>
       <c r="C26">
-        <v>288.6917922993967</v>
+        <v>286.950356154881</v>
       </c>
       <c r="D26">
         <v>294.54</v>
       </c>
       <c r="E26">
-        <v>287.0269058129174</v>
+        <v>285.7268842827805</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
-        <v>289.7458384550681</v>
+        <v>287.3420277777777</v>
       </c>
       <c r="H26">
-        <v>289.7458384550681</v>
+        <v>289.1294842873755</v>
       </c>
       <c r="I26">
         <v>7500</v>
@@ -1244,25 +1244,25 @@
         <v>38139.08680555555</v>
       </c>
       <c r="B27">
-        <v>288.6695393743237</v>
+        <v>286.9453460251856</v>
       </c>
       <c r="C27">
-        <v>288.7072062540313</v>
+        <v>286.9534660675306</v>
       </c>
       <c r="D27">
         <v>294.54</v>
       </c>
       <c r="E27">
-        <v>286.9868394181332</v>
+        <v>285.7283194562082</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27">
-        <v>289.5000289978016</v>
+        <v>287.3510555555555</v>
       </c>
       <c r="H27">
-        <v>289.5000289978016</v>
+        <v>288.6759612524412</v>
       </c>
       <c r="I27">
         <v>7800</v>
@@ -1276,25 +1276,25 @@
         <v>38139.09027777778</v>
       </c>
       <c r="B28">
-        <v>288.6183322288064</v>
+        <v>286.957552767161</v>
       </c>
       <c r="C28">
-        <v>288.6542800531544</v>
+        <v>286.9665295451676</v>
       </c>
       <c r="D28">
         <v>294.54</v>
       </c>
       <c r="E28">
-        <v>287.0034060725155</v>
+        <v>285.7435116664267</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28">
-        <v>289.6706913975716</v>
+        <v>287.3600833333333</v>
       </c>
       <c r="H28">
-        <v>289.6706913975716</v>
+        <v>289.0775654926273</v>
       </c>
       <c r="I28">
         <v>8100</v>
@@ -1308,25 +1308,25 @@
         <v>38139.09375</v>
       </c>
       <c r="B29">
-        <v>288.6523653610225</v>
+        <v>286.9768223965609</v>
       </c>
       <c r="C29">
-        <v>288.6901213491583</v>
+        <v>286.9863265072858</v>
       </c>
       <c r="D29">
         <v>294.54</v>
       </c>
       <c r="E29">
-        <v>286.9888211585179</v>
+        <v>285.7698803853092</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
-        <v>289.425957894748</v>
+        <v>287.3691111111111</v>
       </c>
       <c r="H29">
-        <v>289.425957894748</v>
+        <v>288.5960797164429</v>
       </c>
       <c r="I29">
         <v>8400</v>
@@ -1340,25 +1340,25 @@
         <v>38139.09722222222</v>
       </c>
       <c r="B30">
-        <v>288.6131426756762</v>
+        <v>287.0013818467338</v>
       </c>
       <c r="C30">
-        <v>288.648540371225</v>
+        <v>287.0111212413673</v>
       </c>
       <c r="D30">
         <v>294.54</v>
       </c>
       <c r="E30">
-        <v>287.0312354734748</v>
+        <v>285.8055584580259</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30">
-        <v>289.6349319656852</v>
+        <v>287.3781388888889</v>
       </c>
       <c r="H30">
-        <v>289.6349319656852</v>
+        <v>289.0617128701992</v>
       </c>
       <c r="I30">
         <v>8700</v>
@@ -1372,25 +1372,25 @@
         <v>38139.10069444445</v>
       </c>
       <c r="B31">
-        <v>288.6650047601394</v>
+        <v>287.0300484571819</v>
       </c>
       <c r="C31">
-        <v>288.7021225061915</v>
+        <v>287.0397651672355</v>
       </c>
       <c r="D31">
         <v>294.54</v>
       </c>
       <c r="E31">
-        <v>287.0354298841292</v>
+        <v>285.8490737385849</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
       <c r="G31">
-        <v>289.3856763443296</v>
+        <v>287.3871666666666</v>
       </c>
       <c r="H31">
-        <v>289.3856763443296</v>
+        <v>288.5458709540567</v>
       </c>
       <c r="I31">
         <v>9000</v>
@@ -1404,25 +1404,25 @@
         <v>38139.10416666666</v>
       </c>
       <c r="B32">
-        <v>288.6350011302325</v>
+        <v>287.061983734549</v>
       </c>
       <c r="C32">
-        <v>288.6693419069172</v>
+        <v>287.071449971211</v>
       </c>
       <c r="D32">
         <v>294.54</v>
       </c>
       <c r="E32">
-        <v>287.0978908686109</v>
+        <v>285.8992340453666</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
       <c r="G32">
-        <v>289.6253539149396</v>
+        <v>287.3961944444444</v>
       </c>
       <c r="H32">
-        <v>289.6253539149396</v>
+        <v>289.0695488756713</v>
       </c>
       <c r="I32">
         <v>9300</v>
@@ -1436,25 +1436,25 @@
         <v>38139.10763888889</v>
       </c>
       <c r="B33">
-        <v>288.7014302162256</v>
+        <v>287.0965734046978</v>
       </c>
       <c r="C33">
-        <v>288.7375047654112</v>
+        <v>287.1055875061959</v>
       </c>
       <c r="D33">
         <v>294.54</v>
       </c>
       <c r="E33">
-        <v>287.1155662330737</v>
+        <v>285.9550606395812</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33">
-        <v>289.3637432708423</v>
+        <v>287.4052222222222</v>
       </c>
       <c r="H33">
-        <v>289.3637432708423</v>
+        <v>288.5148373570458</v>
       </c>
       <c r="I33">
         <v>9600</v>
@@ -1468,25 +1468,25 @@
         <v>38139.11111111111</v>
       </c>
       <c r="B34">
-        <v>288.6770747311771</v>
+        <v>287.133356657203</v>
       </c>
       <c r="C34">
-        <v>288.7099735322186</v>
+        <v>287.1417392473533</v>
       </c>
       <c r="D34">
         <v>294.54</v>
       </c>
       <c r="E34">
-        <v>287.1935893731142</v>
+        <v>286.0157423634379</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34">
-        <v>289.6294494474517</v>
+        <v>287.41425</v>
       </c>
       <c r="H34">
-        <v>289.6294494474517</v>
+        <v>289.0907244265688</v>
       </c>
       <c r="I34">
         <v>9900</v>
@@ -1500,25 +1500,25 @@
         <v>38139.11458333334</v>
       </c>
       <c r="B35">
-        <v>288.7549743357963</v>
+        <v>287.171981183766</v>
       </c>
       <c r="C35">
-        <v>288.7896429246844</v>
+        <v>287.1795716966017</v>
       </c>
       <c r="D35">
         <v>294.54</v>
       </c>
       <c r="E35">
-        <v>287.2210833018789</v>
+        <v>286.0806018971081</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
       <c r="G35">
-        <v>289.3535181913388</v>
+        <v>287.4232777777777</v>
       </c>
       <c r="H35">
-        <v>289.3535181913388</v>
+        <v>288.4967711129627</v>
       </c>
       <c r="I35">
         <v>10200</v>
@@ -1532,25 +1532,25 @@
         <v>38139.11805555555</v>
       </c>
       <c r="B36">
-        <v>288.7340371880757</v>
+        <v>287.2121733212959</v>
       </c>
       <c r="C36">
-        <v>288.7651527828152</v>
+        <v>287.218826927132</v>
       </c>
       <c r="D36">
         <v>294.54</v>
       </c>
       <c r="E36">
-        <v>287.3116240663554</v>
+        <v>286.1490700918511</v>
       </c>
       <c r="F36">
         <v>0</v>
       </c>
       <c r="G36">
-        <v>289.6439547434699</v>
+        <v>287.4323055555556</v>
       </c>
       <c r="H36">
-        <v>289.6439547434699</v>
+        <v>289.1207247501904</v>
       </c>
       <c r="I36">
         <v>10500</v>
@@ -1564,25 +1564,25 @@
         <v>38139.12152777778</v>
       </c>
       <c r="B37">
-        <v>288.821607165094</v>
+        <v>287.2537175897543</v>
       </c>
       <c r="C37">
-        <v>288.8545654726279</v>
+        <v>287.2593024966466</v>
       </c>
       <c r="D37">
         <v>294.54</v>
       </c>
       <c r="E37">
-        <v>287.3464515349001</v>
+        <v>286.2206660176836</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
       <c r="G37">
-        <v>289.3534885935489</v>
+        <v>287.4413333333333</v>
       </c>
       <c r="H37">
-        <v>289.3534885935489</v>
+        <v>288.4907062395338</v>
       </c>
       <c r="I37">
         <v>10800</v>
@@ -1596,25 +1596,25 @@
         <v>38139.125</v>
       </c>
       <c r="B38">
-        <v>288.802897242803</v>
+        <v>287.2964423226113</v>
       </c>
       <c r="C38">
-        <v>288.8319558159077</v>
+        <v>287.3008373944758</v>
       </c>
       <c r="D38">
         <v>294.54</v>
       </c>
       <c r="E38">
-        <v>287.4193944154064</v>
+        <v>286.2661256003764</v>
       </c>
       <c r="F38">
         <v>0</v>
       </c>
       <c r="G38">
-        <v>289.6676543545608</v>
+        <v>287.4436111111111</v>
       </c>
       <c r="H38">
-        <v>289.6676543545608</v>
+        <v>289.1580073239299</v>
       </c>
       <c r="I38">
         <v>11100</v>
@@ -1628,25 +1628,25 @@
         <v>38139.12847222222</v>
       </c>
       <c r="B39">
-        <v>288.881871161634</v>
+        <v>287.321299849293</v>
       </c>
       <c r="C39">
-        <v>288.9131825786167</v>
+        <v>287.3246324912712</v>
       </c>
       <c r="D39">
         <v>294.54</v>
       </c>
       <c r="E39">
-        <v>287.4185484507431</v>
+        <v>286.300709761775</v>
       </c>
       <c r="F39">
         <v>0</v>
       </c>
       <c r="G39">
-        <v>289.359367352392</v>
+        <v>287.4458888888889</v>
       </c>
       <c r="H39">
-        <v>289.359367352392</v>
+        <v>288.4916593040861</v>
       </c>
       <c r="I39">
         <v>11400</v>
@@ -1660,25 +1660,25 @@
         <v>38139.13194444445</v>
       </c>
       <c r="B40">
-        <v>288.8391542311343</v>
+        <v>287.3387315382705</v>
       </c>
       <c r="C40">
-        <v>288.8667782892355</v>
+        <v>287.3411602412318</v>
       </c>
       <c r="D40">
         <v>294.54</v>
       </c>
       <c r="E40">
-        <v>287.4771194740896</v>
+        <v>286.3277808352585</v>
       </c>
       <c r="F40">
         <v>0</v>
       </c>
       <c r="G40">
-        <v>289.6911769337693</v>
+        <v>287.4481666666666</v>
       </c>
       <c r="H40">
-        <v>289.6911769337693</v>
+        <v>289.1885594054158</v>
       </c>
       <c r="I40">
         <v>11700</v>
@@ -1692,25 +1692,25 @@
         <v>38139.13541666666</v>
       </c>
       <c r="B41">
-        <v>288.9119207481074</v>
+        <v>287.3513821992902</v>
       </c>
       <c r="C41">
-        <v>288.9422963659977</v>
+        <v>287.3530603908177</v>
       </c>
       <c r="D41">
         <v>294.54</v>
       </c>
       <c r="E41">
-        <v>287.4627858803988</v>
+        <v>286.3489553970724</v>
       </c>
       <c r="F41">
         <v>0</v>
       </c>
       <c r="G41">
-        <v>289.3651746763995</v>
+        <v>287.4504444444444</v>
       </c>
       <c r="H41">
-        <v>289.3651746763995</v>
+        <v>288.4870908312078</v>
       </c>
       <c r="I41">
         <v>12000</v>
@@ -1724,25 +1724,25 @@
         <v>38139.13888888889</v>
       </c>
       <c r="B42">
-        <v>288.8598234797058</v>
+        <v>287.3606372557509</v>
       </c>
       <c r="C42">
-        <v>288.8865930571981</v>
+        <v>287.3617054811085</v>
       </c>
       <c r="D42">
         <v>294.54</v>
       </c>
       <c r="E42">
-        <v>287.5143749877275</v>
+        <v>286.3653585039137</v>
       </c>
       <c r="F42">
         <v>0</v>
       </c>
       <c r="G42">
-        <v>289.7176742330108</v>
+        <v>287.4527222222222</v>
       </c>
       <c r="H42">
-        <v>289.7176742330108</v>
+        <v>289.2111723549664</v>
       </c>
       <c r="I42">
         <v>12300</v>
@@ -1756,25 +1756,25 @@
         <v>38139.14236111111</v>
       </c>
       <c r="B43">
-        <v>288.9322617815566</v>
+        <v>287.3673965155181</v>
       </c>
       <c r="C43">
-        <v>288.962219005011</v>
+        <v>287.3679796243024</v>
       </c>
       <c r="D43">
         <v>294.54</v>
       </c>
       <c r="E43">
-        <v>287.4910329595026</v>
+        <v>286.3778545220223</v>
       </c>
       <c r="F43">
         <v>0</v>
       </c>
       <c r="G43">
-        <v>289.3746594613518</v>
+        <v>287.455</v>
       </c>
       <c r="H43">
-        <v>289.3746594613518</v>
+        <v>288.4811946118494</v>
       </c>
       <c r="I43">
         <v>12600</v>
@@ -1788,25 +1788,25 @@
         <v>38139.14583333334</v>
       </c>
       <c r="B44">
-        <v>288.8742129671552</v>
+        <v>287.3722824099801</v>
       </c>
       <c r="C44">
-        <v>288.9005937306338</v>
+        <v>287.3724892869652</v>
       </c>
       <c r="D44">
         <v>294.54</v>
       </c>
       <c r="E44">
-        <v>287.5387208386883</v>
+        <v>286.3871280203801</v>
       </c>
       <c r="F44">
         <v>0</v>
       </c>
       <c r="G44">
-        <v>289.74645572347</v>
+        <v>287.4572777777777</v>
       </c>
       <c r="H44">
-        <v>289.74645572347</v>
+        <v>289.2295531370147</v>
       </c>
       <c r="I44">
         <v>12900</v>
@@ -1820,25 +1820,25 @@
         <v>38139.14930555555</v>
       </c>
       <c r="B45">
-        <v>288.9482728799048</v>
+        <v>287.375739604406</v>
       </c>
       <c r="C45">
-        <v>288.9781937587241</v>
+        <v>287.3756641462087</v>
       </c>
       <c r="D45">
         <v>294.54</v>
       </c>
       <c r="E45">
-        <v>287.5086987190938</v>
+        <v>286.3937292976328</v>
       </c>
       <c r="F45">
         <v>0</v>
       </c>
       <c r="G45">
-        <v>289.3853075393274</v>
+        <v>287.4595555555555</v>
       </c>
       <c r="H45">
-        <v>289.3853075393274</v>
+        <v>288.4760041405807</v>
       </c>
       <c r="I45">
         <v>13200</v>
@@ -1852,25 +1852,25 @@
         <v>38139.15277777778</v>
       </c>
       <c r="B46">
-        <v>288.8854050117037</v>
+        <v>287.3780929736809</v>
       </c>
       <c r="C46">
-        <v>288.9117101341956</v>
+        <v>287.3778155896979</v>
       </c>
       <c r="D46">
         <v>294.54</v>
       </c>
       <c r="E46">
-        <v>287.5541473857588</v>
+        <v>286.398105128774</v>
       </c>
       <c r="F46">
         <v>0</v>
       </c>
       <c r="G46">
-        <v>289.7746060522374</v>
+        <v>287.4618333333333</v>
       </c>
       <c r="H46">
-        <v>289.7746060522374</v>
+        <v>289.2434033072602</v>
       </c>
       <c r="I46">
         <v>13500</v>
@@ -1884,25 +1884,25 @@
         <v>38139.15625</v>
       </c>
       <c r="B47">
-        <v>288.9615704904908</v>
+        <v>287.3795840314703</v>
       </c>
       <c r="C47">
-        <v>288.9916897335906</v>
+        <v>287.3791732918003</v>
       </c>
       <c r="D47">
         <v>294.54</v>
       </c>
       <c r="E47">
-        <v>287.5189759739475</v>
+        <v>286.4006209875659</v>
       </c>
       <c r="F47">
         <v>0</v>
       </c>
       <c r="G47">
-        <v>289.3959115226627</v>
+        <v>287.4641111111111</v>
       </c>
       <c r="H47">
-        <v>289.3959115226627</v>
+        <v>288.4718268461995</v>
       </c>
       <c r="I47">
         <v>13800</v>
@@ -1916,25 +1916,25 @@
         <v>38139.15972222222</v>
       </c>
       <c r="B48">
-        <v>288.8945134840287</v>
+        <v>287.3803948816045</v>
       </c>
       <c r="C48">
-        <v>288.9209380756782</v>
+        <v>287.3799091220126</v>
       </c>
       <c r="D48">
         <v>294.54</v>
       </c>
       <c r="E48">
-        <v>287.5632940970892</v>
+        <v>286.4015776718352</v>
       </c>
       <c r="F48">
         <v>0</v>
       </c>
       <c r="G48">
-        <v>289.8018882626745</v>
+        <v>287.4663888888888</v>
       </c>
       <c r="H48">
-        <v>289.8018882626745</v>
+        <v>289.2534717449309</v>
       </c>
       <c r="I48">
         <v>14100</v>
@@ -1948,25 +1948,25 @@
         <v>38139.16319444445</v>
       </c>
       <c r="B49">
-        <v>288.9730370388494</v>
+        <v>287.3806644865495</v>
       </c>
       <c r="C49">
-        <v>289.0035021046261</v>
+        <v>287.3801532817193</v>
       </c>
       <c r="D49">
         <v>294.54</v>
       </c>
       <c r="E49">
-        <v>287.5241407608945</v>
+        <v>286.401224021923</v>
       </c>
       <c r="F49">
         <v>0</v>
       </c>
       <c r="G49">
-        <v>289.4071451671446</v>
+        <v>287.4686666666666</v>
       </c>
       <c r="H49">
-        <v>289.4071451671446</v>
+        <v>288.4694057322935</v>
       </c>
       <c r="I49">
         <v>14400</v>
@@ -1980,25 +1980,25 @@
         <v>38139.16666666666</v>
       </c>
       <c r="B50">
-        <v>288.9024086001552</v>
+        <v>287.3804999977942</v>
       </c>
       <c r="C50">
-        <v>288.9202270515214</v>
+        <v>287.3785908891946</v>
       </c>
       <c r="D50">
         <v>294.54</v>
       </c>
       <c r="E50">
-        <v>287.550476018316</v>
+        <v>286.3818834004699</v>
       </c>
       <c r="F50">
         <v>0</v>
       </c>
       <c r="G50">
-        <v>289.8278975165326</v>
+        <v>287.4677777777778</v>
       </c>
       <c r="H50">
-        <v>289.8278975165326</v>
+        <v>289.2601864950396</v>
       </c>
       <c r="I50">
         <v>14700</v>
@@ -2012,25 +2012,25 @@
         <v>38139.17013888889</v>
       </c>
       <c r="B51">
-        <v>288.9874961155517</v>
+        <v>287.3700180499819</v>
       </c>
       <c r="C51">
-        <v>288.9850189027981</v>
+        <v>287.3658664868634</v>
       </c>
       <c r="D51">
         <v>294.54</v>
       </c>
       <c r="E51">
-        <v>287.4813125349464</v>
+        <v>286.353393258101</v>
       </c>
       <c r="F51">
         <v>0</v>
       </c>
       <c r="G51">
-        <v>289.4089768302001</v>
+        <v>287.4668888888889</v>
       </c>
       <c r="H51">
-        <v>289.4089768302001</v>
+        <v>288.4632861907344</v>
       </c>
       <c r="I51">
         <v>15000</v>
@@ -2044,25 +2044,25 @@
         <v>38139.17361111111</v>
       </c>
       <c r="B52">
-        <v>288.8969345315116</v>
+        <v>287.3535612031468</v>
       </c>
       <c r="C52">
-        <v>288.8900424656722</v>
+        <v>287.3479520134554</v>
       </c>
       <c r="D52">
         <v>294.54</v>
       </c>
       <c r="E52">
-        <v>287.4905619985296</v>
+        <v>286.3181533834919</v>
       </c>
       <c r="F52">
         <v>0</v>
       </c>
       <c r="G52">
-        <v>289.825480863016</v>
+        <v>287.466</v>
       </c>
       <c r="H52">
-        <v>289.825480863016</v>
+        <v>289.2528514667779</v>
       </c>
       <c r="I52">
         <v>15300</v>
@@ -2076,25 +2076,25 @@
         <v>38139.17708333334</v>
       </c>
       <c r="B53">
-        <v>288.9637845816873</v>
+        <v>287.3334252101512</v>
       </c>
       <c r="C53">
-        <v>288.9465951354188</v>
+        <v>287.3264995334713</v>
       </c>
       <c r="D53">
         <v>294.54</v>
       </c>
       <c r="E53">
-        <v>287.402027389064</v>
+        <v>286.2774321068572</v>
       </c>
       <c r="F53">
         <v>0</v>
       </c>
       <c r="G53">
-        <v>289.360183326448</v>
+        <v>287.4651111111111</v>
       </c>
       <c r="H53">
-        <v>289.360183326448</v>
+        <v>288.4350578499816</v>
       </c>
       <c r="I53">
         <v>15600</v>
@@ -2108,25 +2108,25 @@
         <v>38139.18055555555</v>
       </c>
       <c r="B54">
-        <v>288.8513605366886</v>
+        <v>287.3106348300117</v>
       </c>
       <c r="C54">
-        <v>288.8340453250905</v>
+        <v>287.3024251696895</v>
       </c>
       <c r="D54">
         <v>294.54</v>
       </c>
       <c r="E54">
-        <v>287.396000516752</v>
+        <v>286.232152306711</v>
       </c>
       <c r="F54">
         <v>0</v>
       </c>
       <c r="G54">
-        <v>289.764107078876</v>
+        <v>287.4642222222222</v>
       </c>
       <c r="H54">
-        <v>289.764107078876</v>
+        <v>289.2222478970967</v>
       </c>
       <c r="I54">
         <v>15900</v>
@@ -2140,25 +2140,25 @@
         <v>38139.18402777778</v>
       </c>
       <c r="B55">
-        <v>288.9029878070212</v>
+        <v>287.2858445990182</v>
       </c>
       <c r="C55">
-        <v>288.8779881940577</v>
+        <v>287.2763462334087</v>
       </c>
       <c r="D55">
         <v>294.54</v>
       </c>
       <c r="E55">
-        <v>287.2898871429765</v>
+        <v>286.1830414918608</v>
       </c>
       <c r="F55">
         <v>0</v>
       </c>
       <c r="G55">
-        <v>289.257401241001</v>
+        <v>287.4633333333333</v>
       </c>
       <c r="H55">
-        <v>289.257401241001</v>
+        <v>288.3826878547233</v>
       </c>
       <c r="I55">
         <v>16200</v>
@@ -2172,25 +2172,25 @@
         <v>38139.1875</v>
       </c>
       <c r="B56">
-        <v>288.7699490661656</v>
+        <v>287.2595118009153</v>
       </c>
       <c r="C56">
-        <v>288.7469347957923</v>
+        <v>287.2487039844652</v>
       </c>
       <c r="D56">
         <v>294.54</v>
       </c>
       <c r="E56">
-        <v>287.2727517596278</v>
+        <v>286.1306876527752</v>
       </c>
       <c r="F56">
         <v>0</v>
       </c>
       <c r="G56">
-        <v>289.6704583973185</v>
+        <v>287.4624444444444</v>
       </c>
       <c r="H56">
-        <v>289.6704583973185</v>
+        <v>289.1660072584451</v>
       </c>
       <c r="I56">
         <v>16500</v>
@@ -2204,25 +2204,25 @@
         <v>38139.19097222222</v>
       </c>
       <c r="B57">
-        <v>288.8121136014857</v>
+        <v>287.231968194656</v>
       </c>
       <c r="C57">
-        <v>288.7825564576256</v>
+        <v>287.219823919087</v>
       </c>
       <c r="D57">
         <v>294.54</v>
       </c>
       <c r="E57">
-        <v>287.1538879430586</v>
+        <v>286.0755721317612</v>
       </c>
       <c r="F57">
         <v>0</v>
       </c>
       <c r="G57">
-        <v>289.1408661298536</v>
+        <v>287.4615555555555</v>
       </c>
       <c r="H57">
-        <v>289.1408661298536</v>
+        <v>288.3085958108321</v>
       </c>
       <c r="I57">
         <v>16800</v>
@@ -2236,25 +2236,25 @@
         <v>38139.19444444445</v>
       </c>
       <c r="B58">
-        <v>288.665616308112</v>
+        <v>287.2034604713443</v>
       </c>
       <c r="C58">
-        <v>288.6391025257797</v>
+        <v>287.1899514622791</v>
       </c>
       <c r="D58">
         <v>294.54</v>
       </c>
       <c r="E58">
-        <v>287.1309464897856</v>
+        <v>286.0180924811093</v>
       </c>
       <c r="F58">
         <v>0</v>
       </c>
       <c r="G58">
-        <v>289.5806106749236</v>
+        <v>287.4606666666667</v>
       </c>
       <c r="H58">
-        <v>289.5806106749236</v>
+        <v>289.0950693473868</v>
       </c>
       <c r="I58">
         <v>17100</v>
@@ -2268,25 +2268,25 @@
         <v>38139.19791666666</v>
       </c>
       <c r="B59">
-        <v>288.7064701674437</v>
+        <v>287.1741754994682</v>
       </c>
       <c r="C59">
-        <v>288.6737351019601</v>
+        <v>287.1592747600151</v>
       </c>
       <c r="D59">
         <v>294.54</v>
       </c>
       <c r="E59">
-        <v>287.0028864358509</v>
+        <v>285.9585793558927</v>
       </c>
       <c r="F59">
         <v>0</v>
       </c>
       <c r="G59">
-        <v>289.0297708231229</v>
+        <v>287.4597777777777</v>
       </c>
       <c r="H59">
-        <v>289.0297708231229</v>
+        <v>288.2257445397304</v>
       </c>
       <c r="I59">
         <v>17400</v>
@@ -2300,25 +2300,25 @@
         <v>38139.20138888889</v>
       </c>
       <c r="B60">
-        <v>288.5511078874006</v>
+        <v>287.1442569404434</v>
       </c>
       <c r="C60">
-        <v>288.521980625795</v>
+        <v>287.1279399545904</v>
       </c>
       <c r="D60">
         <v>294.54</v>
       </c>
       <c r="E60">
-        <v>286.9765982647269</v>
+        <v>285.8973093892013</v>
       </c>
       <c r="F60">
         <v>0</v>
       </c>
       <c r="G60">
-        <v>289.4946400093253</v>
+        <v>287.4588888888889</v>
       </c>
       <c r="H60">
-        <v>289.4946400093253</v>
+        <v>289.0204145018988</v>
       </c>
       <c r="I60">
         <v>17700</v>
@@ -2332,25 +2332,25 @@
         <v>38139.20486111111</v>
       </c>
       <c r="B61">
-        <v>288.5933709724096</v>
+        <v>287.1138166127099</v>
       </c>
       <c r="C61">
-        <v>288.5580645866324</v>
+        <v>287.0960618083137</v>
       </c>
       <c r="D61">
         <v>294.54</v>
       </c>
       <c r="E61">
-        <v>286.8408818215924</v>
+        <v>285.8345152027425</v>
       </c>
       <c r="F61">
         <v>0</v>
       </c>
       <c r="G61">
-        <v>288.9186065655407</v>
+        <v>287.458</v>
       </c>
       <c r="H61">
-        <v>288.9186065655407</v>
+        <v>288.1424346215716</v>
       </c>
       <c r="I61">
         <v>18000</v>
@@ -2364,25 +2364,25 @@
         <v>38139.20833333334</v>
       </c>
       <c r="B62">
-        <v>288.4301019178106</v>
+        <v>287.0829424989128</v>
       </c>
       <c r="C62">
-        <v>288.3988107212842</v>
+        <v>287.0637313083549</v>
       </c>
       <c r="D62">
         <v>294.54</v>
       </c>
       <c r="E62">
-        <v>286.8579833623543</v>
+        <v>285.8122029906377</v>
       </c>
       <c r="F62">
         <v>0</v>
       </c>
       <c r="G62">
-        <v>289.4084710106112</v>
+        <v>287.4672222222222</v>
       </c>
       <c r="H62">
-        <v>289.4084710106112</v>
+        <v>288.9455662684447</v>
       </c>
       <c r="I62">
         <v>18300</v>
@@ -2396,25 +2396,25 @@
         <v>38139.21180555555</v>
       </c>
       <c r="B63">
-        <v>288.496277504618</v>
+        <v>287.0744622744868</v>
       </c>
       <c r="C63">
-        <v>288.4596774926868</v>
+        <v>287.0543051769096</v>
       </c>
       <c r="D63">
         <v>294.54</v>
       </c>
       <c r="E63">
-        <v>286.7768189348568</v>
+        <v>285.8081048515327</v>
       </c>
       <c r="F63">
         <v>0</v>
       </c>
       <c r="G63">
-        <v>288.8106294670103</v>
+        <v>287.4764444444444</v>
       </c>
       <c r="H63">
-        <v>288.8106294670103</v>
+        <v>288.0645223864764</v>
       </c>
       <c r="I63">
         <v>18600</v>
@@ -2428,25 +2428,25 @@
         <v>38139.21527777778</v>
       </c>
       <c r="B64">
-        <v>288.3551408735229</v>
+        <v>287.075485388751</v>
       </c>
       <c r="C64">
-        <v>288.3239066727637</v>
+        <v>287.0547848759759</v>
       </c>
       <c r="D64">
         <v>294.54</v>
       </c>
       <c r="E64">
-        <v>286.8325144732093</v>
+        <v>285.8169476070843</v>
       </c>
       <c r="F64">
         <v>0</v>
       </c>
       <c r="G64">
-        <v>289.3329671446656</v>
+        <v>287.4856666666666</v>
       </c>
       <c r="H64">
-        <v>289.3329671446656</v>
+        <v>288.8848161296304</v>
       </c>
       <c r="I64">
         <v>18900</v>
@@ -2460,25 +2460,25 @@
         <v>38139.21875</v>
       </c>
       <c r="B65">
-        <v>288.4429582873333</v>
+        <v>287.0826802608711</v>
       </c>
       <c r="C65">
-        <v>288.4074084975184</v>
+        <v>287.0617799939012</v>
       </c>
       <c r="D65">
         <v>294.54</v>
       </c>
       <c r="E65">
-        <v>286.7685771780131</v>
+        <v>285.8359630246475</v>
       </c>
       <c r="F65">
         <v>0</v>
       </c>
       <c r="G65">
-        <v>288.7178378066749</v>
+        <v>287.4948888888889</v>
       </c>
       <c r="H65">
-        <v>288.7178378066749</v>
+        <v>288.0077367193117</v>
       </c>
       <c r="I65">
         <v>19200</v>
@@ -2492,25 +2492,25 @@
         <v>38139.22222222222</v>
       </c>
       <c r="B66">
-        <v>288.3066019608073</v>
+        <v>287.0942682111635</v>
       </c>
       <c r="C66">
-        <v>288.2768978264384</v>
+        <v>287.0734568118382</v>
       </c>
       <c r="D66">
         <v>294.54</v>
       </c>
       <c r="E66">
-        <v>286.8496983383774</v>
+        <v>285.8631117600518</v>
       </c>
       <c r="F66">
         <v>0</v>
       </c>
       <c r="G66">
-        <v>289.2682522139499</v>
+        <v>287.5041111111111</v>
       </c>
       <c r="H66">
-        <v>289.2682522139499</v>
+        <v>288.8357115689388</v>
       </c>
       <c r="I66">
         <v>19500</v>
@@ -2524,25 +2524,25 @@
         <v>38139.22569444445</v>
       </c>
       <c r="B67">
-        <v>288.4090829506424</v>
+        <v>287.1090790859373</v>
       </c>
       <c r="C67">
-        <v>288.3757632287235</v>
+        <v>287.0885924650161</v>
       </c>
       <c r="D67">
         <v>294.54</v>
       </c>
       <c r="E67">
-        <v>286.8416754990592</v>
+        <v>285.9441221509309</v>
       </c>
       <c r="F67">
         <v>0</v>
       </c>
       <c r="G67">
-        <v>288.6365830154781</v>
+        <v>287.5133333333333</v>
       </c>
       <c r="H67">
-        <v>288.6365830154781</v>
+        <v>287.9638134083257</v>
       </c>
       <c r="I67">
         <v>19800</v>
@@ -2556,25 +2556,25 @@
         <v>38139.22916666666</v>
       </c>
       <c r="B68">
-        <v>288.2939116467928</v>
+        <v>287.1538622185103</v>
       </c>
       <c r="C68">
-        <v>288.3205961467896</v>
+        <v>287.1731483732494</v>
       </c>
       <c r="D68">
         <v>294.54</v>
       </c>
       <c r="E68">
-        <v>287.0174104831284</v>
+        <v>286.0507732419121</v>
       </c>
       <c r="F68">
         <v>0</v>
       </c>
       <c r="G68">
-        <v>289.2579358364011</v>
+        <v>287.5225555555555</v>
       </c>
       <c r="H68">
-        <v>289.2579358364011</v>
+        <v>288.8321383426959</v>
       </c>
       <c r="I68">
         <v>20100</v>
@@ -2588,25 +2588,25 @@
         <v>38139.23263888889</v>
       </c>
       <c r="B69">
-        <v>288.4845162401716</v>
+        <v>287.2416662692357</v>
       </c>
       <c r="C69">
-        <v>288.5136138743062</v>
+        <v>287.2591269981538</v>
       </c>
       <c r="D69">
         <v>294.54</v>
       </c>
       <c r="E69">
-        <v>287.0313775279897</v>
+        <v>286.1753064310063</v>
       </c>
       <c r="F69">
         <v>0</v>
       </c>
       <c r="G69">
-        <v>288.5041664364508</v>
+        <v>287.5317777777777</v>
       </c>
       <c r="H69">
-        <v>288.5041664364508</v>
+        <v>287.8867294290279</v>
       </c>
       <c r="I69">
         <v>20400</v>
@@ -2620,25 +2620,25 @@
         <v>38139.23611111111</v>
       </c>
       <c r="B70">
-        <v>288.4127695737438</v>
+        <v>287.3442087677032</v>
       </c>
       <c r="C70">
-        <v>288.4336720360051</v>
+        <v>287.3593971039151</v>
       </c>
       <c r="D70">
         <v>294.54</v>
       </c>
       <c r="E70">
-        <v>287.249751290234</v>
+        <v>286.3132108988336</v>
       </c>
       <c r="F70">
         <v>0</v>
       </c>
       <c r="G70">
-        <v>289.2012215051713</v>
+        <v>287.541</v>
       </c>
       <c r="H70">
-        <v>289.2012215051713</v>
+        <v>288.7855599181399</v>
       </c>
       <c r="I70">
         <v>20700</v>
@@ -2652,25 +2652,25 @@
         <v>38139.23958333334</v>
       </c>
       <c r="B71">
-        <v>288.6402239062144</v>
+        <v>287.4571214082493</v>
       </c>
       <c r="C71">
-        <v>288.6629342589287</v>
+        <v>287.4697465554627</v>
       </c>
       <c r="D71">
         <v>294.54</v>
       </c>
       <c r="E71">
-        <v>287.2820311993382</v>
+        <v>286.4610791687018</v>
       </c>
       <c r="F71">
         <v>0</v>
       </c>
       <c r="G71">
-        <v>288.4436874716115</v>
+        <v>287.5502222222222</v>
       </c>
       <c r="H71">
-        <v>288.4436874716115</v>
+        <v>287.8825930905083</v>
       </c>
       <c r="I71">
         <v>21000</v>
@@ -2684,25 +2684,25 @@
         <v>38139.24305555555</v>
       </c>
       <c r="B72">
-        <v>288.5856717485482</v>
+        <v>287.5774663549265</v>
       </c>
       <c r="C72">
-        <v>288.6003318755504</v>
+        <v>287.5873648480221</v>
       </c>
       <c r="D72">
         <v>294.54</v>
       </c>
       <c r="E72">
-        <v>287.4376602038406</v>
+        <v>286.6161845793953</v>
       </c>
       <c r="F72">
         <v>0</v>
       </c>
       <c r="G72">
-        <v>288.6957067496123</v>
+        <v>287.5594444444444</v>
       </c>
       <c r="H72">
-        <v>288.6957067496123</v>
+        <v>288.787557223641</v>
       </c>
       <c r="I72">
         <v>21300</v>
@@ -2716,25 +2716,25 @@
         <v>38139.24652777778</v>
       </c>
       <c r="B73">
-        <v>288.7063708550742</v>
+        <v>287.7031033191178</v>
       </c>
       <c r="C73">
-        <v>288.7190640416802</v>
+        <v>287.7102246790291</v>
       </c>
       <c r="D73">
         <v>294.54</v>
       </c>
       <c r="E73">
-        <v>287.4683102621652</v>
+        <v>286.776312059513</v>
       </c>
       <c r="F73">
         <v>0</v>
       </c>
       <c r="G73">
-        <v>288.0984378720288</v>
+        <v>287.5686666666667</v>
       </c>
       <c r="H73">
-        <v>288.0984378720288</v>
+        <v>287.9318369038349</v>
       </c>
       <c r="I73">
         <v>21600</v>
@@ -2748,25 +2748,25 @@
         <v>38139.25</v>
       </c>
       <c r="B74">
-        <v>288.6499711095122</v>
+        <v>287.8322152077075</v>
       </c>
       <c r="C74">
-        <v>288.6558867134916</v>
+        <v>287.8367002615731</v>
       </c>
       <c r="D74">
         <v>294.54</v>
       </c>
       <c r="E74">
-        <v>287.67049909224</v>
+        <v>286.9409939368532</v>
       </c>
       <c r="F74">
         <v>0</v>
       </c>
       <c r="G74">
-        <v>288.6065244163882</v>
+        <v>287.5845138888889</v>
       </c>
       <c r="H74">
-        <v>288.6065244163882</v>
+        <v>288.8344515683896</v>
       </c>
       <c r="I74">
         <v>21900</v>
@@ -2780,25 +2780,25 @@
         <v>38139.25347222222</v>
       </c>
       <c r="B75">
-        <v>288.8341309996516</v>
+        <v>287.9653399206385</v>
       </c>
       <c r="C75">
-        <v>288.8398575177952</v>
+        <v>287.967486820721</v>
       </c>
       <c r="D75">
         <v>294.54</v>
       </c>
       <c r="E75">
-        <v>287.6811328869094</v>
+        <v>287.1080349201029</v>
       </c>
       <c r="F75">
         <v>0</v>
       </c>
       <c r="G75">
-        <v>287.8716969528833</v>
+        <v>287.6003611111111</v>
       </c>
       <c r="H75">
-        <v>287.8716969528833</v>
+        <v>288.0114400658459</v>
       </c>
       <c r="I75">
         <v>22200</v>
@@ -2812,25 +2812,25 @@
         <v>38139.25694444445</v>
       </c>
       <c r="B76">
-        <v>288.7563225404215</v>
+        <v>288.1005468072975</v>
       </c>
       <c r="C76">
-        <v>288.7565441058062</v>
+        <v>288.1006914825169</v>
       </c>
       <c r="D76">
         <v>294.54</v>
       </c>
       <c r="E76">
-        <v>287.8379041477698</v>
+        <v>287.2760444289828</v>
       </c>
       <c r="F76">
         <v>0</v>
       </c>
       <c r="G76">
-        <v>288.1716084923797</v>
+        <v>287.6162083333333</v>
       </c>
       <c r="H76">
-        <v>288.1716084923797</v>
+        <v>288.4460108163195</v>
       </c>
       <c r="I76">
         <v>22500</v>
@@ -2844,25 +2844,25 @@
         <v>38139.26041666666</v>
       </c>
       <c r="B77">
-        <v>288.8795847133629</v>
+        <v>288.2369020826014</v>
       </c>
       <c r="C77">
-        <v>288.8789109135652</v>
+        <v>288.2354282217717</v>
       </c>
       <c r="D77">
         <v>294.54</v>
       </c>
       <c r="E77">
-        <v>287.9220919486495</v>
+        <v>287.4438970334069</v>
       </c>
       <c r="F77">
         <v>0</v>
       </c>
       <c r="G77">
-        <v>287.9232993077205</v>
+        <v>287.6320555555556</v>
       </c>
       <c r="H77">
-        <v>287.9232993077205</v>
+        <v>287.6110607619954</v>
       </c>
       <c r="I77">
         <v>22800</v>
@@ -2876,25 +2876,25 @@
         <v>38139.26388888889</v>
       </c>
       <c r="B78">
-        <v>288.9101822820003</v>
+        <v>288.3737671984291</v>
       </c>
       <c r="C78">
-        <v>288.9075980125041</v>
+        <v>288.3710960650075</v>
       </c>
       <c r="D78">
         <v>294.54</v>
       </c>
       <c r="E78">
-        <v>288.1129186290694</v>
+        <v>287.6105669372577</v>
       </c>
       <c r="F78">
         <v>0</v>
       </c>
       <c r="G78">
-        <v>288.2533870731896</v>
+        <v>287.6479027777777</v>
       </c>
       <c r="H78">
-        <v>288.2533870731896</v>
+        <v>288.1219931845961</v>
       </c>
       <c r="I78">
         <v>23100</v>
@@ -2908,25 +2908,25 @@
         <v>38139.26736111111</v>
       </c>
       <c r="B79">
-        <v>289.082052809222</v>
+        <v>288.5106797225123</v>
       </c>
       <c r="C79">
-        <v>289.0797864685446</v>
+        <v>288.507260552598</v>
       </c>
       <c r="D79">
         <v>294.54</v>
       </c>
       <c r="E79">
-        <v>288.2081649521768</v>
+        <v>287.7754452584182</v>
       </c>
       <c r="F79">
         <v>0</v>
       </c>
       <c r="G79">
-        <v>287.9744709134856</v>
+        <v>287.66375</v>
       </c>
       <c r="H79">
-        <v>287.9744709134856</v>
+        <v>287.7706384472331</v>
       </c>
       <c r="I79">
         <v>23400</v>
@@ -2940,25 +2940,25 @@
         <v>38139.27083333334</v>
       </c>
       <c r="B80">
-        <v>289.129045155324</v>
+        <v>288.6473000540274</v>
       </c>
       <c r="C80">
-        <v>289.1261824439654</v>
+        <v>288.6436023678835</v>
       </c>
       <c r="D80">
         <v>294.54</v>
       </c>
       <c r="E80">
-        <v>288.4526709124776</v>
+        <v>287.9945467458964</v>
       </c>
       <c r="F80">
         <v>0</v>
       </c>
       <c r="G80">
-        <v>288.2790377605222</v>
+        <v>287.6795972222222</v>
       </c>
       <c r="H80">
-        <v>288.2790377605222</v>
+        <v>288.2575029755909</v>
       </c>
       <c r="I80">
         <v>23700</v>
@@ -2972,25 +2972,25 @@
         <v>38139.27430555555</v>
       </c>
       <c r="B81">
-        <v>289.3784057606002</v>
+        <v>288.85162595003</v>
       </c>
       <c r="C81">
-        <v>289.3599549826747</v>
+        <v>288.8346735583578</v>
       </c>
       <c r="D81">
         <v>294.54</v>
       </c>
       <c r="E81">
-        <v>288.6278074474095</v>
+        <v>288.2351280297671</v>
       </c>
       <c r="F81">
         <v>0</v>
       </c>
       <c r="G81">
-        <v>287.9871497555027</v>
+        <v>287.6954444444444</v>
       </c>
       <c r="H81">
-        <v>287.9871497555027</v>
+        <v>287.8093224233294</v>
       </c>
       <c r="I81">
         <v>24000</v>
@@ -3004,25 +3004,25 @@
         <v>38139.27777777778</v>
       </c>
       <c r="B82">
-        <v>289.5286064200218</v>
+        <v>289.0892559100739</v>
       </c>
       <c r="C82">
-        <v>289.4776791761077</v>
+        <v>289.0396706049715</v>
       </c>
       <c r="D82">
         <v>294.54</v>
       </c>
       <c r="E82">
-        <v>288.9177344007734</v>
+        <v>288.4893826527014</v>
       </c>
       <c r="F82">
         <v>0</v>
       </c>
       <c r="G82">
-        <v>288.3044448602993</v>
+        <v>287.7112916666666</v>
       </c>
       <c r="H82">
-        <v>288.3044448602993</v>
+        <v>288.3858543156841</v>
       </c>
       <c r="I82">
         <v>24300</v>
@@ -3036,25 +3036,25 @@
         <v>38139.28125</v>
       </c>
       <c r="B83">
-        <v>289.8345025177142</v>
+        <v>289.3414416386367</v>
       </c>
       <c r="C83">
-        <v>289.7462970168968</v>
+        <v>289.2548945765228</v>
       </c>
       <c r="D83">
         <v>294.54</v>
       </c>
       <c r="E83">
-        <v>289.1227745892242</v>
+        <v>288.753165569461</v>
       </c>
       <c r="F83">
         <v>0</v>
       </c>
       <c r="G83">
-        <v>288.0296438602564</v>
+        <v>287.7271388888889</v>
       </c>
       <c r="H83">
-        <v>288.0296438602564</v>
+        <v>287.9500655925451</v>
       </c>
       <c r="I83">
         <v>24600</v>
@@ -3068,25 +3068,25 @@
         <v>38139.28472222222</v>
       </c>
       <c r="B84">
-        <v>290.0156181499172</v>
+        <v>289.6008123027939</v>
       </c>
       <c r="C84">
-        <v>289.8893625069065</v>
+        <v>289.4762221675523</v>
       </c>
       <c r="D84">
         <v>294.54</v>
       </c>
       <c r="E84">
-        <v>289.4387661477588</v>
+        <v>289.0234879621219</v>
       </c>
       <c r="F84">
         <v>0</v>
       </c>
       <c r="G84">
-        <v>288.3623274862701</v>
+        <v>287.7429861111111</v>
       </c>
       <c r="H84">
-        <v>288.3623274862701</v>
+        <v>288.5888125324522</v>
       </c>
       <c r="I84">
         <v>24900</v>
@@ -3100,25 +3100,25 @@
         <v>38139.28819444445</v>
       </c>
       <c r="B85">
-        <v>290.3433681408618</v>
+        <v>289.8627721252101</v>
       </c>
       <c r="C85">
-        <v>290.1799474119026</v>
+        <v>289.700995924213</v>
       </c>
       <c r="D85">
         <v>294.54</v>
       </c>
       <c r="E85">
-        <v>289.6603365942653</v>
+        <v>289.2980418046338</v>
       </c>
       <c r="F85">
         <v>0</v>
       </c>
       <c r="G85">
-        <v>288.0927670405792</v>
+        <v>287.7588333333333</v>
       </c>
       <c r="H85">
-        <v>288.0927670405792</v>
+        <v>288.1327237384681</v>
       </c>
       <c r="I85">
         <v>25200</v>
@@ -3132,25 +3132,25 @@
         <v>38139.29166666666</v>
       </c>
       <c r="B86">
-        <v>290.5360578211715</v>
+        <v>290.1268887165323</v>
       </c>
       <c r="C86">
-        <v>290.3332737024388</v>
+        <v>289.9259003610214</v>
       </c>
       <c r="D86">
         <v>294.54</v>
       </c>
       <c r="E86">
-        <v>290.0043607252858</v>
+        <v>289.5974397571728</v>
       </c>
       <c r="F86">
         <v>0</v>
       </c>
       <c r="G86">
-        <v>288.431741052448</v>
+        <v>287.8045694444444</v>
       </c>
       <c r="H86">
-        <v>288.431741052448</v>
+        <v>288.7875682422984</v>
       </c>
       <c r="I86">
         <v>25500</v>
@@ -3164,25 +3164,25 @@
         <v>38139.29513888889</v>
       </c>
       <c r="B87">
-        <v>290.8795673330171</v>
+        <v>290.4060621025978</v>
       </c>
       <c r="C87">
-        <v>290.6469169063509</v>
+        <v>290.1751500917815</v>
       </c>
       <c r="D87">
         <v>294.54</v>
       </c>
       <c r="E87">
-        <v>290.2624156827495</v>
+        <v>289.9118315778235</v>
       </c>
       <c r="F87">
         <v>0</v>
       </c>
       <c r="G87">
-        <v>288.1681957497512</v>
+        <v>287.8503055555555</v>
       </c>
       <c r="H87">
-        <v>288.1681957497512</v>
+        <v>288.3151231906801</v>
       </c>
       <c r="I87">
         <v>25800</v>
@@ -3196,25 +3196,25 @@
         <v>38139.29861111111</v>
       </c>
       <c r="B88">
-        <v>291.0860050275686</v>
+        <v>290.6905867833273</v>
       </c>
       <c r="C88">
-        <v>290.8293585105068</v>
+        <v>290.4356393756657</v>
       </c>
       <c r="D88">
         <v>294.54</v>
       </c>
       <c r="E88">
-        <v>290.646082921086</v>
+        <v>290.2391796455973</v>
       </c>
       <c r="F88">
         <v>0</v>
       </c>
       <c r="G88">
-        <v>288.5761411886833</v>
+        <v>287.8960416666666</v>
       </c>
       <c r="H88">
-        <v>288.5761411886833</v>
+        <v>288.9513969917906</v>
       </c>
       <c r="I88">
         <v>26100</v>
@@ -3228,25 +3228,25 @@
         <v>38139.30208333334</v>
       </c>
       <c r="B89">
-        <v>291.4567405903455</v>
+        <v>290.9777240350196</v>
       </c>
       <c r="C89">
-        <v>291.1811258397938</v>
+        <v>290.7042016994269</v>
       </c>
       <c r="D89">
         <v>294.54</v>
       </c>
       <c r="E89">
-        <v>290.9472579382452</v>
+        <v>290.5785843046145</v>
       </c>
       <c r="F89">
         <v>0</v>
       </c>
       <c r="G89">
-        <v>288.3634625578439</v>
+        <v>287.9417777777778</v>
       </c>
       <c r="H89">
-        <v>288.3634625578439</v>
+        <v>288.2460959827104</v>
       </c>
       <c r="I89">
         <v>26400</v>
@@ -3260,25 +3260,25 @@
         <v>38139.30555555555</v>
       </c>
       <c r="B90">
-        <v>291.6904073397278</v>
+        <v>291.2660037673466</v>
       </c>
       <c r="C90">
-        <v>291.4017209369758</v>
+        <v>290.979209477733</v>
       </c>
       <c r="D90">
         <v>294.54</v>
       </c>
       <c r="E90">
-        <v>291.3733745101767</v>
+        <v>290.9294788553253</v>
       </c>
       <c r="F90">
         <v>0</v>
       </c>
       <c r="G90">
-        <v>288.8350201375017</v>
+        <v>287.9875138888889</v>
       </c>
       <c r="H90">
-        <v>288.8350201375017</v>
+        <v>288.7244458691822</v>
       </c>
       <c r="I90">
         <v>26700</v>
@@ -3292,25 +3292,25 @@
         <v>38139.30902777778</v>
       </c>
       <c r="B91">
-        <v>292.0928060562851</v>
+        <v>291.554518871663</v>
       </c>
       <c r="C91">
-        <v>291.7950086922112</v>
+        <v>291.2596296151602</v>
       </c>
       <c r="D91">
         <v>294.54</v>
       </c>
       <c r="E91">
-        <v>291.7087005208874</v>
+        <v>291.2914755483762</v>
       </c>
       <c r="F91">
         <v>0</v>
       </c>
       <c r="G91">
-        <v>288.6187663728743</v>
+        <v>288.03325</v>
       </c>
       <c r="H91">
-        <v>288.6187663728743</v>
+        <v>288.4050222641557</v>
       </c>
       <c r="I91">
         <v>27000</v>
@@ -3324,25 +3324,25 @@
         <v>38139.3125</v>
       </c>
       <c r="B92">
-        <v>292.3404033235016</v>
+        <v>291.8427002614477</v>
       </c>
       <c r="C92">
-        <v>292.039847748298</v>
+        <v>291.5447638511467</v>
       </c>
       <c r="D92">
         <v>294.54</v>
       </c>
       <c r="E92">
-        <v>292.1829908868613</v>
+        <v>291.678683988685</v>
       </c>
       <c r="F92">
         <v>0</v>
       </c>
       <c r="G92">
-        <v>289.1262032155314</v>
+        <v>288.0789861111111</v>
       </c>
       <c r="H92">
-        <v>289.1262032155314</v>
+        <v>289.0581843207556</v>
       </c>
       <c r="I92">
         <v>27300</v>
@@ -3356,25 +3356,25 @@
         <v>38139.31597222222</v>
       </c>
       <c r="B93">
-        <v>292.7774713403889</v>
+        <v>292.1456687567258</v>
       </c>
       <c r="C93">
-        <v>292.4661387070098</v>
+        <v>291.8386028674602</v>
       </c>
       <c r="D93">
         <v>294.54</v>
       </c>
       <c r="E93">
-        <v>292.5719712736488</v>
+        <v>292.0837504885567</v>
       </c>
       <c r="F93">
         <v>0</v>
       </c>
       <c r="G93">
-        <v>288.914329297604</v>
+        <v>288.1247222222222</v>
       </c>
       <c r="H93">
-        <v>288.914329297604</v>
+        <v>288.6394982410757</v>
       </c>
       <c r="I93">
         <v>27600</v>
@@ -3388,25 +3388,25 @@
         <v>38139.31944444445</v>
       </c>
       <c r="B94">
-        <v>293.0560235532016</v>
+        <v>292.4521145971118</v>
       </c>
       <c r="C94">
-        <v>292.7382365321401</v>
+        <v>292.1382481760162</v>
       </c>
       <c r="D94">
         <v>294.54</v>
       </c>
       <c r="E94">
-        <v>293.0908187535371</v>
+        <v>292.5051823666507</v>
       </c>
       <c r="F94">
         <v>0</v>
       </c>
       <c r="G94">
-        <v>289.4564479933621</v>
+        <v>288.1704583333333</v>
       </c>
       <c r="H94">
-        <v>289.4564479933621</v>
+        <v>289.3235698820113</v>
       </c>
       <c r="I94">
         <v>27900</v>
@@ -3420,25 +3420,25 @@
         <v>38139.32291666666</v>
       </c>
       <c r="B95">
-        <v>293.5155748322318</v>
+        <v>292.7589921654335</v>
       </c>
       <c r="C95">
-        <v>293.1931886650814</v>
+        <v>292.4428354139644</v>
       </c>
       <c r="D95">
         <v>294.54</v>
       </c>
       <c r="E95">
-        <v>293.5215315588761</v>
+        <v>292.9423411068529</v>
       </c>
       <c r="F95">
         <v>0</v>
       </c>
       <c r="G95">
-        <v>289.2496088887537</v>
+        <v>288.2161944444444</v>
       </c>
       <c r="H95">
-        <v>289.2496088887537</v>
+        <v>288.9358362949198</v>
       </c>
       <c r="I95">
         <v>28200</v>
@@ -3452,25 +3452,25 @@
         <v>38139.32638888889</v>
       </c>
       <c r="B96">
-        <v>293.8052154485552</v>
+        <v>293.0646677007383</v>
       </c>
       <c r="C96">
-        <v>293.4865392913313</v>
+        <v>292.7518454611684</v>
       </c>
       <c r="D96">
         <v>294.54</v>
       </c>
       <c r="E96">
-        <v>294.0766485968717</v>
+        <v>293.3948312121174</v>
       </c>
       <c r="F96">
         <v>0</v>
       </c>
       <c r="G96">
-        <v>289.8042074198721</v>
+        <v>288.2619305555555</v>
       </c>
       <c r="H96">
-        <v>289.8042074198721</v>
+        <v>289.6200060153054</v>
       </c>
       <c r="I96">
         <v>28500</v>
@@ -3484,25 +3484,25 @@
         <v>38139.32986111111</v>
       </c>
       <c r="B97">
-        <v>294.2724434419943</v>
+        <v>293.3680976637806</v>
       </c>
       <c r="C97">
-        <v>293.9605622376561</v>
+        <v>293.0649027720136</v>
       </c>
       <c r="D97">
         <v>294.54</v>
       </c>
       <c r="E97">
-        <v>294.5465674722416</v>
+        <v>293.8623798359437</v>
       </c>
       <c r="F97">
         <v>0</v>
       </c>
       <c r="G97">
-        <v>289.6115469842892</v>
+        <v>288.3076666666666</v>
       </c>
       <c r="H97">
-        <v>289.6115469842892</v>
+        <v>289.2478261582143</v>
       </c>
       <c r="I97">
         <v>28800</v>
@@ -3516,25 +3516,25 @@
         <v>38139.33333333334</v>
       </c>
       <c r="B98">
-        <v>294.5684251956135</v>
+        <v>293.6685812625407</v>
       </c>
       <c r="C98">
-        <v>294.2732292744475</v>
+        <v>293.3817147523302</v>
       </c>
       <c r="D98">
         <v>294.54</v>
       </c>
       <c r="E98">
-        <v>295.1143626902627</v>
+        <v>294.3236776955177</v>
       </c>
       <c r="F98">
         <v>0</v>
       </c>
       <c r="G98">
-        <v>290.169992500127</v>
+        <v>288.3700833333333</v>
       </c>
       <c r="H98">
-        <v>290.169992500127</v>
+        <v>289.9303526449244</v>
       </c>
       <c r="I98">
         <v>29100</v>
@@ -3548,25 +3548,25 @@
         <v>38139.33680555555</v>
       </c>
       <c r="B99">
-        <v>295.0810547826354</v>
+        <v>294.013500758657</v>
       </c>
       <c r="C99">
-        <v>294.7451875524926</v>
+        <v>293.6886283663213</v>
       </c>
       <c r="D99">
         <v>294.54</v>
       </c>
       <c r="E99">
-        <v>295.591576172295</v>
+        <v>294.7870423161169</v>
       </c>
       <c r="F99">
         <v>0</v>
       </c>
       <c r="G99">
-        <v>290.0171108159876</v>
+        <v>288.4325</v>
       </c>
       <c r="H99">
-        <v>290.0171108159876</v>
+        <v>289.6026599742266</v>
       </c>
       <c r="I99">
         <v>29400</v>
@@ -3580,25 +3580,25 @@
         <v>38139.34027777778</v>
       </c>
       <c r="B100">
-        <v>295.3822001813687</v>
+        <v>294.3075175352397</v>
       </c>
       <c r="C100">
-        <v>295.057761929752</v>
+        <v>293.9933766404425</v>
       </c>
       <c r="D100">
         <v>294.54</v>
       </c>
       <c r="E100">
-        <v>296.1778470475673</v>
+        <v>295.2535208458377</v>
       </c>
       <c r="F100">
         <v>0</v>
       </c>
       <c r="G100">
-        <v>290.6115261796544</v>
+        <v>288.4949166666667</v>
       </c>
       <c r="H100">
-        <v>290.6115261796544</v>
+        <v>290.3086661092045</v>
       </c>
       <c r="I100">
         <v>29700</v>
@@ -3612,25 +3612,25 @@
         <v>38139.34375</v>
       </c>
       <c r="B101">
-        <v>295.8422674577929</v>
+        <v>294.5818565448828</v>
       </c>
       <c r="C101">
-        <v>295.5438456020918</v>
+        <v>294.2963533781317</v>
       </c>
       <c r="D101">
         <v>294.54</v>
       </c>
       <c r="E101">
-        <v>296.6780931951789</v>
+        <v>295.7232713753963</v>
       </c>
       <c r="F101">
         <v>0</v>
       </c>
       <c r="G101">
-        <v>290.5070372900633</v>
+        <v>288.5573333333333</v>
       </c>
       <c r="H101">
-        <v>290.5070372900633</v>
+        <v>290.0313542404858</v>
       </c>
       <c r="I101">
         <v>30000</v>
@@ -3644,25 +3644,25 @@
         <v>38139.34722222222</v>
       </c>
       <c r="B102">
-        <v>296.1326497233777</v>
+        <v>294.8417059679782</v>
       </c>
       <c r="C102">
-        <v>295.8764292177486</v>
+        <v>294.597866937587</v>
       </c>
       <c r="D102">
         <v>294.54</v>
       </c>
       <c r="E102">
-        <v>297.2774864293692</v>
+        <v>296.1962850572759</v>
       </c>
       <c r="F102">
         <v>0</v>
       </c>
       <c r="G102">
-        <v>291.0827165944457</v>
+        <v>288.61975</v>
       </c>
       <c r="H102">
-        <v>291.0827165944457</v>
+        <v>290.7049615727925</v>
       </c>
       <c r="I102">
         <v>30300</v>
@@ -3676,25 +3676,25 @@
         <v>38139.35069444445</v>
       </c>
       <c r="B103">
-        <v>296.5726142484668</v>
+        <v>295.0892373449858</v>
       </c>
       <c r="C103">
-        <v>296.3667970474678</v>
+        <v>294.8980861309916</v>
       </c>
       <c r="D103">
         <v>294.54</v>
       </c>
       <c r="E103">
-        <v>297.7953773856197</v>
+        <v>296.6724961909885</v>
       </c>
       <c r="F103">
         <v>0</v>
       </c>
       <c r="G103">
-        <v>291.006483564766</v>
+        <v>288.6821666666667</v>
       </c>
       <c r="H103">
-        <v>291.006483564766</v>
+        <v>290.4618847831899</v>
       </c>
       <c r="I103">
         <v>30600</v>
@@ -3708,25 +3708,25 @@
         <v>38139.35416666666</v>
       </c>
       <c r="B104">
-        <v>296.8541329384711</v>
+        <v>295.3257331197111</v>
       </c>
       <c r="C104">
-        <v>296.7112698031647</v>
+        <v>295.1970967420398</v>
       </c>
       <c r="D104">
         <v>294.54</v>
       </c>
       <c r="E104">
-        <v>298.3929318166856</v>
+        <v>297.1425381055996</v>
       </c>
       <c r="F104">
         <v>0</v>
       </c>
       <c r="G104">
-        <v>291.5477932033751</v>
+        <v>288.7445833333333</v>
       </c>
       <c r="H104">
-        <v>291.5477932033751</v>
+        <v>291.0899417639715</v>
       </c>
       <c r="I104">
         <v>30900</v>
@@ -3740,25 +3740,25 @@
         <v>38139.35763888889</v>
       </c>
       <c r="B105">
-        <v>297.2807234970006</v>
+        <v>295.5620226661783</v>
       </c>
       <c r="C105">
-        <v>297.2078195252983</v>
+        <v>295.5052116543348</v>
       </c>
       <c r="D105">
         <v>294.54</v>
       </c>
       <c r="E105">
-        <v>298.9124755876244</v>
+        <v>297.6101592441914</v>
       </c>
       <c r="F105">
         <v>0</v>
       </c>
       <c r="G105">
-        <v>291.5112526091729</v>
+        <v>288.807</v>
       </c>
       <c r="H105">
-        <v>291.5112526091729</v>
+        <v>290.88607264477</v>
       </c>
       <c r="I105">
         <v>31200</v>
@@ -3772,25 +3772,25 @@
         <v>38139.36111111111</v>
       </c>
       <c r="B106">
-        <v>297.6101561738918</v>
+        <v>295.8485365173041</v>
       </c>
       <c r="C106">
-        <v>297.6042371296879</v>
+        <v>295.8268000541937</v>
       </c>
       <c r="D106">
         <v>294.54</v>
       </c>
       <c r="E106">
-        <v>299.5054274402696</v>
+        <v>298.075852395147</v>
       </c>
       <c r="F106">
         <v>0</v>
       </c>
       <c r="G106">
-        <v>292.0184137174307</v>
+        <v>288.8694166666667</v>
       </c>
       <c r="H106">
-        <v>292.0184137174307</v>
+        <v>291.4710480104781</v>
       </c>
       <c r="I106">
         <v>31500</v>
@@ -3804,25 +3804,25 @@
         <v>38139.36458333334</v>
       </c>
       <c r="B107">
-        <v>298.1609896552505</v>
+        <v>296.21418772011</v>
       </c>
       <c r="C107">
-        <v>298.0726255464569</v>
+        <v>296.1085141956578</v>
       </c>
       <c r="D107">
         <v>294.54</v>
       </c>
       <c r="E107">
-        <v>300.0323796538986</v>
+        <v>298.5397141226508</v>
       </c>
       <c r="F107">
         <v>0</v>
       </c>
       <c r="G107">
-        <v>292.0328243322114</v>
+        <v>288.9318333333333</v>
       </c>
       <c r="H107">
-        <v>292.0328243322114</v>
+        <v>291.3164686446555</v>
       </c>
       <c r="I107">
         <v>31800</v>
@@ -3836,25 +3836,25 @@
         <v>38139.36805555555</v>
       </c>
       <c r="B108">
-        <v>298.6135320137387</v>
+        <v>296.5918247569036</v>
       </c>
       <c r="C108">
-        <v>298.4367393599346</v>
+        <v>296.3977639476876</v>
       </c>
       <c r="D108">
         <v>294.54</v>
       </c>
       <c r="E108">
-        <v>300.6215019836851</v>
+        <v>299.0017656922604</v>
       </c>
       <c r="F108">
         <v>0</v>
       </c>
       <c r="G108">
-        <v>292.5068661882279</v>
+        <v>288.99425</v>
       </c>
       <c r="H108">
-        <v>292.5068661882279</v>
+        <v>291.8631068741261</v>
       </c>
       <c r="I108">
         <v>32100</v>
@@ -3868,25 +3868,25 @@
         <v>38139.37152777778</v>
       </c>
       <c r="B109">
-        <v>299.1816436196322</v>
+        <v>296.9773833846712</v>
       </c>
       <c r="C109">
-        <v>298.9139230160804</v>
+        <v>296.6911657416168</v>
       </c>
       <c r="D109">
         <v>294.54</v>
       </c>
       <c r="E109">
-        <v>301.1554596959193</v>
+        <v>299.4620032843175</v>
       </c>
       <c r="F109">
         <v>0</v>
       </c>
       <c r="G109">
-        <v>292.5697063245166</v>
+        <v>289.0566666666666</v>
       </c>
       <c r="H109">
-        <v>292.5697063245166</v>
+        <v>291.7583274622341</v>
       </c>
       <c r="I109">
         <v>32400</v>
@@ -3900,25 +3900,25 @@
         <v>38139.375</v>
       </c>
       <c r="B110">
-        <v>299.6629757063342</v>
+        <v>297.3683767194883</v>
       </c>
       <c r="C110">
-        <v>299.3000554071625</v>
+        <v>296.9867519343806</v>
       </c>
       <c r="D110">
         <v>294.54</v>
       </c>
       <c r="E110">
-        <v>301.7480698877209</v>
+        <v>299.9396520260517</v>
       </c>
       <c r="F110">
         <v>0</v>
       </c>
       <c r="G110">
-        <v>293.0078186630792</v>
+        <v>289.177875</v>
       </c>
       <c r="H110">
-        <v>293.0078186630792</v>
+        <v>292.2583020347475</v>
       </c>
       <c r="I110">
         <v>32700</v>
@@ -3932,25 +3932,25 @@
         <v>38139.37847222222</v>
       </c>
       <c r="B111">
-        <v>300.2413085238984</v>
+        <v>297.7863604256654</v>
       </c>
       <c r="C111">
-        <v>299.7811659918572</v>
+        <v>297.3066142241622</v>
       </c>
       <c r="D111">
         <v>294.54</v>
       </c>
       <c r="E111">
-        <v>302.3007560253221</v>
+        <v>300.423581040205</v>
       </c>
       <c r="F111">
         <v>0</v>
       </c>
       <c r="G111">
-        <v>293.1221729287363</v>
+        <v>289.2990833333333</v>
       </c>
       <c r="H111">
-        <v>293.1221729287363</v>
+        <v>292.2108744631795</v>
       </c>
       <c r="I111">
         <v>33000</v>
@@ -3964,25 +3964,25 @@
         <v>38139.38194444445</v>
       </c>
       <c r="B112">
-        <v>300.7517431753571</v>
+        <v>298.2157673605343</v>
       </c>
       <c r="C112">
-        <v>300.1912612036579</v>
+        <v>297.635410583792</v>
       </c>
       <c r="D112">
         <v>294.54</v>
       </c>
       <c r="E112">
-        <v>302.9025960195492</v>
+        <v>300.9112748179483</v>
       </c>
       <c r="F112">
         <v>0</v>
       </c>
       <c r="G112">
-        <v>293.5694717520324</v>
+        <v>289.4202916666666</v>
       </c>
       <c r="H112">
-        <v>293.5694717520324</v>
+        <v>292.7251002832098</v>
       </c>
       <c r="I112">
         <v>33300</v>
@@ -3996,25 +3996,25 @@
         <v>38139.38541666666</v>
       </c>
       <c r="B113">
-        <v>301.347274611487</v>
+        <v>298.652381357375</v>
       </c>
       <c r="C113">
-        <v>300.6848103800787</v>
+        <v>297.9691635045332</v>
       </c>
       <c r="D113">
         <v>294.54</v>
       </c>
       <c r="E113">
-        <v>303.4773230254413</v>
+        <v>301.401448786569</v>
       </c>
       <c r="F113">
         <v>0</v>
       </c>
       <c r="G113">
-        <v>293.7752862292701</v>
+        <v>289.5415</v>
       </c>
       <c r="H113">
-        <v>293.7752862292701</v>
+        <v>292.7672561019655</v>
       </c>
       <c r="I113">
         <v>33600</v>
@@ -4028,25 +4028,25 @@
         <v>38139.38888888889</v>
       </c>
       <c r="B114">
-        <v>301.8962275790343</v>
+        <v>299.0938338113264</v>
       </c>
       <c r="C114">
-        <v>301.1294983324935</v>
+        <v>298.3057163076306</v>
       </c>
       <c r="D114">
         <v>294.54</v>
       </c>
       <c r="E114">
-        <v>304.0845854491502</v>
+        <v>301.8931920110901</v>
       </c>
       <c r="F114">
         <v>0</v>
       </c>
       <c r="G114">
-        <v>294.196344144267</v>
+        <v>289.6627083333333</v>
       </c>
       <c r="H114">
-        <v>294.196344144267</v>
+        <v>293.2454100695036</v>
       </c>
       <c r="I114">
         <v>33900</v>
@@ -4060,25 +4060,25 @@
         <v>38139.39236111111</v>
       </c>
       <c r="B115">
-        <v>302.4692350599869</v>
+        <v>299.50632352168</v>
       </c>
       <c r="C115">
-        <v>301.736992050545</v>
+        <v>298.7520201348903</v>
       </c>
       <c r="D115">
         <v>294.54</v>
       </c>
       <c r="E115">
-        <v>304.6721028056429</v>
+        <v>302.3858060102295</v>
       </c>
       <c r="F115">
         <v>0</v>
       </c>
       <c r="G115">
-        <v>294.446488166738</v>
+        <v>289.7839166666666</v>
       </c>
       <c r="H115">
-        <v>294.446488166738</v>
+        <v>293.3324931416122</v>
       </c>
       <c r="I115">
         <v>34200</v>
@@ -4092,25 +4092,25 @@
         <v>38139.39583333334</v>
       </c>
       <c r="B116">
-        <v>303.0198170641626</v>
+        <v>299.932905017263</v>
       </c>
       <c r="C116">
-        <v>302.2500827998824</v>
+        <v>299.1403229815936</v>
       </c>
       <c r="D116">
         <v>294.54</v>
       </c>
       <c r="E116">
-        <v>305.2555397184739</v>
+        <v>302.8557914699733</v>
       </c>
       <c r="F116">
         <v>0</v>
       </c>
       <c r="G116">
-        <v>294.8280280160432</v>
+        <v>289.905125</v>
       </c>
       <c r="H116">
-        <v>294.8280280160432</v>
+        <v>293.7626612834375</v>
       </c>
       <c r="I116">
         <v>34500</v>
@@ -4124,25 +4124,25 @@
         <v>38139.39930555555</v>
       </c>
       <c r="B117">
-        <v>303.6210822949927</v>
+        <v>300.3787375152488</v>
       </c>
       <c r="C117">
-        <v>302.6190866575533</v>
+        <v>299.3525119145714</v>
       </c>
       <c r="D117">
         <v>294.54</v>
       </c>
       <c r="E117">
-        <v>305.8150206408949</v>
+        <v>303.3174170612043</v>
       </c>
       <c r="F117">
         <v>0</v>
       </c>
       <c r="G117">
-        <v>295.0901225048482</v>
+        <v>290.0263333333333</v>
       </c>
       <c r="H117">
-        <v>295.0901225048482</v>
+        <v>293.8703119007391</v>
       </c>
       <c r="I117">
         <v>34800</v>
@@ -4156,25 +4156,25 @@
         <v>38139.40277777778</v>
       </c>
       <c r="B118">
-        <v>304.1630588708064</v>
+        <v>300.7929278694853</v>
       </c>
       <c r="C118">
-        <v>303.010714869198</v>
+        <v>299.6152872679135</v>
       </c>
       <c r="D118">
         <v>294.54</v>
       </c>
       <c r="E118">
-        <v>306.3758316892356</v>
+        <v>303.773832081248</v>
       </c>
       <c r="F118">
         <v>0</v>
       </c>
       <c r="G118">
-        <v>295.4135169723676</v>
+        <v>290.1475416666667</v>
       </c>
       <c r="H118">
-        <v>295.4135169723676</v>
+        <v>294.2303117445761</v>
       </c>
       <c r="I118">
         <v>35100</v>
@@ -4188,25 +4188,25 @@
         <v>38139.40625</v>
       </c>
       <c r="B119">
-        <v>304.7076103968633</v>
+        <v>301.1984398313913</v>
       </c>
       <c r="C119">
-        <v>303.4162540720848</v>
+        <v>299.8806209528972</v>
       </c>
       <c r="D119">
         <v>294.54</v>
       </c>
       <c r="E119">
-        <v>306.9254521248326</v>
+        <v>304.2265947429336</v>
       </c>
       <c r="F119">
         <v>0</v>
       </c>
       <c r="G119">
-        <v>295.687388825527</v>
+        <v>290.26875</v>
       </c>
       <c r="H119">
-        <v>295.687388825527</v>
+        <v>294.3608192326724</v>
       </c>
       <c r="I119">
         <v>35400</v>
@@ -4220,25 +4220,25 @@
         <v>38139.40972222222</v>
       </c>
       <c r="B120">
-        <v>305.2348026327106</v>
+        <v>301.5997477433479</v>
       </c>
       <c r="C120">
-        <v>303.807472099408</v>
+        <v>300.1446848567288</v>
       </c>
       <c r="D120">
         <v>294.54</v>
       </c>
       <c r="E120">
-        <v>307.4741535274912</v>
+        <v>304.676772070421</v>
       </c>
       <c r="F120">
         <v>0</v>
       </c>
       <c r="G120">
-        <v>295.9855611435715</v>
+        <v>290.3899583333333</v>
       </c>
       <c r="H120">
-        <v>295.9855611435715</v>
+        <v>294.6842329002171</v>
       </c>
       <c r="I120">
         <v>35700</v>
@@ -4252,25 +4252,25 @@
         <v>38139.41319444445</v>
       </c>
       <c r="B121">
-        <v>305.7631186667123</v>
+        <v>301.9989362008583</v>
       </c>
       <c r="C121">
-        <v>304.2002671056674</v>
+        <v>300.4070054351865</v>
       </c>
       <c r="D121">
         <v>294.54</v>
       </c>
       <c r="E121">
-        <v>308.0175309136942</v>
+        <v>305.1251504560518</v>
       </c>
       <c r="F121">
         <v>0</v>
       </c>
       <c r="G121">
-        <v>296.2652227211436</v>
+        <v>290.5111666666667</v>
       </c>
       <c r="H121">
-        <v>296.2652227211436</v>
+        <v>294.8396259231457</v>
       </c>
       <c r="I121">
         <v>36000</v>
@@ -4284,25 +4284,25 @@
         <v>38139.41666666666</v>
       </c>
       <c r="B122">
-        <v>306.2847755266794</v>
+        <v>302.3972328951135</v>
       </c>
       <c r="C122">
-        <v>304.5856488292488</v>
+        <v>300.6675627164731</v>
       </c>
       <c r="D122">
         <v>294.54</v>
       </c>
       <c r="E122">
-        <v>308.4982183555272</v>
+        <v>305.5004146963949</v>
       </c>
       <c r="F122">
         <v>0</v>
       </c>
       <c r="G122">
-        <v>296.5547717346699</v>
+        <v>290.6339027777777</v>
       </c>
       <c r="H122">
-        <v>296.5547717346699</v>
+        <v>295.1297619537679</v>
       </c>
       <c r="I122">
         <v>36300</v>
@@ -4316,25 +4316,25 @@
         <v>38139.42013888889</v>
       </c>
       <c r="B123">
-        <v>306.7734790764225</v>
+        <v>302.7578209737649</v>
       </c>
       <c r="C123">
-        <v>304.9464348364987</v>
+        <v>300.8996729053021</v>
       </c>
       <c r="D123">
         <v>294.54</v>
       </c>
       <c r="E123">
-        <v>308.9397287404546</v>
+        <v>305.8433296496739</v>
       </c>
       <c r="F123">
         <v>0</v>
       </c>
       <c r="G123">
-        <v>296.786948042918</v>
+        <v>290.7566388888889</v>
       </c>
       <c r="H123">
-        <v>296.786948042918</v>
+        <v>295.2632402163666</v>
       </c>
       <c r="I123">
         <v>36600</v>
@@ -4348,25 +4348,25 @@
         <v>38139.42361111111</v>
       </c>
       <c r="B124">
-        <v>307.2304457406881</v>
+        <v>303.1039482539057</v>
       </c>
       <c r="C124">
-        <v>305.2780286790896</v>
+        <v>301.1200948254157</v>
       </c>
       <c r="D124">
         <v>294.54</v>
       </c>
       <c r="E124">
-        <v>309.341445321117</v>
+        <v>306.1629999251715</v>
       </c>
       <c r="F124">
         <v>0</v>
       </c>
       <c r="G124">
-        <v>296.9438010119737</v>
+        <v>290.879375</v>
       </c>
       <c r="H124">
-        <v>296.9438010119737</v>
+        <v>295.4091675632997</v>
       </c>
       <c r="I124">
         <v>36900</v>
@@ -4380,25 +4380,25 @@
         <v>38139.42708333334</v>
       </c>
       <c r="B125">
-        <v>307.6475584680721</v>
+        <v>303.4409294480752</v>
       </c>
       <c r="C125">
-        <v>305.5710568239829</v>
+        <v>301.3327222111526</v>
       </c>
       <c r="D125">
         <v>294.54</v>
       </c>
       <c r="E125">
-        <v>309.7135826967763</v>
+        <v>306.4641203462846</v>
       </c>
       <c r="F125">
         <v>0</v>
       </c>
       <c r="G125">
-        <v>297.082455084514</v>
+        <v>291.0021111111111</v>
       </c>
       <c r="H125">
-        <v>297.082455084514</v>
+        <v>295.4831569559095</v>
       </c>
       <c r="I125">
         <v>37200</v>
@@ -4412,25 +4412,25 @@
         <v>38139.43055555555</v>
       </c>
       <c r="B126">
-        <v>308.0393283325041</v>
+        <v>303.7714614503926</v>
       </c>
       <c r="C126">
-        <v>305.8393005693629</v>
+        <v>301.5395714430529</v>
       </c>
       <c r="D126">
         <v>294.54</v>
       </c>
       <c r="E126">
-        <v>310.0629827356969</v>
+        <v>306.7500442862612</v>
       </c>
       <c r="F126">
         <v>0</v>
       </c>
       <c r="G126">
-        <v>297.2177151916362</v>
+        <v>291.1248472222222</v>
       </c>
       <c r="H126">
-        <v>297.2177151916362</v>
+        <v>295.6109335790453</v>
       </c>
       <c r="I126">
         <v>37500</v>
@@ -4444,25 +4444,25 @@
         <v>38139.43402777778</v>
       </c>
       <c r="B127">
-        <v>308.4147013888262</v>
+        <v>304.0971987401083</v>
       </c>
       <c r="C127">
-        <v>306.0913455760095</v>
+        <v>301.7419235257287</v>
       </c>
       <c r="D127">
         <v>294.54</v>
       </c>
       <c r="E127">
-        <v>310.3959916239545</v>
+        <v>307.0233533194236</v>
       </c>
       <c r="F127">
         <v>0</v>
       </c>
       <c r="G127">
-        <v>297.361806685555</v>
+        <v>291.2475833333333</v>
       </c>
       <c r="H127">
-        <v>297.361806685555</v>
+        <v>295.7072661129058</v>
       </c>
       <c r="I127">
         <v>37800</v>
@@ -4476,25 +4476,25 @@
         <v>38139.4375</v>
       </c>
       <c r="B128">
-        <v>308.7817183559862</v>
+        <v>304.4192019683512</v>
       </c>
       <c r="C128">
-        <v>306.335023065154</v>
+        <v>301.9406431293483</v>
       </c>
       <c r="D128">
         <v>294.54</v>
       </c>
       <c r="E128">
-        <v>310.6820825821417</v>
+        <v>307.2559328791064</v>
       </c>
       <c r="F128">
         <v>0</v>
       </c>
       <c r="G128">
-        <v>297.4936896963714</v>
+        <v>291.3703194444444</v>
       </c>
       <c r="H128">
-        <v>297.4936896963714</v>
+        <v>295.8310148679575</v>
       </c>
       <c r="I128">
         <v>38100</v>
@@ -4508,25 +4508,25 @@
         <v>38139.44097222222</v>
       </c>
       <c r="B129">
-        <v>309.1130771996851</v>
+        <v>304.7137889508296</v>
       </c>
       <c r="C129">
-        <v>306.5622040709673</v>
+        <v>302.1312231979746</v>
       </c>
       <c r="D129">
         <v>294.54</v>
       </c>
       <c r="E129">
-        <v>310.9411878232067</v>
+        <v>307.4670057814255</v>
       </c>
       <c r="F129">
         <v>0</v>
       </c>
       <c r="G129">
-        <v>297.6191443755032</v>
+        <v>291.4930555555555</v>
       </c>
       <c r="H129">
-        <v>297.6191443755032</v>
+        <v>295.9206190758033</v>
       </c>
       <c r="I129">
         <v>38400</v>
@@ -4540,25 +4540,25 @@
         <v>38139.44444444445</v>
       </c>
       <c r="B130">
-        <v>309.4250961851311</v>
+        <v>304.9958945614292</v>
       </c>
       <c r="C130">
-        <v>306.7778676636482</v>
+        <v>302.3172412167032</v>
       </c>
       <c r="D130">
         <v>294.54</v>
       </c>
       <c r="E130">
-        <v>311.1760154152274</v>
+        <v>307.6617683668476</v>
       </c>
       <c r="F130">
         <v>0</v>
       </c>
       <c r="G130">
-        <v>297.7254138239911</v>
+        <v>291.6157916666667</v>
       </c>
       <c r="H130">
-        <v>297.7254138239911</v>
+        <v>296.0193385298675</v>
       </c>
       <c r="I130">
         <v>38700</v>
@@ -4572,25 +4572,25 @@
         <v>38139.44791666666</v>
       </c>
       <c r="B131">
-        <v>309.7174229070514</v>
+        <v>305.2689450023155</v>
       </c>
       <c r="C131">
-        <v>306.979336172988</v>
+        <v>302.4997215917326</v>
       </c>
       <c r="D131">
         <v>294.54</v>
       </c>
       <c r="E131">
-        <v>311.3924502495829</v>
+        <v>307.8432681053616</v>
       </c>
       <c r="F131">
         <v>0</v>
       </c>
       <c r="G131">
-        <v>297.8304314105725</v>
+        <v>291.7385277777777</v>
       </c>
       <c r="H131">
-        <v>297.8304314105725</v>
+        <v>296.0977019355593</v>
       </c>
       <c r="I131">
         <v>39000</v>
@@ -4604,25 +4604,25 @@
         <v>38139.45138888889</v>
       </c>
       <c r="B132">
-        <v>309.9966672793527</v>
+        <v>305.5347221500623</v>
       </c>
       <c r="C132">
-        <v>307.1719483515604</v>
+        <v>302.6792625382456</v>
       </c>
       <c r="D132">
         <v>294.54</v>
       </c>
       <c r="E132">
-        <v>311.5904094784954</v>
+        <v>308.0137818270181</v>
       </c>
       <c r="F132">
         <v>0</v>
       </c>
       <c r="G132">
-        <v>297.9192407221078</v>
+        <v>291.8612638888889</v>
       </c>
       <c r="H132">
-        <v>297.9192407221078</v>
+        <v>296.1806938765091</v>
       </c>
       <c r="I132">
         <v>39300</v>
@@ -4636,25 +4636,25 @@
         <v>38139.45486111111</v>
       </c>
       <c r="B133">
-        <v>310.2603387478009</v>
+        <v>305.7943577102534</v>
       </c>
       <c r="C133">
-        <v>307.3525879629395</v>
+        <v>302.856274392331</v>
       </c>
       <c r="D133">
         <v>294.54</v>
       </c>
       <c r="E133">
-        <v>311.7738234921464</v>
+        <v>308.1751029801219</v>
       </c>
       <c r="F133">
         <v>0</v>
       </c>
       <c r="G133">
-        <v>298.0052309537687</v>
+        <v>291.984</v>
       </c>
       <c r="H133">
-        <v>298.0052309537687</v>
+        <v>296.2517482977781</v>
       </c>
       <c r="I133">
         <v>39600</v>
@@ -4668,25 +4668,25 @@
         <v>38139.45833333334</v>
       </c>
       <c r="B134">
-        <v>310.5127856217015</v>
+        <v>306.0486142301055</v>
       </c>
       <c r="C134">
-        <v>307.5250602436291</v>
+        <v>303.0310544808317</v>
       </c>
       <c r="D134">
         <v>294.54</v>
       </c>
       <c r="E134">
-        <v>312.0516522580102</v>
+        <v>308.4419215631225</v>
       </c>
       <c r="F134">
         <v>0</v>
       </c>
       <c r="G134">
-        <v>298.0770649815195</v>
+        <v>292.0449583333333</v>
       </c>
       <c r="H134">
-        <v>298.0770649815195</v>
+        <v>296.3246275130018</v>
       </c>
       <c r="I134">
         <v>39900</v>
@@ -4700,25 +4700,25 @@
         <v>38139.46180555555</v>
       </c>
       <c r="B135">
-        <v>310.8142210735178</v>
+        <v>306.3468346856239</v>
       </c>
       <c r="C135">
-        <v>307.7194468419794</v>
+        <v>303.2208914171031</v>
       </c>
       <c r="D135">
         <v>294.54</v>
       </c>
       <c r="E135">
-        <v>312.3732971101963</v>
+        <v>308.7489905286047</v>
       </c>
       <c r="F135">
         <v>0</v>
       </c>
       <c r="G135">
-        <v>298.1927311643631</v>
+        <v>292.1059166666666</v>
       </c>
       <c r="H135">
-        <v>298.1927311643631</v>
+        <v>296.431190949737</v>
       </c>
       <c r="I135">
         <v>40200</v>
@@ -4732,25 +4732,25 @@
         <v>38139.46527777778</v>
       </c>
       <c r="B136">
-        <v>311.1450627321727</v>
+        <v>306.659183029218</v>
       </c>
       <c r="C136">
-        <v>307.9343758755783</v>
+        <v>303.4155663368855</v>
       </c>
       <c r="D136">
         <v>294.54</v>
       </c>
       <c r="E136">
-        <v>312.7330638369409</v>
+        <v>309.0833281183417</v>
       </c>
       <c r="F136">
         <v>0</v>
       </c>
       <c r="G136">
-        <v>298.3630360282933</v>
+        <v>292.166875</v>
       </c>
       <c r="H136">
-        <v>298.3630360282933</v>
+        <v>296.5960508424649</v>
       </c>
       <c r="I136">
         <v>40500</v>
@@ -4764,25 +4764,25 @@
         <v>38139.46875</v>
       </c>
       <c r="B137">
-        <v>311.5073967587978</v>
+        <v>306.9795533753887</v>
       </c>
       <c r="C137">
-        <v>308.1756579759826</v>
+        <v>303.6129760542232</v>
       </c>
       <c r="D137">
         <v>294.54</v>
       </c>
       <c r="E137">
-        <v>313.1211194209502</v>
+        <v>309.4390315745716</v>
       </c>
       <c r="F137">
         <v>0</v>
       </c>
       <c r="G137">
-        <v>298.5512839734304</v>
+        <v>292.2278333333333</v>
       </c>
       <c r="H137">
-        <v>298.5512839734304</v>
+        <v>296.7673069059034</v>
       </c>
       <c r="I137">
         <v>40800</v>
@@ -4796,25 +4796,25 @@
         <v>38139.47222222222</v>
       </c>
       <c r="B138">
-        <v>311.8899404648519</v>
+        <v>307.3050236538592</v>
       </c>
       <c r="C138">
-        <v>308.4341303477426</v>
+        <v>303.8121396284579</v>
       </c>
       <c r="D138">
         <v>294.54</v>
       </c>
       <c r="E138">
-        <v>313.531826541149</v>
+        <v>309.8121994950417</v>
       </c>
       <c r="F138">
         <v>0</v>
       </c>
       <c r="G138">
-        <v>298.7501852961416</v>
+        <v>292.2887916666666</v>
       </c>
       <c r="H138">
-        <v>298.7501852961416</v>
+        <v>296.9479590443291</v>
       </c>
       <c r="I138">
         <v>41100</v>
@@ -4828,25 +4828,25 @@
         <v>38139.47569444445</v>
       </c>
       <c r="B139">
-        <v>312.2868268612427</v>
+        <v>307.6338244676442</v>
       </c>
       <c r="C139">
-        <v>308.7051195506306</v>
+        <v>304.0124843634684</v>
       </c>
       <c r="D139">
         <v>294.54</v>
       </c>
       <c r="E139">
-        <v>313.9585258245123</v>
+        <v>310.1999897454506</v>
       </c>
       <c r="F139">
         <v>0</v>
       </c>
       <c r="G139">
-        <v>298.9433461772317</v>
+        <v>292.34975</v>
       </c>
       <c r="H139">
-        <v>298.9433461772317</v>
+        <v>297.1155660640779</v>
       </c>
       <c r="I139">
         <v>41400</v>
@@ -4860,25 +4860,25 @@
         <v>38139.47916666666</v>
       </c>
       <c r="B140">
-        <v>312.6898193820379</v>
+        <v>307.9647953545702</v>
       </c>
       <c r="C140">
-        <v>308.9812416374334</v>
+        <v>304.2136550438346</v>
       </c>
       <c r="D140">
         <v>294.54</v>
       </c>
       <c r="E140">
-        <v>314.3687764860633</v>
+        <v>310.5684202518453</v>
       </c>
       <c r="F140">
         <v>0</v>
       </c>
       <c r="G140">
-        <v>299.1452708008266</v>
+        <v>292.4107083333333</v>
       </c>
       <c r="H140">
-        <v>299.1452708008266</v>
+        <v>297.2963643308066</v>
       </c>
       <c r="I140">
         <v>41700</v>
@@ -4892,25 +4892,25 @@
         <v>38139.48263888889</v>
       </c>
       <c r="B141">
-        <v>313.0674882449222</v>
+        <v>308.2642058247286</v>
       </c>
       <c r="C141">
-        <v>309.2442803275765</v>
+        <v>304.3953602210832</v>
       </c>
       <c r="D141">
         <v>294.54</v>
       </c>
       <c r="E141">
-        <v>314.7755803223613</v>
+        <v>310.9345880829783</v>
       </c>
       <c r="F141">
         <v>0</v>
       </c>
       <c r="G141">
-        <v>299.3347494248559</v>
+        <v>292.4716666666666</v>
       </c>
       <c r="H141">
-        <v>299.3347494248559</v>
+        <v>297.4596689922862</v>
       </c>
       <c r="I141">
         <v>42000</v>
@@ -4924,25 +4924,25 @@
         <v>38139.48611111111</v>
       </c>
       <c r="B142">
-        <v>313.4330739832286</v>
+        <v>308.5524591986189</v>
       </c>
       <c r="C142">
-        <v>309.4998721519519</v>
+        <v>304.5702936212983</v>
       </c>
       <c r="D142">
         <v>294.54</v>
       </c>
       <c r="E142">
-        <v>315.1822933464724</v>
+        <v>311.3011336646757</v>
       </c>
       <c r="F142">
         <v>0</v>
       </c>
       <c r="G142">
-        <v>299.5232641464618</v>
+        <v>292.532625</v>
       </c>
       <c r="H142">
-        <v>299.5232641464618</v>
+        <v>297.6258455847349</v>
       </c>
       <c r="I142">
         <v>42300</v>
@@ -4956,25 +4956,25 @@
         <v>38139.48958333334</v>
       </c>
       <c r="B143">
-        <v>313.7918801873486</v>
+        <v>308.8335618047945</v>
       </c>
       <c r="C143">
-        <v>309.7519472058694</v>
+        <v>304.741207745861</v>
       </c>
       <c r="D143">
         <v>294.54</v>
       </c>
       <c r="E143">
-        <v>315.5886006399228</v>
+        <v>311.6689265985862</v>
       </c>
       <c r="F143">
         <v>0</v>
       </c>
       <c r="G143">
-        <v>299.7055478788269</v>
+        <v>292.5935833333333</v>
       </c>
       <c r="H143">
-        <v>299.7055478788269</v>
+        <v>297.7806537712223</v>
       </c>
       <c r="I143">
         <v>42600</v>
@@ -4988,25 +4988,25 @@
         <v>38139.49305555555</v>
       </c>
       <c r="B144">
-        <v>314.1437955441037</v>
+        <v>309.1093657977636</v>
       </c>
       <c r="C144">
-        <v>309.9999013351152</v>
+        <v>304.9094682354391</v>
       </c>
       <c r="D144">
         <v>294.54</v>
       </c>
       <c r="E144">
-        <v>315.9955384381561</v>
+        <v>312.0384258634841</v>
       </c>
       <c r="F144">
         <v>0</v>
       </c>
       <c r="G144">
-        <v>299.8874861438472</v>
+        <v>292.6545416666667</v>
       </c>
       <c r="H144">
-        <v>299.8874861438472</v>
+        <v>297.9401025163229</v>
       </c>
       <c r="I144">
         <v>42900</v>
@@ -5020,25 +5020,25 @@
         <v>38139.49652777778</v>
       </c>
       <c r="B145">
-        <v>314.4910032486674</v>
+        <v>309.3809300196959</v>
       </c>
       <c r="C145">
-        <v>310.2456345726191</v>
+        <v>305.075921565822</v>
       </c>
       <c r="D145">
         <v>294.54</v>
       </c>
       <c r="E145">
-        <v>316.4022964083563</v>
+        <v>312.4098997582307</v>
       </c>
       <c r="F145">
         <v>0</v>
       </c>
       <c r="G145">
-        <v>300.0632050829231</v>
+        <v>292.7155</v>
       </c>
       <c r="H145">
-        <v>300.0632050829231</v>
+        <v>298.0903201507275</v>
       </c>
       <c r="I145">
         <v>43200</v>
@@ -5052,25 +5052,25 @@
         <v>38139.5</v>
       </c>
       <c r="B146">
-        <v>314.832323408986</v>
+        <v>309.6488856128058</v>
       </c>
       <c r="C146">
-        <v>310.4879044254567</v>
+        <v>305.2411319676098</v>
       </c>
       <c r="D146">
         <v>294.54</v>
       </c>
       <c r="E146">
-        <v>316.7343254009647</v>
+        <v>312.7034877338293</v>
       </c>
       <c r="F146">
         <v>0</v>
       </c>
       <c r="G146">
-        <v>300.2388364790723</v>
+        <v>292.8120277777778</v>
       </c>
       <c r="H146">
-        <v>300.2388364790723</v>
+        <v>298.2441137803126</v>
       </c>
       <c r="I146">
         <v>43500</v>
@@ -5084,25 +5084,25 @@
         <v>38139.50347222222</v>
       </c>
       <c r="B147">
-        <v>315.127646769715</v>
+        <v>309.8787336987011</v>
       </c>
       <c r="C147">
-        <v>310.7021233884679</v>
+        <v>305.3870104428649</v>
       </c>
       <c r="D147">
         <v>294.54</v>
       </c>
       <c r="E147">
-        <v>317.0311356104394</v>
+        <v>312.9655971072964</v>
       </c>
       <c r="F147">
         <v>0</v>
       </c>
       <c r="G147">
-        <v>300.3895475561341</v>
+        <v>292.9085555555556</v>
       </c>
       <c r="H147">
-        <v>300.3895475561341</v>
+        <v>298.3734238740144</v>
       </c>
       <c r="I147">
         <v>43800</v>
@@ -5116,25 +5116,25 @@
         <v>38139.50694444445</v>
       </c>
       <c r="B148">
-        <v>315.3962727760114</v>
+        <v>310.0930087397202</v>
       </c>
       <c r="C148">
-        <v>310.8973004299346</v>
+        <v>305.5252568068976</v>
       </c>
       <c r="D148">
         <v>294.54</v>
       </c>
       <c r="E148">
-        <v>317.3034673485403</v>
+        <v>313.2059986107867</v>
       </c>
       <c r="F148">
         <v>0</v>
       </c>
       <c r="G148">
-        <v>300.5324962883458</v>
+        <v>293.0050833333333</v>
       </c>
       <c r="H148">
-        <v>300.5324962883458</v>
+        <v>298.4982336279342</v>
       </c>
       <c r="I148">
         <v>44100</v>
@@ -5148,25 +5148,25 @@
         <v>38139.51041666666</v>
       </c>
       <c r="B149">
-        <v>315.6470395085884</v>
+        <v>310.2965817837525</v>
       </c>
       <c r="C149">
-        <v>311.0800841445369</v>
+        <v>305.6585587516598</v>
       </c>
       <c r="D149">
         <v>294.54</v>
       </c>
       <c r="E149">
-        <v>317.5560669043294</v>
+        <v>313.4295225475828</v>
       </c>
       <c r="F149">
         <v>0</v>
       </c>
       <c r="G149">
-        <v>300.6680230398809</v>
+        <v>293.1016111111111</v>
       </c>
       <c r="H149">
-        <v>300.6680230398809</v>
+        <v>298.6171861252661</v>
       </c>
       <c r="I149">
         <v>44400</v>
@@ -5180,25 +5180,25 @@
         <v>38139.51388888889</v>
       </c>
       <c r="B150">
-        <v>315.8833325721624</v>
+        <v>310.4918982632371</v>
       </c>
       <c r="C150">
-        <v>311.2528683803415</v>
+        <v>305.7883098890443</v>
       </c>
       <c r="D150">
         <v>294.54</v>
       </c>
       <c r="E150">
-        <v>317.7926447064356</v>
+        <v>313.6395201639564</v>
       </c>
       <c r="F150">
         <v>0</v>
       </c>
       <c r="G150">
-        <v>300.7989593042555</v>
+        <v>293.1981388888889</v>
       </c>
       <c r="H150">
-        <v>300.7989593042555</v>
+        <v>298.7353899773483</v>
       </c>
       <c r="I150">
         <v>44700</v>
@@ -5212,25 +5212,25 @@
         <v>38139.51736111111</v>
       </c>
       <c r="B151">
-        <v>316.1080098561653</v>
+        <v>310.68045678767</v>
       </c>
       <c r="C151">
-        <v>311.4179245619307</v>
+        <v>305.9153975851087</v>
       </c>
       <c r="D151">
         <v>294.54</v>
       </c>
       <c r="E151">
-        <v>318.0155343608443</v>
+        <v>313.8385086444555</v>
       </c>
       <c r="F151">
         <v>0</v>
       </c>
       <c r="G151">
-        <v>300.9240448107224</v>
+        <v>293.2946666666667</v>
       </c>
       <c r="H151">
-        <v>300.9240448107224</v>
+        <v>298.8474586916374</v>
       </c>
       <c r="I151">
         <v>45000</v>
@@ -5244,25 +5244,25 @@
         <v>38139.52083333334</v>
       </c>
       <c r="B152">
-        <v>316.3221798103907</v>
+        <v>310.8632295791539</v>
       </c>
       <c r="C152">
-        <v>311.5760346187847</v>
+        <v>306.0404247918332</v>
       </c>
       <c r="D152">
         <v>294.54</v>
       </c>
       <c r="E152">
-        <v>318.1953889368932</v>
+        <v>313.9968515773931</v>
       </c>
       <c r="F152">
         <v>0</v>
       </c>
       <c r="G152">
-        <v>301.0450212927709</v>
+        <v>293.3911944444444</v>
       </c>
       <c r="H152">
-        <v>301.0450212927709</v>
+        <v>298.9580914286506</v>
       </c>
       <c r="I152">
         <v>45300</v>
@@ -5276,25 +5276,25 @@
         <v>38139.52430555555</v>
       </c>
       <c r="B153">
-        <v>316.4939193899727</v>
+        <v>311.0072938225262</v>
       </c>
       <c r="C153">
-        <v>311.707668282232</v>
+        <v>306.142941666359</v>
       </c>
       <c r="D153">
         <v>294.54</v>
       </c>
       <c r="E153">
-        <v>318.3506228139407</v>
+        <v>314.1349412710456</v>
       </c>
       <c r="F153">
         <v>0</v>
       </c>
       <c r="G153">
-        <v>301.1510283473275</v>
+        <v>293.4877222222222</v>
       </c>
       <c r="H153">
-        <v>301.1510283473275</v>
+        <v>299.0538779029598</v>
       </c>
       <c r="I153">
         <v>45600</v>
@@ -5308,25 +5308,25 @@
         <v>38139.52777777778</v>
       </c>
       <c r="B154">
-        <v>316.6421700074123</v>
+        <v>311.1349813544988</v>
       </c>
       <c r="C154">
-        <v>311.8232648899662</v>
+        <v>306.2366620707562</v>
       </c>
       <c r="D154">
         <v>294.54</v>
       </c>
       <c r="E154">
-        <v>318.4866502018143</v>
+        <v>314.2579922495078</v>
       </c>
       <c r="F154">
         <v>0</v>
       </c>
       <c r="G154">
-        <v>301.2472986307649</v>
+        <v>293.58425</v>
       </c>
       <c r="H154">
-        <v>301.2472986307649</v>
+        <v>299.141691526435</v>
       </c>
       <c r="I154">
         <v>45900</v>
@@ -5340,25 +5340,25 @@
         <v>38139.53125</v>
       </c>
       <c r="B155">
-        <v>316.7725253200948</v>
+        <v>311.2512256690567</v>
       </c>
       <c r="C155">
-        <v>311.9266519444382</v>
+        <v>306.3247747432496</v>
       </c>
       <c r="D155">
         <v>294.54</v>
       </c>
       <c r="E155">
-        <v>318.6065049936172</v>
+        <v>314.3689678444021</v>
       </c>
       <c r="F155">
         <v>0</v>
       </c>
       <c r="G155">
-        <v>301.3349592842347</v>
+        <v>293.6807777777777</v>
       </c>
       <c r="H155">
-        <v>301.3349592842347</v>
+        <v>299.222165099981</v>
       </c>
       <c r="I155">
         <v>46200</v>
@@ -5372,25 +5372,25 @@
         <v>38139.53472222222</v>
       </c>
       <c r="B156">
-        <v>316.8878529301344</v>
+        <v>311.3585629779509</v>
       </c>
       <c r="C156">
-        <v>312.0198315770836</v>
+        <v>306.4089402025128</v>
       </c>
       <c r="D156">
         <v>294.54</v>
       </c>
       <c r="E156">
-        <v>318.7130067833082</v>
+        <v>314.4700315259716</v>
       </c>
       <c r="F156">
         <v>0</v>
       </c>
       <c r="G156">
-        <v>301.4177611073493</v>
+        <v>293.7773055555555</v>
       </c>
       <c r="H156">
-        <v>301.4177611073493</v>
+        <v>299.3002095011351</v>
       </c>
       <c r="I156">
         <v>46500</v>
@@ -5404,25 +5404,25 @@
         <v>38139.53819444445</v>
       </c>
       <c r="B157">
-        <v>316.9910425760343</v>
+        <v>311.4585753462101</v>
       </c>
       <c r="C157">
-        <v>312.1051563836807</v>
+        <v>306.4902099054744</v>
       </c>
       <c r="D157">
         <v>294.54</v>
       </c>
       <c r="E157">
-        <v>318.8072922051921</v>
+        <v>314.5628512516548</v>
       </c>
       <c r="F157">
         <v>0</v>
       </c>
       <c r="G157">
-        <v>301.4917648463016</v>
+        <v>293.8738333333333</v>
       </c>
       <c r="H157">
-        <v>301.4917648463016</v>
+        <v>299.3728923318791</v>
       </c>
       <c r="I157">
         <v>46800</v>
@@ -5436,25 +5436,25 @@
         <v>38139.54166666666</v>
       </c>
       <c r="B158">
-        <v>317.0822705402975</v>
+        <v>311.5523086179709</v>
       </c>
       <c r="C158">
-        <v>312.1825047400227</v>
+        <v>306.5692892614109</v>
       </c>
       <c r="D158">
         <v>294.54</v>
       </c>
       <c r="E158">
-        <v>318.8847463009218</v>
+        <v>314.6404431542712</v>
       </c>
       <c r="F158">
         <v>0</v>
       </c>
       <c r="G158">
-        <v>301.5607402115924</v>
+        <v>293.9610972222222</v>
       </c>
       <c r="H158">
-        <v>301.5607402115924</v>
+        <v>299.4449137060875</v>
       </c>
       <c r="I158">
         <v>47100</v>
@@ -5468,25 +5468,25 @@
         <v>38139.54513888889</v>
       </c>
       <c r="B159">
-        <v>317.1595143499296</v>
+        <v>311.633574270961</v>
       </c>
       <c r="C159">
-        <v>312.2495819404564</v>
+        <v>306.6397830130878</v>
       </c>
       <c r="D159">
         <v>294.54</v>
       </c>
       <c r="E159">
-        <v>318.9466215336217</v>
+        <v>314.7088091153515</v>
       </c>
       <c r="F159">
         <v>0</v>
       </c>
       <c r="G159">
-        <v>301.6045080060126</v>
+        <v>294.0483611111111</v>
       </c>
       <c r="H159">
-        <v>301.6045080060126</v>
+        <v>299.4909443304132</v>
       </c>
       <c r="I159">
         <v>47400</v>
@@ -5500,25 +5500,25 @@
         <v>38139.54861111111</v>
       </c>
       <c r="B160">
-        <v>317.2193640669565</v>
+        <v>311.7073928866839</v>
       </c>
       <c r="C160">
-        <v>312.3029106795469</v>
+        <v>306.706444431839</v>
       </c>
       <c r="D160">
         <v>294.54</v>
       </c>
       <c r="E160">
-        <v>319.0229512071842</v>
+        <v>314.7698339994926</v>
       </c>
       <c r="F160">
         <v>0</v>
       </c>
       <c r="G160">
-        <v>301.7789843490049</v>
+        <v>294.135625</v>
       </c>
       <c r="H160">
-        <v>301.7789843490049</v>
+        <v>299.6615405310637</v>
       </c>
       <c r="I160">
         <v>47700</v>
@@ -5532,25 +5532,25 @@
         <v>38139.55208333334</v>
       </c>
       <c r="B161">
-        <v>317.3126529460401</v>
+        <v>311.7750787121595</v>
       </c>
       <c r="C161">
-        <v>312.3922944617395</v>
+        <v>306.7704901069619</v>
       </c>
       <c r="D161">
         <v>294.54</v>
       </c>
       <c r="E161">
-        <v>319.1163766443236</v>
+        <v>314.8247157067116</v>
       </c>
       <c r="F161">
         <v>0</v>
       </c>
       <c r="G161">
-        <v>302.035180279814</v>
+        <v>294.2228888888889</v>
       </c>
       <c r="H161">
-        <v>302.035180279814</v>
+        <v>299.8974729035555</v>
       </c>
       <c r="I161">
         <v>48000</v>
@@ -5564,25 +5564,25 @@
         <v>38139.55555555555</v>
       </c>
       <c r="B162">
-        <v>317.4401986722345</v>
+        <v>311.8373759569594</v>
       </c>
       <c r="C162">
-        <v>312.5191147116948</v>
+        <v>306.8325847742354</v>
       </c>
       <c r="D162">
         <v>294.54</v>
       </c>
       <c r="E162">
-        <v>319.2180885405529</v>
+        <v>314.874365852485</v>
       </c>
       <c r="F162">
         <v>0</v>
       </c>
       <c r="G162">
-        <v>302.3036600863389</v>
+        <v>294.3101527777778</v>
       </c>
       <c r="H162">
-        <v>302.3036600863389</v>
+        <v>300.1335542727609</v>
       </c>
       <c r="I162">
         <v>48300</v>
@@ -5596,25 +5596,25 @@
         <v>38139.55902777778</v>
       </c>
       <c r="B163">
-        <v>317.5834805425922</v>
+        <v>311.8947795395907</v>
       </c>
       <c r="C163">
-        <v>312.6653684112283</v>
+        <v>306.8931573233326</v>
       </c>
       <c r="D163">
         <v>294.54</v>
       </c>
       <c r="E163">
-        <v>319.312489986187</v>
+        <v>314.9195050656023</v>
       </c>
       <c r="F163">
         <v>0</v>
       </c>
       <c r="G163">
-        <v>302.5107989864116</v>
+        <v>294.3974166666666</v>
       </c>
       <c r="H163">
-        <v>302.5107989864116</v>
+        <v>300.3089821830346</v>
       </c>
       <c r="I163">
         <v>48600</v>
@@ -5628,25 +5628,25 @@
         <v>38139.5625</v>
       </c>
       <c r="B164">
-        <v>317.7134560275119</v>
+        <v>311.9476365218979</v>
       </c>
       <c r="C164">
-        <v>312.8023646750407</v>
+        <v>306.9524965525269</v>
       </c>
       <c r="D164">
         <v>294.54</v>
       </c>
       <c r="E164">
-        <v>319.3685247826173</v>
+        <v>314.9279853984398</v>
       </c>
       <c r="F164">
         <v>0</v>
       </c>
       <c r="G164">
-        <v>302.6976661098455</v>
+        <v>294.4846805555555</v>
       </c>
       <c r="H164">
-        <v>302.6976661098455</v>
+        <v>300.4653198952013</v>
       </c>
       <c r="I164">
         <v>48900</v>
@@ -5660,25 +5660,25 @@
         <v>38139.56597222222</v>
       </c>
       <c r="B165">
-        <v>317.7988455352357</v>
+        <v>311.9616411404883</v>
       </c>
       <c r="C165">
-        <v>312.9116581189632</v>
+        <v>306.9896914054913</v>
       </c>
       <c r="D165">
         <v>294.54</v>
       </c>
       <c r="E165">
-        <v>319.397120980229</v>
+        <v>314.9198671239288</v>
       </c>
       <c r="F165">
         <v>0</v>
       </c>
       <c r="G165">
-        <v>302.8241038647296</v>
+        <v>294.5719444444444</v>
       </c>
       <c r="H165">
-        <v>302.8241038647296</v>
+        <v>300.56913608832</v>
       </c>
       <c r="I165">
         <v>49200</v>
@@ -5692,25 +5692,25 @@
         <v>38139.56944444445</v>
       </c>
       <c r="B166">
-        <v>317.8471655881185</v>
+        <v>311.9596850394809</v>
       </c>
       <c r="C166">
-        <v>312.9916745290736</v>
+        <v>307.0183613262259</v>
       </c>
       <c r="D166">
         <v>294.54</v>
       </c>
       <c r="E166">
-        <v>319.4054545992345</v>
+        <v>314.8996750591642</v>
       </c>
       <c r="F166">
         <v>0</v>
       </c>
       <c r="G166">
-        <v>302.9274101898019</v>
+        <v>294.6592083333333</v>
       </c>
       <c r="H166">
-        <v>302.9274101898019</v>
+        <v>300.6547791205846</v>
       </c>
       <c r="I166">
         <v>49500</v>
@@ -5724,25 +5724,25 @@
         <v>38139.57291666666</v>
       </c>
       <c r="B167">
-        <v>317.8696305548667</v>
+        <v>311.9466953311396</v>
       </c>
       <c r="C167">
-        <v>313.0513606234742</v>
+        <v>307.0415531079882</v>
       </c>
       <c r="D167">
         <v>294.54</v>
       </c>
       <c r="E167">
-        <v>319.3913842732427</v>
+        <v>314.8697936191076</v>
       </c>
       <c r="F167">
         <v>0</v>
       </c>
       <c r="G167">
-        <v>302.9857899966144</v>
+        <v>294.7464722222222</v>
       </c>
       <c r="H167">
-        <v>302.9857899966144</v>
+        <v>300.7057635710504</v>
       </c>
       <c r="I167">
         <v>49800</v>
@@ -5756,25 +5756,25 @@
         <v>38139.57638888889</v>
       </c>
       <c r="B168">
-        <v>317.8618530116134</v>
+        <v>311.9251828838326</v>
       </c>
       <c r="C168">
-        <v>313.0854334036357</v>
+        <v>307.0608079408348</v>
       </c>
       <c r="D168">
         <v>294.54</v>
       </c>
       <c r="E168">
-        <v>319.3606086776924</v>
+        <v>314.8319233753601</v>
       </c>
       <c r="F168">
         <v>0</v>
       </c>
       <c r="G168">
-        <v>303.0319074120004</v>
+        <v>294.8337361111111</v>
       </c>
       <c r="H168">
-        <v>303.0319074120004</v>
+        <v>300.7503715919754</v>
       </c>
       <c r="I168">
         <v>50100</v>
@@ -5788,25 +5788,25 @@
         <v>38139.57986111111</v>
       </c>
       <c r="B169">
-        <v>317.8336824505103</v>
+        <v>311.8967145943324</v>
       </c>
       <c r="C169">
-        <v>313.1028439500887</v>
+        <v>307.0770780427639</v>
       </c>
       <c r="D169">
         <v>294.54</v>
       </c>
       <c r="E169">
-        <v>319.3115255887602</v>
+        <v>314.7873630489737</v>
       </c>
       <c r="F169">
         <v>0</v>
       </c>
       <c r="G169">
-        <v>303.0460550190069</v>
+        <v>294.921</v>
       </c>
       <c r="H169">
-        <v>303.0460550190069</v>
+        <v>300.7705790272295</v>
       </c>
       <c r="I169">
         <v>50400</v>
@@ -5820,25 +5820,25 @@
         <v>38139.58333333334</v>
       </c>
       <c r="B170">
-        <v>317.7816307251019</v>
+        <v>311.8623323503712</v>
       </c>
       <c r="C170">
-        <v>313.0997995895271</v>
+        <v>307.0909858961422</v>
       </c>
       <c r="D170">
         <v>294.54</v>
       </c>
       <c r="E170">
-        <v>319.1368364414798</v>
+        <v>314.5858392652225</v>
       </c>
       <c r="F170">
         <v>0</v>
       </c>
       <c r="G170">
-        <v>303.0555381120228</v>
+        <v>294.9333888888889</v>
       </c>
       <c r="H170">
-        <v>303.0555381120228</v>
+        <v>300.7916235180638</v>
       </c>
       <c r="I170">
         <v>50700</v>
@@ -5852,25 +5852,25 @@
         <v>38139.58680555555</v>
       </c>
       <c r="B171">
-        <v>317.652774507726</v>
+        <v>311.7268309742556</v>
       </c>
       <c r="C171">
-        <v>313.0551064796883</v>
+        <v>307.0418497566244</v>
       </c>
       <c r="D171">
         <v>294.54</v>
       </c>
       <c r="E171">
-        <v>318.8846773080172</v>
+        <v>314.3203743888839</v>
       </c>
       <c r="F171">
         <v>0</v>
       </c>
       <c r="G171">
-        <v>302.9450090630891</v>
+        <v>294.9457777777778</v>
       </c>
       <c r="H171">
-        <v>302.9450090630891</v>
+        <v>300.6868413719258</v>
       </c>
       <c r="I171">
         <v>51000</v>
@@ -5884,25 +5884,25 @@
         <v>38139.59027777778</v>
       </c>
       <c r="B172">
-        <v>317.4518023741392</v>
+        <v>311.5538145352256</v>
       </c>
       <c r="C172">
-        <v>312.9527737717633</v>
+        <v>306.9700066875574</v>
       </c>
       <c r="D172">
         <v>294.54</v>
       </c>
       <c r="E172">
-        <v>318.5830368193078</v>
+        <v>314.0125058134566</v>
       </c>
       <c r="F172">
         <v>0</v>
       </c>
       <c r="G172">
-        <v>302.8199497260884</v>
+        <v>294.9581666666667</v>
       </c>
       <c r="H172">
-        <v>302.8199497260884</v>
+        <v>300.5701228312388</v>
       </c>
       <c r="I172">
         <v>51300</v>
@@ -5916,25 +5916,25 @@
         <v>38139.59375</v>
       </c>
       <c r="B173">
-        <v>317.2111364809987</v>
+        <v>311.3573856403327</v>
       </c>
       <c r="C173">
-        <v>312.8197938089938</v>
+        <v>306.8846873128554</v>
       </c>
       <c r="D173">
         <v>294.54</v>
       </c>
       <c r="E173">
-        <v>318.2308768202925</v>
+        <v>313.6740367856571</v>
       </c>
       <c r="F173">
         <v>0</v>
       </c>
       <c r="G173">
-        <v>302.6220570795794</v>
+        <v>294.9705555555555</v>
       </c>
       <c r="H173">
-        <v>302.6220570795794</v>
+        <v>300.3947389729344</v>
       </c>
       <c r="I173">
         <v>51600</v>
@@ -5948,25 +5948,25 @@
         <v>38139.59722222222</v>
       </c>
       <c r="B174">
-        <v>316.9205746205091</v>
+        <v>311.1448972167384</v>
       </c>
       <c r="C174">
-        <v>312.6439619017596</v>
+        <v>306.7906201930115</v>
       </c>
       <c r="D174">
         <v>294.54</v>
       </c>
       <c r="E174">
-        <v>317.8452987488661</v>
+        <v>313.3136472346272</v>
       </c>
       <c r="F174">
         <v>0</v>
       </c>
       <c r="G174">
-        <v>302.4213604561727</v>
+        <v>294.9829444444444</v>
       </c>
       <c r="H174">
-        <v>302.4213604561727</v>
+        <v>300.2237755536545</v>
       </c>
       <c r="I174">
         <v>51900</v>
@@ -5980,25 +5980,25 @@
         <v>38139.60069444445</v>
       </c>
       <c r="B175">
-        <v>316.6026401531764</v>
+        <v>310.9210367007699</v>
       </c>
       <c r="C175">
-        <v>312.4456824454431</v>
+        <v>306.6907505603236</v>
       </c>
       <c r="D175">
         <v>294.54</v>
       </c>
       <c r="E175">
-        <v>317.4234942969527</v>
+        <v>312.9381259096828</v>
       </c>
       <c r="F175">
         <v>0</v>
       </c>
       <c r="G175">
-        <v>302.1674702641635</v>
+        <v>294.9953333333333</v>
       </c>
       <c r="H175">
-        <v>302.1674702641635</v>
+        <v>300.0140429394452</v>
       </c>
       <c r="I175">
         <v>52200</v>
@@ -6012,25 +6012,25 @@
         <v>38139.60416666666</v>
       </c>
       <c r="B176">
-        <v>316.2475550438602</v>
+        <v>310.6889900021036</v>
       </c>
       <c r="C176">
-        <v>312.2145095992897</v>
+        <v>306.5870183570141</v>
       </c>
       <c r="D176">
         <v>294.54</v>
       </c>
       <c r="E176">
-        <v>317.365133152041</v>
+        <v>312.9363559656108</v>
       </c>
       <c r="F176">
         <v>0</v>
       </c>
       <c r="G176">
-        <v>301.9316189064742</v>
+        <v>295.0077222222222</v>
       </c>
       <c r="H176">
-        <v>301.9316189064742</v>
+        <v>299.8254659686128</v>
       </c>
       <c r="I176">
         <v>52500</v>
@@ -6044,25 +6044,25 @@
         <v>38139.60763888889</v>
       </c>
       <c r="B177">
-        <v>316.4458860924237</v>
+        <v>311.0228920267492</v>
       </c>
       <c r="C177">
-        <v>311.8162483735044</v>
+        <v>306.3233275718879</v>
       </c>
       <c r="D177">
         <v>294.54</v>
       </c>
       <c r="E177">
-        <v>317.4427750937866</v>
+        <v>313.0649189695664</v>
       </c>
       <c r="F177">
         <v>0</v>
       </c>
       <c r="G177">
-        <v>301.7675036830868</v>
+        <v>295.0201111111111</v>
       </c>
       <c r="H177">
-        <v>301.7675036830868</v>
+        <v>299.7176870832135</v>
       </c>
       <c r="I177">
         <v>52800</v>
@@ -6076,25 +6076,25 @@
         <v>38139.61111111111</v>
       </c>
       <c r="B178">
-        <v>316.5977205782356</v>
+        <v>311.2937559416277</v>
       </c>
       <c r="C178">
-        <v>311.5538217430513</v>
+        <v>306.1792794737229</v>
       </c>
       <c r="D178">
         <v>294.54</v>
       </c>
       <c r="E178">
-        <v>317.6125172546342</v>
+        <v>313.2696848573198</v>
       </c>
       <c r="F178">
         <v>0</v>
       </c>
       <c r="G178">
-        <v>301.6818565445213</v>
+        <v>295.0325</v>
       </c>
       <c r="H178">
-        <v>301.6818565445213</v>
+        <v>299.6784307813496</v>
       </c>
       <c r="I178">
         <v>53100</v>
@@ -6108,25 +6108,25 @@
         <v>38139.61458333334</v>
       </c>
       <c r="B179">
-        <v>316.7862169501255</v>
+        <v>311.5712336767303</v>
       </c>
       <c r="C179">
-        <v>311.3464580793366</v>
+        <v>306.0608089276446</v>
       </c>
       <c r="D179">
         <v>294.54</v>
       </c>
       <c r="E179">
-        <v>317.8343832554149</v>
+        <v>313.5228270382667</v>
       </c>
       <c r="F179">
         <v>0</v>
       </c>
       <c r="G179">
-        <v>301.5950623222889</v>
+        <v>295.0448888888889</v>
       </c>
       <c r="H179">
-        <v>301.5950623222889</v>
+        <v>299.6333771696796</v>
       </c>
       <c r="I179">
         <v>53400</v>
@@ -6140,25 +6140,25 @@
         <v>38139.61805555555</v>
       </c>
       <c r="B180">
-        <v>317.1654992558515</v>
+        <v>312.0314808696983</v>
       </c>
       <c r="C180">
-        <v>310.9729057632898</v>
+        <v>305.7650744812422</v>
       </c>
       <c r="D180">
         <v>294.54</v>
       </c>
       <c r="E180">
-        <v>318.097928270275</v>
+        <v>313.8048632618172</v>
       </c>
       <c r="F180">
         <v>0</v>
       </c>
       <c r="G180">
-        <v>301.553694059439</v>
+        <v>295.0572777777778</v>
       </c>
       <c r="H180">
-        <v>301.553694059439</v>
+        <v>299.6264370381111</v>
       </c>
       <c r="I180">
         <v>53700</v>
@@ -6172,25 +6172,25 @@
         <v>38139.62152777778</v>
       </c>
       <c r="B181">
-        <v>317.4224866650776</v>
+        <v>312.3471935340428</v>
       </c>
       <c r="C181">
-        <v>310.7541895686529</v>
+        <v>305.6034753995319</v>
       </c>
       <c r="D181">
         <v>294.54</v>
       </c>
       <c r="E181">
-        <v>318.3776484208228</v>
+        <v>314.1012251406721</v>
       </c>
       <c r="F181">
         <v>0</v>
       </c>
       <c r="G181">
-        <v>301.4996997704497</v>
+        <v>295.0696666666666</v>
       </c>
       <c r="H181">
-        <v>301.4996997704497</v>
+        <v>299.6038972673197</v>
       </c>
       <c r="I181">
         <v>54000</v>
@@ -6204,25 +6204,25 @@
         <v>38139.625</v>
       </c>
       <c r="B182">
-        <v>317.6335658189005</v>
+        <v>312.6124127661001</v>
       </c>
       <c r="C182">
-        <v>310.5705530057708</v>
+        <v>305.4727455345083</v>
       </c>
       <c r="D182">
         <v>294.54</v>
       </c>
       <c r="E182">
-        <v>318.5907344563462</v>
+        <v>314.2793875926002</v>
       </c>
       <c r="F182">
         <v>0</v>
       </c>
       <c r="G182">
-        <v>301.48105213642</v>
+        <v>294.9603611111111</v>
       </c>
       <c r="H182">
-        <v>301.48105213642</v>
+        <v>299.6115462455388</v>
       </c>
       <c r="I182">
         <v>54300</v>
@@ -6236,25 +6236,25 @@
         <v>38139.62847222222</v>
       </c>
       <c r="B183">
-        <v>317.7712557767807</v>
+        <v>312.7384361571335</v>
       </c>
       <c r="C183">
-        <v>310.3956750151056</v>
+        <v>305.2895804491666</v>
       </c>
       <c r="D183">
         <v>294.54</v>
       </c>
       <c r="E183">
-        <v>318.7720954605721</v>
+        <v>314.4049830717814</v>
       </c>
       <c r="F183">
         <v>0</v>
       </c>
       <c r="G183">
-        <v>301.4598954681909</v>
+        <v>294.8510555555555</v>
       </c>
       <c r="H183">
-        <v>301.4598954681909</v>
+        <v>299.5959155020628</v>
       </c>
       <c r="I183">
         <v>54600</v>
@@ -6268,25 +6268,25 @@
         <v>38139.63194444445</v>
       </c>
       <c r="B184">
-        <v>318.062323281865</v>
+        <v>312.9958738954954</v>
       </c>
       <c r="C184">
-        <v>310.1332320769383</v>
+        <v>304.9956627150952</v>
       </c>
       <c r="D184">
         <v>294.54</v>
       </c>
       <c r="E184">
-        <v>318.8917792846157</v>
+        <v>314.488174400154</v>
       </c>
       <c r="F184">
         <v>0</v>
       </c>
       <c r="G184">
-        <v>301.3186622456141</v>
+        <v>294.74175</v>
       </c>
       <c r="H184">
-        <v>301.3186622456141</v>
+        <v>299.470372006598</v>
       </c>
       <c r="I184">
         <v>54900</v>
@@ -6300,25 +6300,25 @@
         <v>38139.63541666666</v>
       </c>
       <c r="B185">
-        <v>318.1253130220031</v>
+        <v>313.055627604405</v>
       </c>
       <c r="C185">
-        <v>309.9018489082993</v>
+        <v>304.7620029883528</v>
       </c>
       <c r="D185">
         <v>294.54</v>
       </c>
       <c r="E185">
-        <v>319.0032378285801</v>
+        <v>314.5328109844417</v>
       </c>
       <c r="F185">
         <v>0</v>
       </c>
       <c r="G185">
-        <v>301.2948659069655</v>
+        <v>294.6324444444444</v>
       </c>
       <c r="H185">
-        <v>301.2948659069655</v>
+        <v>299.4411252607812</v>
       </c>
       <c r="I185">
         <v>55200</v>
@@ -6332,25 +6332,25 @@
         <v>38139.63888888889</v>
       </c>
       <c r="B186">
-        <v>318.1450568350991</v>
+        <v>313.0322483565475</v>
       </c>
       <c r="C186">
-        <v>309.7145399811824</v>
+        <v>304.5361062627163</v>
       </c>
       <c r="D186">
         <v>294.54</v>
       </c>
       <c r="E186">
-        <v>319.102737875433</v>
+        <v>314.5415102057459</v>
       </c>
       <c r="F186">
         <v>0</v>
       </c>
       <c r="G186">
-        <v>301.3119953528923</v>
+        <v>294.5231388888889</v>
       </c>
       <c r="H186">
-        <v>301.3119953528923</v>
+        <v>299.4387819519548</v>
       </c>
       <c r="I186">
         <v>55500</v>
@@ -6364,25 +6364,25 @@
         <v>38139.64236111111</v>
       </c>
       <c r="B187">
-        <v>318.1291672501084</v>
+        <v>312.94399513827</v>
       </c>
       <c r="C187">
-        <v>309.5549775660861</v>
+        <v>304.3105513084379</v>
       </c>
       <c r="D187">
         <v>294.54</v>
       </c>
       <c r="E187">
-        <v>319.2002094856091</v>
+        <v>314.51640503994</v>
       </c>
       <c r="F187">
         <v>0</v>
       </c>
       <c r="G187">
-        <v>301.3922964790783</v>
+        <v>294.4138333333333</v>
       </c>
       <c r="H187">
-        <v>301.3922964790783</v>
+        <v>299.4745635068833</v>
       </c>
       <c r="I187">
         <v>55800</v>
@@ -6396,25 +6396,25 @@
         <v>38139.64583333334</v>
       </c>
       <c r="B188">
-        <v>318.0947155220427</v>
+        <v>312.7986990083153</v>
       </c>
       <c r="C188">
-        <v>309.4291601704265</v>
+        <v>304.0825211595666</v>
       </c>
       <c r="D188">
         <v>294.54</v>
       </c>
       <c r="E188">
-        <v>318.983581768312</v>
+        <v>314.1762855373269</v>
       </c>
       <c r="F188">
         <v>0</v>
       </c>
       <c r="G188">
-        <v>301.4183535941082</v>
+        <v>294.3045277777778</v>
       </c>
       <c r="H188">
-        <v>301.4183535941082</v>
+        <v>299.4565286769403</v>
       </c>
       <c r="I188">
         <v>56100</v>
@@ -6428,25 +6428,25 @@
         <v>38139.64930555555</v>
       </c>
       <c r="B189">
-        <v>317.780106938599</v>
+        <v>312.3755519966261</v>
       </c>
       <c r="C189">
-        <v>309.256789396125</v>
+        <v>303.8107099486197</v>
       </c>
       <c r="D189">
         <v>294.54</v>
       </c>
       <c r="E189">
-        <v>318.6418611698806</v>
+        <v>313.7207179144627</v>
       </c>
       <c r="F189">
         <v>0</v>
       </c>
       <c r="G189">
-        <v>301.3920520652299</v>
+        <v>294.1952222222222</v>
       </c>
       <c r="H189">
-        <v>301.3920520652299</v>
+        <v>299.3738442786135</v>
       </c>
       <c r="I189">
         <v>56400</v>
@@ -6460,25 +6460,25 @@
         <v>38139.65277777778</v>
       </c>
       <c r="B190">
-        <v>317.3481623922903</v>
+        <v>311.8504489644114</v>
       </c>
       <c r="C190">
-        <v>309.053051985343</v>
+        <v>303.5227387525571</v>
       </c>
       <c r="D190">
         <v>294.54</v>
       </c>
       <c r="E190">
-        <v>318.2020452968869</v>
+        <v>313.1956628917748</v>
       </c>
       <c r="F190">
         <v>0</v>
       </c>
       <c r="G190">
-        <v>301.2789273062548</v>
+        <v>294.0859166666667</v>
       </c>
       <c r="H190">
-        <v>301.2789273062548</v>
+        <v>299.2194111620285</v>
       </c>
       <c r="I190">
         <v>56700</v>
@@ -6492,25 +6492,25 @@
         <v>38139.65625</v>
       </c>
       <c r="B191">
-        <v>316.8904475749961</v>
+        <v>311.3372554738107</v>
       </c>
       <c r="C191">
-        <v>308.8208765220919</v>
+        <v>303.2420148022435</v>
       </c>
       <c r="D191">
         <v>294.54</v>
       </c>
       <c r="E191">
-        <v>317.7118871249057</v>
+        <v>312.6246850560919</v>
       </c>
       <c r="F191">
         <v>0</v>
       </c>
       <c r="G191">
-        <v>301.1840056809855</v>
+        <v>293.9766111111111</v>
       </c>
       <c r="H191">
-        <v>301.1840056809855</v>
+        <v>299.0821825294997</v>
       </c>
       <c r="I191">
         <v>57000</v>
@@ -6524,25 +6524,25 @@
         <v>38139.65972222222</v>
       </c>
       <c r="B192">
-        <v>316.3414872237561</v>
+        <v>310.7369721166402</v>
       </c>
       <c r="C192">
-        <v>308.5686943984909</v>
+        <v>302.946989941404</v>
       </c>
       <c r="D192">
         <v>294.54</v>
       </c>
       <c r="E192">
-        <v>317.1688446135713</v>
+        <v>312.0237258425695</v>
       </c>
       <c r="F192">
         <v>0</v>
       </c>
       <c r="G192">
-        <v>301.0349293303341</v>
+        <v>293.8673055555556</v>
       </c>
       <c r="H192">
-        <v>301.0349293303341</v>
+        <v>298.912535730427</v>
       </c>
       <c r="I192">
         <v>57300</v>
@@ -6556,25 +6556,25 @@
         <v>38139.66319444445</v>
       </c>
       <c r="B193">
-        <v>315.7267572254495</v>
+        <v>310.0970086382808</v>
       </c>
       <c r="C193">
-        <v>308.2843890543894</v>
+        <v>302.6451393988002</v>
       </c>
       <c r="D193">
         <v>294.54</v>
       </c>
       <c r="E193">
-        <v>316.6022440466687</v>
+        <v>311.4042007167716</v>
       </c>
       <c r="F193">
         <v>0</v>
       </c>
       <c r="G193">
-        <v>300.902336544231</v>
+        <v>293.758</v>
       </c>
       <c r="H193">
-        <v>300.902336544231</v>
+        <v>298.7483532628196</v>
       </c>
       <c r="I193">
         <v>57600</v>
@@ -6588,25 +6588,25 @@
         <v>38139.66666666666</v>
       </c>
       <c r="B194">
-        <v>315.081626313838</v>
+        <v>309.4295125186753</v>
       </c>
       <c r="C194">
-        <v>307.9908045937914</v>
+        <v>302.338126928856</v>
       </c>
       <c r="D194">
         <v>294.54</v>
       </c>
       <c r="E194">
-        <v>316.2727278713685</v>
+        <v>311.1037786816656</v>
       </c>
       <c r="F194">
         <v>0</v>
       </c>
       <c r="G194">
-        <v>300.7256290268705</v>
+        <v>293.7312777777777</v>
       </c>
       <c r="H194">
-        <v>300.7256290268705</v>
+        <v>298.5669552528721</v>
       </c>
       <c r="I194">
         <v>57900</v>
@@ -6620,25 +6620,25 @@
         <v>38139.67013888889</v>
       </c>
       <c r="B195">
-        <v>314.5532157004998</v>
+        <v>308.9520419862645</v>
       </c>
       <c r="C195">
-        <v>307.7192439364022</v>
+        <v>302.1158239741151</v>
       </c>
       <c r="D195">
         <v>294.54</v>
       </c>
       <c r="E195">
-        <v>316.0291115514729</v>
+        <v>310.8970725225878</v>
       </c>
       <c r="F195">
         <v>0</v>
       </c>
       <c r="G195">
-        <v>300.612292646918</v>
+        <v>293.7045555555555</v>
       </c>
       <c r="H195">
-        <v>300.612292646918</v>
+        <v>298.4521037836366</v>
       </c>
       <c r="I195">
         <v>58200</v>
@@ -6652,25 +6652,25 @@
         <v>38139.67361111111</v>
       </c>
       <c r="B196">
-        <v>314.0651196941607</v>
+        <v>308.5127097128362</v>
       </c>
       <c r="C196">
-        <v>307.4730142480132</v>
+        <v>301.9174534892111</v>
       </c>
       <c r="D196">
         <v>294.54</v>
       </c>
       <c r="E196">
-        <v>315.8296352032878</v>
+        <v>310.7411132587068</v>
       </c>
       <c r="F196">
         <v>0</v>
       </c>
       <c r="G196">
-        <v>300.5118225735266</v>
+        <v>293.6778333333333</v>
       </c>
       <c r="H196">
-        <v>300.5118225735266</v>
+        <v>298.3734177215973</v>
       </c>
       <c r="I196">
         <v>58500</v>
@@ -6684,25 +6684,25 @@
         <v>38139.67708333334</v>
       </c>
       <c r="B197">
-        <v>313.5853685783035</v>
+        <v>308.0818933161083</v>
       </c>
       <c r="C197">
-        <v>307.2370437909262</v>
+        <v>301.7297551794192</v>
       </c>
       <c r="D197">
         <v>294.54</v>
       </c>
       <c r="E197">
-        <v>315.6587972906941</v>
+        <v>310.61724762503</v>
       </c>
       <c r="F197">
         <v>0</v>
       </c>
       <c r="G197">
-        <v>300.422236214869</v>
+        <v>293.6511111111111</v>
       </c>
       <c r="H197">
-        <v>300.422236214869</v>
+        <v>298.2859303022051</v>
       </c>
       <c r="I197">
         <v>58800</v>
@@ -6716,25 +6716,25 @@
         <v>38139.68055555555</v>
       </c>
       <c r="B198">
-        <v>313.1025847965111</v>
+        <v>307.6460786713775</v>
       </c>
       <c r="C198">
-        <v>307.0069451373965</v>
+        <v>301.5463611944891</v>
       </c>
       <c r="D198">
         <v>294.54</v>
       </c>
       <c r="E198">
-        <v>315.4973987197769</v>
+        <v>310.5137982916899</v>
       </c>
       <c r="F198">
         <v>0</v>
       </c>
       <c r="G198">
-        <v>300.3119919217262</v>
+        <v>293.6243888888889</v>
       </c>
       <c r="H198">
-        <v>300.3119919217262</v>
+        <v>298.2057329059456</v>
       </c>
       <c r="I198">
         <v>59100</v>
@@ -6748,25 +6748,25 @@
         <v>38139.68402777778</v>
       </c>
       <c r="B199">
-        <v>312.5981127891759</v>
+        <v>307.1973812208878</v>
       </c>
       <c r="C199">
-        <v>306.7689364687176</v>
+        <v>301.3634363027175</v>
       </c>
       <c r="D199">
         <v>294.54</v>
       </c>
       <c r="E199">
-        <v>315.3451823638755</v>
+        <v>310.4227037965002</v>
       </c>
       <c r="F199">
         <v>0</v>
       </c>
       <c r="G199">
-        <v>300.2094156022042</v>
+        <v>293.5976666666667</v>
       </c>
       <c r="H199">
-        <v>300.2094156022042</v>
+        <v>298.1103412668802</v>
       </c>
       <c r="I199">
         <v>59400</v>
@@ -6780,25 +6780,25 @@
         <v>38139.6875</v>
       </c>
       <c r="B200">
-        <v>312.0755983920355</v>
+        <v>306.7307565403885</v>
       </c>
       <c r="C200">
-        <v>306.5283190960005</v>
+        <v>301.1784827571315</v>
       </c>
       <c r="D200">
         <v>294.54</v>
       </c>
       <c r="E200">
-        <v>315.1065108027371</v>
+        <v>310.2517131061273</v>
       </c>
       <c r="F200">
         <v>0</v>
       </c>
       <c r="G200">
-        <v>300.0950743147373</v>
+        <v>293.5709444444444</v>
       </c>
       <c r="H200">
-        <v>300.0950743147373</v>
+        <v>298.0312504485306</v>
       </c>
       <c r="I200">
         <v>59700</v>
@@ -6812,25 +6812,25 @@
         <v>38139.69097222222</v>
       </c>
       <c r="B201">
-        <v>311.5227684691537</v>
+        <v>306.239367890001</v>
       </c>
       <c r="C201">
-        <v>306.3313059968367</v>
+        <v>301.0431081549602</v>
       </c>
       <c r="D201">
         <v>294.54</v>
       </c>
       <c r="E201">
-        <v>314.8383328826193</v>
+        <v>310.0573947348137</v>
       </c>
       <c r="F201">
         <v>0</v>
       </c>
       <c r="G201">
-        <v>299.9713706380384</v>
+        <v>293.5442222222222</v>
       </c>
       <c r="H201">
-        <v>299.9713706380384</v>
+        <v>297.9198511128716</v>
       </c>
       <c r="I201">
         <v>60000</v>
@@ -6844,25 +6844,25 @@
         <v>38139.69444444445</v>
       </c>
       <c r="B202">
-        <v>310.9527348208945</v>
+        <v>305.7366679371139</v>
       </c>
       <c r="C202">
-        <v>306.1455664806327</v>
+        <v>300.9252187619106</v>
       </c>
       <c r="D202">
         <v>294.54</v>
       </c>
       <c r="E202">
-        <v>314.5504440712912</v>
+        <v>309.8496047567867</v>
       </c>
       <c r="F202">
         <v>0</v>
       </c>
       <c r="G202">
-        <v>299.8380005545479</v>
+        <v>293.5175</v>
       </c>
       <c r="H202">
-        <v>299.8380005545479</v>
+        <v>297.8228028731218</v>
       </c>
       <c r="I202">
         <v>60300</v>
@@ -6876,25 +6876,25 @@
         <v>38139.69791666666</v>
       </c>
       <c r="B203">
-        <v>310.3685644106978</v>
+        <v>305.226164361635</v>
       </c>
       <c r="C203">
-        <v>305.9636609597252</v>
+        <v>300.8177285851091</v>
       </c>
       <c r="D203">
         <v>294.54</v>
       </c>
       <c r="E203">
-        <v>314.2486031588635</v>
+        <v>309.6322449738744</v>
       </c>
       <c r="F203">
         <v>0</v>
       </c>
       <c r="G203">
-        <v>299.700947601776</v>
+        <v>293.4907777777777</v>
       </c>
       <c r="H203">
-        <v>299.700947601776</v>
+        <v>297.7001544840781</v>
       </c>
       <c r="I203">
         <v>60600</v>
@@ -6908,25 +6908,25 @@
         <v>38139.70138888889</v>
       </c>
       <c r="B204">
-        <v>309.7742523251327</v>
+        <v>304.7097792209333</v>
       </c>
       <c r="C204">
-        <v>305.784154512909</v>
+        <v>300.7172162999347</v>
       </c>
       <c r="D204">
         <v>294.54</v>
       </c>
       <c r="E204">
-        <v>313.9355308331318</v>
+        <v>309.4076869232474</v>
       </c>
       <c r="F204">
         <v>0</v>
       </c>
       <c r="G204">
-        <v>299.5591511796123</v>
+        <v>293.4640555555555</v>
       </c>
       <c r="H204">
-        <v>299.5591511796123</v>
+        <v>297.6010655619418</v>
       </c>
       <c r="I204">
         <v>60900</v>
@@ -6940,25 +6940,25 @@
         <v>38139.70486111111</v>
       </c>
       <c r="B205">
-        <v>309.1712855408898</v>
+        <v>304.188818490672</v>
       </c>
       <c r="C205">
-        <v>305.6052545803477</v>
+        <v>300.6216326026225</v>
       </c>
       <c r="D205">
         <v>294.54</v>
       </c>
       <c r="E205">
-        <v>313.6128335491966</v>
+        <v>309.1775642283568</v>
       </c>
       <c r="F205">
         <v>0</v>
       </c>
       <c r="G205">
-        <v>299.4113806672973</v>
+        <v>293.4373333333333</v>
       </c>
       <c r="H205">
-        <v>299.4113806672973</v>
+        <v>297.4703581157105</v>
       </c>
       <c r="I205">
         <v>61200</v>
@@ -6972,25 +6972,25 @@
         <v>38139.70833333334</v>
       </c>
       <c r="B206">
-        <v>308.5603770284559</v>
+        <v>303.6642680905953</v>
       </c>
       <c r="C206">
-        <v>305.425456207841</v>
+        <v>300.5296706794359</v>
       </c>
       <c r="D206">
         <v>294.54</v>
       </c>
       <c r="E206">
-        <v>313.243185167326</v>
+        <v>308.8848711550412</v>
       </c>
       <c r="F206">
         <v>0</v>
       </c>
       <c r="G206">
-        <v>299.261971229309</v>
+        <v>293.3645694444444</v>
       </c>
       <c r="H206">
-        <v>299.261971229309</v>
+        <v>297.3644344310143</v>
       </c>
       <c r="I206">
         <v>61500</v>
@@ -7004,25 +7004,25 @@
         <v>38139.71180555555</v>
       </c>
       <c r="B207">
-        <v>307.9293692213473</v>
+        <v>303.1028377509733</v>
       </c>
       <c r="C207">
-        <v>305.2420171291483</v>
+        <v>300.4192323791122</v>
       </c>
       <c r="D207">
         <v>294.54</v>
       </c>
       <c r="E207">
-        <v>312.8764712029972</v>
+        <v>308.5685973210011</v>
       </c>
       <c r="F207">
         <v>0</v>
       </c>
       <c r="G207">
-        <v>299.1888893726986</v>
+        <v>293.2918055555555</v>
       </c>
       <c r="H207">
-        <v>299.1888893726986</v>
+        <v>297.3033043851274</v>
       </c>
       <c r="I207">
         <v>61800</v>
@@ -7036,25 +7036,25 @@
         <v>38139.71527777778</v>
       </c>
       <c r="B208">
-        <v>307.320091699411</v>
+        <v>302.5298690543751</v>
       </c>
       <c r="C208">
-        <v>305.0847488309855</v>
+        <v>300.3034756374087</v>
       </c>
       <c r="D208">
         <v>294.54</v>
       </c>
       <c r="E208">
-        <v>312.4728506303923</v>
+        <v>308.2374876323299</v>
       </c>
       <c r="F208">
         <v>0</v>
       </c>
       <c r="G208">
-        <v>299.0007458970065</v>
+        <v>293.2190416666666</v>
       </c>
       <c r="H208">
-        <v>299.0007458970065</v>
+        <v>297.12674924373</v>
       </c>
       <c r="I208">
         <v>62100</v>
@@ -7068,25 +7068,25 @@
         <v>38139.71875</v>
       </c>
       <c r="B209">
-        <v>306.6748392731295</v>
+        <v>301.9515404976311</v>
       </c>
       <c r="C209">
-        <v>304.8960347843893</v>
+        <v>300.1850646642717</v>
       </c>
       <c r="D209">
         <v>294.54</v>
       </c>
       <c r="E209">
-        <v>312.0433486464492</v>
+        <v>307.895931724262</v>
       </c>
       <c r="F209">
         <v>0</v>
       </c>
       <c r="G209">
-        <v>298.7742835551653</v>
+        <v>293.1462777777778</v>
       </c>
       <c r="H209">
-        <v>298.7742835551653</v>
+        <v>296.9126066666124</v>
       </c>
       <c r="I209">
         <v>62400</v>
@@ -7100,25 +7100,25 @@
         <v>38139.72222222222</v>
       </c>
       <c r="B210">
-        <v>306.0061450414472</v>
+        <v>301.371195074509</v>
       </c>
       <c r="C210">
-        <v>304.6851073777731</v>
+        <v>300.0651994833597</v>
       </c>
       <c r="D210">
         <v>294.54</v>
       </c>
       <c r="E210">
-        <v>311.5894433728647</v>
+        <v>307.5469311504694</v>
       </c>
       <c r="F210">
         <v>0</v>
       </c>
       <c r="G210">
-        <v>298.5081372920435</v>
+        <v>293.0735138888888</v>
       </c>
       <c r="H210">
-        <v>298.5081372920435</v>
+        <v>296.689993006712</v>
       </c>
       <c r="I210">
         <v>62700</v>
@@ -7132,25 +7132,25 @@
         <v>38139.72569444445</v>
       </c>
       <c r="B211">
-        <v>304.3683147201709</v>
+        <v>299.8614058795538</v>
       </c>
       <c r="C211">
-        <v>305.2343264318699</v>
+        <v>300.7101875915546</v>
       </c>
       <c r="D211">
         <v>294.54</v>
       </c>
       <c r="E211">
-        <v>311.1224463310932</v>
+        <v>307.1927114061385</v>
       </c>
       <c r="F211">
         <v>0</v>
       </c>
       <c r="G211">
-        <v>298.2409900004354</v>
+        <v>293.00075</v>
       </c>
       <c r="H211">
-        <v>298.2409900004354</v>
+        <v>296.4481771397889</v>
       </c>
       <c r="I211">
         <v>63000</v>
@@ -7164,25 +7164,25 @@
         <v>38139.72916666666</v>
       </c>
       <c r="B212">
-        <v>304.313243830758</v>
+        <v>299.9313459432059</v>
       </c>
       <c r="C212">
-        <v>304.7242796811535</v>
+        <v>300.3228505065325</v>
       </c>
       <c r="D212">
         <v>294.54</v>
       </c>
       <c r="E212">
-        <v>310.4371603737179</v>
+        <v>306.6174425075246</v>
       </c>
       <c r="F212">
         <v>0</v>
       </c>
       <c r="G212">
-        <v>298.000674442484</v>
+        <v>292.9279861111111</v>
       </c>
       <c r="H212">
-        <v>298.000674442484</v>
+        <v>296.2628580901679</v>
       </c>
       <c r="I212">
         <v>63300</v>
@@ -7196,25 +7196,25 @@
         <v>38139.73263888889</v>
       </c>
       <c r="B213">
-        <v>304.2691877388347</v>
+        <v>300.009983004489</v>
       </c>
       <c r="C213">
-        <v>304.2509185610202</v>
+        <v>299.9695532563572</v>
       </c>
       <c r="D213">
         <v>294.54</v>
       </c>
       <c r="E213">
-        <v>309.6713174984192</v>
+        <v>305.966692446446</v>
       </c>
       <c r="F213">
         <v>0</v>
       </c>
       <c r="G213">
-        <v>297.742172904462</v>
+        <v>292.8552222222222</v>
       </c>
       <c r="H213">
-        <v>297.742172904462</v>
+        <v>296.0306495876056</v>
       </c>
       <c r="I213">
         <v>63600</v>
@@ -7228,25 +7228,25 @@
         <v>38139.73611111111</v>
       </c>
       <c r="B214">
-        <v>304.2151335579723</v>
+        <v>300.0862699292645</v>
       </c>
       <c r="C214">
-        <v>303.8020920432667</v>
+        <v>299.6487131623105</v>
       </c>
       <c r="D214">
         <v>294.54</v>
       </c>
       <c r="E214">
-        <v>308.8519621167978</v>
+        <v>305.2730858800816</v>
       </c>
       <c r="F214">
         <v>0</v>
       </c>
       <c r="G214">
-        <v>297.4516200057828</v>
+        <v>292.7824583333333</v>
       </c>
       <c r="H214">
-        <v>297.4516200057828</v>
+        <v>295.7981005210946</v>
       </c>
       <c r="I214">
         <v>63900</v>
@@ -7260,25 +7260,25 @@
         <v>38139.73958333334</v>
       </c>
       <c r="B215">
-        <v>304.1282990485036</v>
+        <v>300.1442883654872</v>
       </c>
       <c r="C215">
-        <v>303.3614800614417</v>
+        <v>299.351114752192</v>
       </c>
       <c r="D215">
         <v>294.54</v>
       </c>
       <c r="E215">
-        <v>307.9995241577031</v>
+        <v>304.5529889296845</v>
       </c>
       <c r="F215">
         <v>0</v>
       </c>
       <c r="G215">
-        <v>297.1527984112778</v>
+        <v>292.7096944444444</v>
       </c>
       <c r="H215">
-        <v>297.1527984112778</v>
+        <v>295.5350219107301</v>
       </c>
       <c r="I215">
         <v>64200</v>
@@ -7292,25 +7292,25 @@
         <v>38139.74305555555</v>
       </c>
       <c r="B216">
-        <v>304.0030057075314</v>
+        <v>300.1727552841</v>
       </c>
       <c r="C216">
-        <v>302.9286525953851</v>
+        <v>299.0705688503666</v>
       </c>
       <c r="D216">
         <v>294.54</v>
       </c>
       <c r="E216">
-        <v>307.1222392122518</v>
+        <v>303.8176509131229</v>
       </c>
       <c r="F216">
         <v>0</v>
       </c>
       <c r="G216">
-        <v>296.8308803933344</v>
+        <v>292.6369305555555</v>
       </c>
       <c r="H216">
-        <v>296.8308803933344</v>
+        <v>295.2786767489348</v>
       </c>
       <c r="I216">
         <v>64500</v>
@@ -7324,25 +7324,25 @@
         <v>38139.74652777778</v>
       </c>
       <c r="B217">
-        <v>303.8274912760934</v>
+        <v>300.1636427704691</v>
       </c>
       <c r="C217">
-        <v>302.4957816133601</v>
+        <v>298.8031003066212</v>
       </c>
       <c r="D217">
         <v>294.54</v>
       </c>
       <c r="E217">
-        <v>306.2294763114259</v>
+        <v>303.0754733674569</v>
       </c>
       <c r="F217">
         <v>0</v>
       </c>
       <c r="G217">
-        <v>296.4933511692155</v>
+        <v>292.5641666666667</v>
       </c>
       <c r="H217">
-        <v>296.4933511692155</v>
+        <v>294.9840338167355</v>
       </c>
       <c r="I217">
         <v>64800</v>
@@ -7356,25 +7356,25 @@
         <v>38139.75</v>
       </c>
       <c r="B218">
-        <v>303.4663486664587</v>
+        <v>299.9793181085987</v>
       </c>
       <c r="C218">
-        <v>302.011664871812</v>
+        <v>298.4957030127783</v>
       </c>
       <c r="D218">
         <v>294.54</v>
       </c>
       <c r="E218">
-        <v>305.3586119465261</v>
+        <v>302.362746391255</v>
       </c>
       <c r="F218">
         <v>0</v>
       </c>
       <c r="G218">
-        <v>296.1090782248982</v>
+        <v>292.4470694444444</v>
       </c>
       <c r="H218">
-        <v>296.1090782248982</v>
+        <v>294.6801922769337</v>
       </c>
       <c r="I218">
         <v>65100</v>
@@ -7388,25 +7388,25 @@
         <v>38139.75347222222</v>
       </c>
       <c r="B219">
-        <v>303.1207436995538</v>
+        <v>299.8176264948765</v>
       </c>
       <c r="C219">
-        <v>301.5605674408387</v>
+        <v>298.2290088858471</v>
       </c>
       <c r="D219">
         <v>294.54</v>
       </c>
       <c r="E219">
-        <v>304.5079011317447</v>
+        <v>301.6629770660423</v>
       </c>
       <c r="F219">
         <v>0</v>
       </c>
       <c r="G219">
-        <v>295.7687093000155</v>
+        <v>292.3299722222222</v>
       </c>
       <c r="H219">
-        <v>295.7687093000155</v>
+        <v>294.3927833067777</v>
       </c>
       <c r="I219">
         <v>65400</v>
@@ -7420,25 +7420,25 @@
         <v>38139.75694444445</v>
       </c>
       <c r="B220">
-        <v>302.748931114219</v>
+        <v>299.6186913161429</v>
       </c>
       <c r="C220">
-        <v>301.1348792365847</v>
+        <v>297.976856638313</v>
       </c>
       <c r="D220">
         <v>294.54</v>
       </c>
       <c r="E220">
-        <v>303.6822816770783</v>
+        <v>300.9752571541861</v>
       </c>
       <c r="F220">
         <v>0</v>
       </c>
       <c r="G220">
-        <v>295.4753037592018</v>
+        <v>292.212875</v>
       </c>
       <c r="H220">
-        <v>295.4753037592018</v>
+        <v>294.1780150725273</v>
       </c>
       <c r="I220">
         <v>65700</v>
@@ -7452,25 +7452,25 @@
         <v>38139.76041666666</v>
       </c>
       <c r="B221">
-        <v>302.2285992151411</v>
+        <v>299.2519429404787</v>
       </c>
       <c r="C221">
-        <v>300.7178842520346</v>
+        <v>297.714782778386</v>
       </c>
       <c r="D221">
         <v>294.54</v>
       </c>
       <c r="E221">
-        <v>302.8731690827227</v>
+        <v>300.3004943578231</v>
       </c>
       <c r="F221">
         <v>0</v>
       </c>
       <c r="G221">
-        <v>295.1746634050962</v>
+        <v>292.0957777777778</v>
       </c>
       <c r="H221">
-        <v>295.1746634050962</v>
+        <v>293.921139146833</v>
       </c>
       <c r="I221">
         <v>66000</v>
@@ -7484,25 +7484,25 @@
         <v>38139.76388888889</v>
       </c>
       <c r="B222">
-        <v>301.7218573407882</v>
+        <v>298.8939809315124</v>
       </c>
       <c r="C222">
-        <v>300.3227975717709</v>
+        <v>297.4700785077879</v>
       </c>
       <c r="D222">
         <v>294.54</v>
       </c>
       <c r="E222">
-        <v>302.0796521683549</v>
+        <v>299.6399362257188</v>
       </c>
       <c r="F222">
         <v>0</v>
       </c>
       <c r="G222">
-        <v>294.8665442852285</v>
+        <v>291.9786805555555</v>
       </c>
       <c r="H222">
-        <v>294.8665442852285</v>
+        <v>293.6882753996192</v>
       </c>
       <c r="I222">
         <v>66300</v>
@@ -7516,25 +7516,25 @@
         <v>38139.76736111111</v>
       </c>
       <c r="B223">
-        <v>301.0261307148423</v>
+        <v>298.3452404942007</v>
       </c>
       <c r="C223">
-        <v>299.8974199805113</v>
+        <v>297.1940124187121</v>
       </c>
       <c r="D223">
         <v>294.54</v>
       </c>
       <c r="E223">
-        <v>301.2951095686633</v>
+        <v>298.9949571604231</v>
       </c>
       <c r="F223">
         <v>0</v>
       </c>
       <c r="G223">
-        <v>294.5192720041217</v>
+        <v>291.8615833333333</v>
       </c>
       <c r="H223">
-        <v>294.5192720041217</v>
+        <v>293.3919182678835</v>
       </c>
       <c r="I223">
         <v>66600</v>
@@ -7548,25 +7548,25 @@
         <v>38139.77083333334</v>
       </c>
       <c r="B224">
-        <v>300.2409076797003</v>
+        <v>297.717623307234</v>
       </c>
       <c r="C224">
-        <v>299.4776966662303</v>
+        <v>296.9347969151618</v>
       </c>
       <c r="D224">
         <v>294.54</v>
       </c>
       <c r="E224">
-        <v>300.6684327391526</v>
+        <v>298.5092669716634</v>
       </c>
       <c r="F224">
         <v>0</v>
       </c>
       <c r="G224">
-        <v>294.1708521172494</v>
+        <v>291.7444861111111</v>
       </c>
       <c r="H224">
-        <v>294.1708521172494</v>
+        <v>293.1308130682262</v>
       </c>
       <c r="I224">
         <v>66900</v>
@@ -7580,25 +7580,25 @@
         <v>38139.77430555555</v>
       </c>
       <c r="B225">
-        <v>299.6620210232434</v>
+        <v>297.3006376038351</v>
       </c>
       <c r="C225">
-        <v>299.0596060773559</v>
+        <v>296.6807674196672</v>
       </c>
       <c r="D225">
         <v>294.54</v>
       </c>
       <c r="E225">
-        <v>300.1096620382177</v>
+        <v>298.0860698850518</v>
       </c>
       <c r="F225">
         <v>0</v>
       </c>
       <c r="G225">
-        <v>293.8486634324458</v>
+        <v>291.6273888888888</v>
       </c>
       <c r="H225">
-        <v>293.8486634324458</v>
+        <v>292.8669083223961</v>
       </c>
       <c r="I225">
         <v>67200</v>
@@ -7612,25 +7612,25 @@
         <v>38139.77777777778</v>
       </c>
       <c r="B226">
-        <v>299.1478748850417</v>
+        <v>296.9423296148066</v>
       </c>
       <c r="C226">
-        <v>298.6495494892301</v>
+        <v>296.4280088436767</v>
       </c>
       <c r="D226">
         <v>294.54</v>
       </c>
       <c r="E226">
-        <v>299.5999406230918</v>
+        <v>297.7029140319501</v>
       </c>
       <c r="F226">
         <v>0</v>
       </c>
       <c r="G226">
-        <v>293.5575569917095</v>
+        <v>291.5102916666667</v>
       </c>
       <c r="H226">
-        <v>293.5575569917095</v>
+        <v>292.6649548536976</v>
       </c>
       <c r="I226">
         <v>67500</v>
@@ -7644,25 +7644,25 @@
         <v>38139.78125</v>
       </c>
       <c r="B227">
-        <v>298.6743843187197</v>
+        <v>296.6131283240298</v>
       </c>
       <c r="C227">
-        <v>298.2513028820541</v>
+        <v>296.1749969936479</v>
       </c>
       <c r="D227">
         <v>294.54</v>
       </c>
       <c r="E227">
-        <v>299.1224523943067</v>
+        <v>297.3485239238377</v>
       </c>
       <c r="F227">
         <v>0</v>
       </c>
       <c r="G227">
-        <v>293.2600505512814</v>
+        <v>291.3931944444444</v>
       </c>
       <c r="H227">
-        <v>293.2600505512814</v>
+        <v>292.4268835629986</v>
       </c>
       <c r="I227">
         <v>67800</v>
@@ -7676,25 +7676,25 @@
         <v>38139.78472222222</v>
       </c>
       <c r="B228">
-        <v>298.2192769922392</v>
+        <v>296.2996578371197</v>
       </c>
       <c r="C228">
-        <v>297.8549694905648</v>
+        <v>295.9207614109115</v>
       </c>
       <c r="D228">
         <v>294.54</v>
       </c>
       <c r="E228">
-        <v>298.6721734672029</v>
+        <v>297.0151755789879</v>
       </c>
       <c r="F228">
         <v>0</v>
       </c>
       <c r="G228">
-        <v>292.9769597388625</v>
+        <v>291.2760972222222</v>
       </c>
       <c r="H228">
-        <v>292.9769597388625</v>
+        <v>292.2740718907218</v>
       </c>
       <c r="I228">
         <v>68100</v>
@@ -7708,25 +7708,25 @@
         <v>38139.78819444445</v>
       </c>
       <c r="B229">
-        <v>297.7786853009642</v>
+        <v>295.9939417253685</v>
       </c>
       <c r="C229">
-        <v>297.4638081018384</v>
+        <v>295.6645869045262</v>
       </c>
       <c r="D229">
         <v>294.54</v>
       </c>
       <c r="E229">
-        <v>298.24135269461</v>
+        <v>296.6971216804677</v>
       </c>
       <c r="F229">
         <v>0</v>
       </c>
       <c r="G229">
-        <v>292.6933194865246</v>
+        <v>291.159</v>
       </c>
       <c r="H229">
-        <v>292.6933194865246</v>
+        <v>292.2057296604419</v>
       </c>
       <c r="I229">
         <v>68400</v>
@@ -7740,25 +7740,25 @@
         <v>38139.79166666666</v>
       </c>
       <c r="B230">
-        <v>297.3438950436633</v>
+        <v>295.6907592749002</v>
       </c>
       <c r="C230">
-        <v>297.073733703999</v>
+        <v>295.4058998853145</v>
       </c>
       <c r="D230">
         <v>294.54</v>
       </c>
       <c r="E230">
-        <v>297.8249137584094</v>
+        <v>296.3793925976767</v>
       </c>
       <c r="F230">
         <v>0</v>
       </c>
       <c r="G230">
-        <v>292.5727313766057</v>
+        <v>291.1465833333333</v>
       </c>
       <c r="H230">
-        <v>292.5727313766057</v>
+        <v>292.2380217172827</v>
       </c>
       <c r="I230">
         <v>68700</v>
@@ -7772,25 +7772,25 @@
         <v>38139.79513888889</v>
       </c>
       <c r="B231">
-        <v>296.9443000624398</v>
+        <v>295.4026395828217</v>
       </c>
       <c r="C231">
-        <v>296.7182602149914</v>
+        <v>295.1618540831556</v>
       </c>
       <c r="D231">
         <v>294.54</v>
       </c>
       <c r="E231">
-        <v>297.4384947609095</v>
+        <v>296.0652733645021</v>
       </c>
       <c r="F231">
         <v>0</v>
       </c>
       <c r="G231">
-        <v>292.5613486323468</v>
+        <v>291.1341666666667</v>
       </c>
       <c r="H231">
-        <v>292.5613486323468</v>
+        <v>292.2281818056295</v>
       </c>
       <c r="I231">
         <v>69000</v>
@@ -7804,25 +7804,25 @@
         <v>38139.79861111111</v>
       </c>
       <c r="B232">
-        <v>296.5912180050243</v>
+        <v>295.1196320821731</v>
       </c>
       <c r="C232">
-        <v>296.405861744599</v>
+        <v>294.9200969513028</v>
       </c>
       <c r="D232">
         <v>294.54</v>
       </c>
       <c r="E232">
-        <v>297.0729795837425</v>
+        <v>295.7535755572693</v>
       </c>
       <c r="F232">
         <v>0</v>
       </c>
       <c r="G232">
-        <v>292.5821966339134</v>
+        <v>291.12175</v>
       </c>
       <c r="H232">
-        <v>292.5821966339134</v>
+        <v>292.2518991666058</v>
       </c>
       <c r="I232">
         <v>69300</v>
@@ -7836,25 +7836,25 @@
         <v>38139.80208333334</v>
       </c>
       <c r="B233">
-        <v>296.265020099643</v>
+        <v>294.8359588643866</v>
       </c>
       <c r="C233">
-        <v>296.1210516725214</v>
+        <v>294.6787531891647</v>
       </c>
       <c r="D233">
         <v>294.54</v>
       </c>
       <c r="E233">
-        <v>296.7122730621732</v>
+        <v>295.4428539712148</v>
       </c>
       <c r="F233">
         <v>0</v>
       </c>
       <c r="G233">
-        <v>292.5582621266577</v>
+        <v>291.1093333333333</v>
       </c>
       <c r="H233">
-        <v>292.5582621266577</v>
+        <v>292.2097719435784</v>
       </c>
       <c r="I233">
         <v>69600</v>
@@ -7868,25 +7868,25 @@
         <v>38139.80555555555</v>
       </c>
       <c r="B234">
-        <v>295.936996909122</v>
+        <v>294.548603238598</v>
       </c>
       <c r="C234">
-        <v>295.8373036476316</v>
+        <v>294.4364591939087</v>
       </c>
       <c r="D234">
         <v>294.54</v>
       </c>
       <c r="E234">
-        <v>296.3578716903389</v>
+        <v>295.1318146820102</v>
       </c>
       <c r="F234">
         <v>0</v>
       </c>
       <c r="G234">
-        <v>292.5407156169052</v>
+        <v>291.0969166666666</v>
       </c>
       <c r="H234">
-        <v>292.5407156169052</v>
+        <v>292.206378873811</v>
       </c>
       <c r="I234">
         <v>69900</v>
@@ -7900,25 +7900,25 @@
         <v>38139.80902777778</v>
       </c>
       <c r="B235">
-        <v>295.6103849516614</v>
+        <v>294.2555645902895</v>
       </c>
       <c r="C235">
-        <v>295.5586255509569</v>
+        <v>294.1921826272912</v>
       </c>
       <c r="D235">
         <v>294.54</v>
       </c>
       <c r="E235">
-        <v>296.0020441372778</v>
+        <v>294.819328581413</v>
       </c>
       <c r="F235">
         <v>0</v>
       </c>
       <c r="G235">
-        <v>292.4913329792997</v>
+        <v>291.0845</v>
       </c>
       <c r="H235">
-        <v>292.4913329792997</v>
+        <v>292.1489587726833</v>
       </c>
       <c r="I235">
         <v>70200</v>
@@ -7932,25 +7932,25 @@
         <v>38139.8125</v>
       </c>
       <c r="B236">
-        <v>295.2711820883762</v>
+        <v>293.943210186241</v>
       </c>
       <c r="C236">
-        <v>295.2778862244676</v>
+        <v>293.9609410695765</v>
       </c>
       <c r="D236">
         <v>294.54</v>
       </c>
       <c r="E236">
-        <v>295.7038926287822</v>
+        <v>294.5607117002643</v>
       </c>
       <c r="F236">
         <v>0</v>
       </c>
       <c r="G236">
-        <v>292.4529129603266</v>
+        <v>291.0720833333333</v>
       </c>
       <c r="H236">
-        <v>292.4529129603266</v>
+        <v>292.1296616289843</v>
       </c>
       <c r="I236">
         <v>70500</v>
@@ -7964,25 +7964,25 @@
         <v>38139.81597222222</v>
       </c>
       <c r="B237">
-        <v>295.0352351123158</v>
+        <v>293.742506911312</v>
       </c>
       <c r="C237">
-        <v>295.0175123479747</v>
+        <v>293.7352366070003</v>
       </c>
       <c r="D237">
         <v>294.54</v>
       </c>
       <c r="E237">
-        <v>295.420626346551</v>
+        <v>294.3240961140732</v>
       </c>
       <c r="F237">
         <v>0</v>
       </c>
       <c r="G237">
-        <v>292.3508419432993</v>
+        <v>291.0596666666667</v>
       </c>
       <c r="H237">
-        <v>292.3508419432993</v>
+        <v>292.0306127404955</v>
       </c>
       <c r="I237">
         <v>70800</v>
@@ -7996,25 +7996,25 @@
         <v>38139.81944444445</v>
       </c>
       <c r="B238">
-        <v>294.8015606678047</v>
+        <v>293.5598796846946</v>
       </c>
       <c r="C238">
-        <v>294.7670859071575</v>
+        <v>293.5358566312124</v>
       </c>
       <c r="D238">
         <v>294.54</v>
       </c>
       <c r="E238">
-        <v>295.1716605618894</v>
+        <v>294.1019641328246</v>
       </c>
       <c r="F238">
         <v>0</v>
       </c>
       <c r="G238">
-        <v>292.3919006803362</v>
+        <v>291.04725</v>
       </c>
       <c r="H238">
-        <v>292.3919006803362</v>
+        <v>292.0819048208453</v>
       </c>
       <c r="I238">
         <v>71100</v>
@@ -8028,25 +8028,25 @@
         <v>38139.82291666666</v>
       </c>
       <c r="B239">
-        <v>294.6125950955472</v>
+        <v>293.3880820890885</v>
       </c>
       <c r="C239">
-        <v>294.5676378128537</v>
+        <v>293.352523734495</v>
       </c>
       <c r="D239">
         <v>294.54</v>
       </c>
       <c r="E239">
-        <v>294.9276158672928</v>
+        <v>293.8904169013267</v>
       </c>
       <c r="F239">
         <v>0</v>
       </c>
       <c r="G239">
-        <v>292.3400417371333</v>
+        <v>291.0348333333333</v>
       </c>
       <c r="H239">
-        <v>292.3400417371333</v>
+        <v>292.0240044509291</v>
       </c>
       <c r="I239">
         <v>71400</v>
@@ -8060,25 +8060,25 @@
         <v>38139.82638888889</v>
       </c>
       <c r="B240">
-        <v>294.4178972341588</v>
+        <v>293.223379012206</v>
       </c>
       <c r="C240">
-        <v>294.3655976914628</v>
+        <v>293.1799648249205</v>
       </c>
       <c r="D240">
         <v>294.54</v>
       </c>
       <c r="E240">
-        <v>294.7023892903168</v>
+        <v>293.6866581539757</v>
       </c>
       <c r="F240">
         <v>0</v>
       </c>
       <c r="G240">
-        <v>292.3666815801043</v>
+        <v>291.0224166666666</v>
       </c>
       <c r="H240">
-        <v>292.3666815801043</v>
+        <v>292.0615629058377</v>
       </c>
       <c r="I240">
         <v>71700</v>
@@ -8092,25 +8092,25 @@
         <v>38139.82986111111</v>
       </c>
       <c r="B241">
-        <v>294.2467022550242</v>
+        <v>293.0633743355942</v>
       </c>
       <c r="C241">
-        <v>294.1904190184648</v>
+        <v>293.0148254093648</v>
       </c>
       <c r="D241">
         <v>294.54</v>
       </c>
       <c r="E241">
-        <v>294.4751702994287</v>
+        <v>293.4885057036033</v>
       </c>
       <c r="F241">
         <v>0</v>
       </c>
       <c r="G241">
-        <v>292.3024667210934</v>
+        <v>291.01</v>
       </c>
       <c r="H241">
-        <v>292.3024667210934</v>
+        <v>291.9897418121585</v>
       </c>
       <c r="I241">
         <v>72000</v>
@@ -8124,25 +8124,25 @@
         <v>38139.83333333334</v>
       </c>
       <c r="B242">
-        <v>294.0620255039213</v>
+        <v>292.9064216215212</v>
       </c>
       <c r="C242">
-        <v>294.0031347359893</v>
+        <v>292.8548244124779</v>
       </c>
       <c r="D242">
         <v>294.54</v>
       </c>
       <c r="E242">
-        <v>294.1849567857895</v>
+        <v>293.2139690816161</v>
       </c>
       <c r="F242">
         <v>0</v>
       </c>
       <c r="G242">
-        <v>292.2971208378784</v>
+        <v>290.9805</v>
       </c>
       <c r="H242">
-        <v>292.2971208378784</v>
+        <v>291.9986082046653</v>
       </c>
       <c r="I242">
         <v>72300</v>
@@ -8156,25 +8156,25 @@
         <v>38139.83680555555</v>
       </c>
       <c r="B243">
-        <v>293.8485048138857</v>
+        <v>292.7039005325087</v>
       </c>
       <c r="C243">
-        <v>293.7922173200562</v>
+        <v>292.6540175125613</v>
       </c>
       <c r="D243">
         <v>294.54</v>
       </c>
       <c r="E243">
-        <v>293.8603383163708</v>
+        <v>292.911739080015</v>
       </c>
       <c r="F243">
         <v>0</v>
       </c>
       <c r="G243">
-        <v>292.2035404497091</v>
+        <v>290.951</v>
       </c>
       <c r="H243">
-        <v>292.2035404497091</v>
+        <v>291.8979009303565</v>
       </c>
       <c r="I243">
         <v>72600</v>
@@ -8188,25 +8188,25 @@
         <v>38139.84027777778</v>
       </c>
       <c r="B244">
-        <v>293.6016819836388</v>
+        <v>292.4853135827184</v>
       </c>
       <c r="C244">
-        <v>293.5497828392667</v>
+        <v>292.43974240838</v>
       </c>
       <c r="D244">
         <v>294.54</v>
       </c>
       <c r="E244">
-        <v>293.5252830258532</v>
+        <v>292.5942229099853</v>
       </c>
       <c r="F244">
         <v>0</v>
       </c>
       <c r="G244">
-        <v>292.1520695398203</v>
+        <v>290.9215</v>
       </c>
       <c r="H244">
-        <v>292.1520695398203</v>
+        <v>291.8639009647915</v>
       </c>
       <c r="I244">
         <v>72900</v>
@@ -8220,25 +8220,25 @@
         <v>38139.84375</v>
       </c>
       <c r="B245">
-        <v>293.3519896019033</v>
+        <v>292.2582448578914</v>
       </c>
       <c r="C245">
-        <v>293.306298134005</v>
+        <v>292.2186643118266</v>
       </c>
       <c r="D245">
         <v>294.54</v>
       </c>
       <c r="E245">
-        <v>293.1772705116142</v>
+        <v>292.2683625241061</v>
       </c>
       <c r="F245">
         <v>0</v>
       </c>
       <c r="G245">
-        <v>292.0601306889612</v>
+        <v>290.892</v>
       </c>
       <c r="H245">
-        <v>292.0601306889612</v>
+        <v>291.7654874232646</v>
       </c>
       <c r="I245">
         <v>73200</v>
@@ -8252,25 +8252,25 @@
         <v>38139.84722222222</v>
       </c>
       <c r="B246">
-        <v>293.0881165010796</v>
+        <v>292.0267930171174</v>
       </c>
       <c r="C246">
-        <v>293.0492755217655</v>
+        <v>291.9941985788992</v>
       </c>
       <c r="D246">
         <v>294.54</v>
       </c>
       <c r="E246">
-        <v>292.8342562801573</v>
+        <v>291.9393503198698</v>
       </c>
       <c r="F246">
         <v>0</v>
       </c>
       <c r="G246">
-        <v>292.0251474200432</v>
+        <v>290.8625</v>
       </c>
       <c r="H246">
-        <v>292.0251474200432</v>
+        <v>291.7455023622242</v>
       </c>
       <c r="I246">
         <v>73500</v>
@@ -8284,25 +8284,25 @@
         <v>38139.85069444445</v>
       </c>
       <c r="B247">
-        <v>292.8345043547312</v>
+        <v>291.7937013248967</v>
       </c>
       <c r="C247">
-        <v>292.8032741083072</v>
+        <v>291.7685369397643</v>
       </c>
       <c r="D247">
         <v>294.54</v>
       </c>
       <c r="E247">
-        <v>292.49053636586</v>
+        <v>291.6113177165285</v>
       </c>
       <c r="F247">
         <v>0</v>
       </c>
       <c r="G247">
-        <v>291.9613545685971</v>
+        <v>290.833</v>
       </c>
       <c r="H247">
-        <v>291.9613545685971</v>
+        <v>291.6711735729033</v>
       </c>
       <c r="I247">
         <v>73800</v>
@@ -8316,25 +8316,25 @@
         <v>38139.85416666666</v>
       </c>
       <c r="B248">
-        <v>292.5773972615992</v>
+        <v>291.5610053007089</v>
       </c>
       <c r="C248">
-        <v>292.5536088922417</v>
+        <v>291.5432643691562</v>
       </c>
       <c r="D248">
         <v>294.54</v>
       </c>
       <c r="E248">
-        <v>292.1778166390059</v>
+        <v>291.3040611754681</v>
       </c>
       <c r="F248">
         <v>0</v>
       </c>
       <c r="G248">
-        <v>291.9492336267325</v>
+        <v>290.8035</v>
       </c>
       <c r="H248">
-        <v>291.9492336267325</v>
+        <v>291.6703598155767</v>
       </c>
       <c r="I248">
         <v>74100</v>
@@ -8348,25 +8348,25 @@
         <v>38139.85763888889</v>
       </c>
       <c r="B249">
-        <v>292.3360499020545</v>
+        <v>291.3359588752234</v>
       </c>
       <c r="C249">
-        <v>292.3526751246109</v>
+        <v>291.3467709057662</v>
       </c>
       <c r="D249">
         <v>294.54</v>
       </c>
       <c r="E249">
-        <v>291.9088441611405</v>
+        <v>291.04047180648</v>
       </c>
       <c r="F249">
         <v>0</v>
       </c>
       <c r="G249">
-        <v>291.9111300695157</v>
+        <v>290.774</v>
       </c>
       <c r="H249">
-        <v>291.9111300695157</v>
+        <v>291.6172612909016</v>
       </c>
       <c r="I249">
         <v>74400</v>
@@ -8380,25 +8380,25 @@
         <v>38139.86111111111</v>
       </c>
       <c r="B250">
-        <v>292.1553086519006</v>
+        <v>291.167195996604</v>
       </c>
       <c r="C250">
-        <v>292.1657867348649</v>
+        <v>291.1719476399434</v>
       </c>
       <c r="D250">
         <v>294.54</v>
       </c>
       <c r="E250">
-        <v>291.6810308197839</v>
+        <v>290.8020458172815</v>
       </c>
       <c r="F250">
         <v>0</v>
       </c>
       <c r="G250">
-        <v>291.9320864766065</v>
+        <v>290.7445</v>
       </c>
       <c r="H250">
-        <v>291.9320864766065</v>
+        <v>291.8164036040959</v>
       </c>
       <c r="I250">
         <v>74700</v>
@@ -8412,25 +8412,25 @@
         <v>38139.86458333334</v>
       </c>
       <c r="B251">
-        <v>292.0110018462095</v>
+        <v>291.016758025388</v>
       </c>
       <c r="C251">
-        <v>292.0161309261192</v>
+        <v>291.0163277880139</v>
       </c>
       <c r="D251">
         <v>294.54</v>
       </c>
       <c r="E251">
-        <v>291.4778267914477</v>
+        <v>290.5846709398454</v>
       </c>
       <c r="F251">
         <v>0</v>
       </c>
       <c r="G251">
-        <v>291.9342601249045</v>
+        <v>290.715</v>
       </c>
       <c r="H251">
-        <v>291.9342601249045</v>
+        <v>291.8006585528551</v>
       </c>
       <c r="I251">
         <v>75000</v>
@@ -8444,25 +8444,25 @@
         <v>38139.86805555555</v>
       </c>
       <c r="B252">
-        <v>291.8818305716791</v>
+        <v>290.8789344150782</v>
       </c>
       <c r="C252">
-        <v>291.8826758905096</v>
+        <v>290.8742081124892</v>
       </c>
       <c r="D252">
         <v>294.54</v>
       </c>
       <c r="E252">
-        <v>291.3088791488387</v>
+        <v>290.3879094791149</v>
       </c>
       <c r="F252">
         <v>0</v>
       </c>
       <c r="G252">
-        <v>291.9994818956589</v>
+        <v>290.6855</v>
       </c>
       <c r="H252">
-        <v>291.9994818956589</v>
+        <v>291.8135822282005</v>
       </c>
       <c r="I252">
         <v>75300</v>
@@ -8476,25 +8476,25 @@
         <v>38139.87152777778</v>
       </c>
       <c r="B253">
-        <v>291.7843116106874</v>
+        <v>290.7505887097033</v>
       </c>
       <c r="C253">
-        <v>291.7818918827834</v>
+        <v>290.742442518229</v>
       </c>
       <c r="D253">
         <v>294.54</v>
       </c>
       <c r="E253">
-        <v>291.2016696712398</v>
+        <v>290.2049613663883</v>
       </c>
       <c r="F253">
         <v>0</v>
       </c>
       <c r="G253">
-        <v>292.2202331449583</v>
+        <v>290.6559999999999</v>
       </c>
       <c r="H253">
-        <v>292.2202331449583</v>
+        <v>291.7064763089119</v>
       </c>
       <c r="I253">
         <v>75600</v>
@@ -8508,25 +8508,25 @@
         <v>38139.875</v>
       </c>
       <c r="B254">
-        <v>291.7527210643283</v>
+        <v>290.6296599407999</v>
       </c>
       <c r="C254">
-        <v>291.7484487373598</v>
+        <v>290.618950545219</v>
       </c>
       <c r="D254">
         <v>294.54</v>
       </c>
       <c r="E254">
-        <v>291.1084130985222</v>
+        <v>290.046115820123</v>
       </c>
       <c r="F254">
         <v>0</v>
       </c>
       <c r="G254">
-        <v>292.3499360661673</v>
+        <v>290.6244027777777</v>
       </c>
       <c r="H254">
-        <v>292.3499360661673</v>
+        <v>291.7144150281116</v>
       </c>
       <c r="I254">
         <v>75900</v>
@@ -8540,25 +8540,25 @@
         <v>38139.87847222222</v>
       </c>
       <c r="B255">
-        <v>291.735284887277</v>
+        <v>290.5272339820721</v>
       </c>
       <c r="C255">
-        <v>291.7280556850995</v>
+        <v>290.5142761190648</v>
       </c>
       <c r="D255">
         <v>294.54</v>
       </c>
       <c r="E255">
-        <v>290.9981598238458</v>
+        <v>289.8985629657318</v>
       </c>
       <c r="F255">
         <v>0</v>
       </c>
       <c r="G255">
-        <v>292.3526684535812</v>
+        <v>290.5928055555555</v>
       </c>
       <c r="H255">
-        <v>292.3526684535812</v>
+        <v>291.5954449907363</v>
       </c>
       <c r="I255">
         <v>76200</v>
@@ -8572,25 +8572,25 @@
         <v>38139.88194444445</v>
       </c>
       <c r="B256">
-        <v>291.6926046476568</v>
+        <v>290.4335765689048</v>
       </c>
       <c r="C256">
-        <v>291.6818335731426</v>
+        <v>290.4182891902126</v>
       </c>
       <c r="D256">
         <v>294.54</v>
       </c>
       <c r="E256">
-        <v>290.8894078927192</v>
+        <v>289.7581001286885</v>
       </c>
       <c r="F256">
         <v>0</v>
       </c>
       <c r="G256">
-        <v>292.3734216382882</v>
+        <v>290.5612083333333</v>
       </c>
       <c r="H256">
-        <v>292.3734216382882</v>
+        <v>291.6003016974633</v>
       </c>
       <c r="I256">
         <v>76500</v>
@@ -8604,25 +8604,25 @@
         <v>38139.88541666666</v>
       </c>
       <c r="B257">
-        <v>291.650023489189</v>
+        <v>290.3457205963591</v>
       </c>
       <c r="C257">
-        <v>291.6352857744071</v>
+        <v>290.3280038813199</v>
       </c>
       <c r="D257">
         <v>294.54</v>
       </c>
       <c r="E257">
-        <v>290.7537105260657</v>
+        <v>289.6221418269024</v>
       </c>
       <c r="F257">
         <v>0</v>
       </c>
       <c r="G257">
-        <v>292.2666749661579</v>
+        <v>290.5296111111111</v>
       </c>
       <c r="H257">
-        <v>292.2666749661579</v>
+        <v>291.4381434901795</v>
       </c>
       <c r="I257">
         <v>76800</v>
@@ -8636,25 +8636,25 @@
         <v>38139.88888888889</v>
       </c>
       <c r="B258">
-        <v>291.5696201188172</v>
+        <v>290.2619661122154</v>
       </c>
       <c r="C258">
-        <v>291.5509645023698</v>
+        <v>290.241636046499</v>
       </c>
       <c r="D258">
         <v>294.54</v>
       </c>
       <c r="E258">
-        <v>290.5972890645321</v>
+        <v>289.4887609095449</v>
       </c>
       <c r="F258">
         <v>0</v>
       </c>
       <c r="G258">
-        <v>292.110254240862</v>
+        <v>290.4980138888889</v>
       </c>
       <c r="H258">
-        <v>292.110254240862</v>
+        <v>291.3711562208509</v>
       </c>
       <c r="I258">
         <v>77100</v>
@@ -8668,25 +8668,25 @@
         <v>38139.89236111111</v>
       </c>
       <c r="B259">
-        <v>291.4602378443218</v>
+        <v>290.1811569944758</v>
       </c>
       <c r="C259">
-        <v>291.4379113644815</v>
+        <v>290.157995061102</v>
       </c>
       <c r="D259">
         <v>294.54</v>
       </c>
       <c r="E259">
-        <v>290.4106028498969</v>
+        <v>289.3564322425269</v>
       </c>
       <c r="F259">
         <v>0</v>
       </c>
       <c r="G259">
-        <v>291.855212618936</v>
+        <v>290.4664166666666</v>
       </c>
       <c r="H259">
-        <v>291.855212618936</v>
+        <v>291.1174337237378</v>
       </c>
       <c r="I259">
         <v>77400</v>
@@ -8700,25 +8700,25 @@
         <v>38139.89583333334</v>
       </c>
       <c r="B260">
-        <v>291.3081634679671</v>
+        <v>290.1024741555032</v>
       </c>
       <c r="C260">
-        <v>291.2829393721308</v>
+        <v>290.0762506088315</v>
       </c>
       <c r="D260">
         <v>294.54</v>
       </c>
       <c r="E260">
-        <v>290.2210423688508</v>
+        <v>289.2239032921074</v>
       </c>
       <c r="F260">
         <v>0</v>
       </c>
       <c r="G260">
-        <v>291.6655091592758</v>
+        <v>290.4348194444444</v>
       </c>
       <c r="H260">
-        <v>291.6655091592758</v>
+        <v>291.0283819685635</v>
       </c>
       <c r="I260">
         <v>77700</v>
@@ -8732,25 +8732,25 @@
         <v>38139.89930555555</v>
       </c>
       <c r="B261">
-        <v>291.1544371872411</v>
+        <v>290.0253196168005</v>
       </c>
       <c r="C261">
-        <v>291.1263695099875</v>
+        <v>289.9958100056623</v>
       </c>
       <c r="D261">
         <v>294.54</v>
       </c>
       <c r="E261">
-        <v>290.0210176190825</v>
+        <v>289.0901096674635</v>
       </c>
       <c r="F261">
         <v>0</v>
       </c>
       <c r="G261">
-        <v>291.4526395634079</v>
+        <v>290.4032222222222</v>
       </c>
       <c r="H261">
-        <v>291.4526395634079</v>
+        <v>290.7883916310303</v>
       </c>
       <c r="I261">
         <v>78000</v>
@@ -8764,25 +8764,25 @@
         <v>38139.90277777778</v>
       </c>
       <c r="B262">
-        <v>290.9884581523905</v>
+        <v>289.9492441441251</v>
       </c>
       <c r="C262">
-        <v>290.9579425870922</v>
+        <v>289.9162403876898</v>
       </c>
       <c r="D262">
         <v>294.54</v>
       </c>
       <c r="E262">
-        <v>289.8260985190062</v>
+        <v>288.9541154969711</v>
       </c>
       <c r="F262">
         <v>0</v>
       </c>
       <c r="G262">
-        <v>291.3124986571331</v>
+        <v>290.371625</v>
       </c>
       <c r="H262">
-        <v>291.3124986571331</v>
+        <v>290.7459187237499</v>
       </c>
       <c r="I262">
         <v>78300</v>
@@ -8796,25 +8796,25 @@
         <v>38139.90625</v>
       </c>
       <c r="B263">
-        <v>290.835438110336</v>
+        <v>289.8738988691894</v>
       </c>
       <c r="C263">
-        <v>290.80208793458</v>
+        <v>289.8372160114566</v>
       </c>
       <c r="D263">
         <v>294.54</v>
       </c>
       <c r="E263">
-        <v>289.6204864229049</v>
+        <v>288.8150698820546</v>
       </c>
       <c r="F263">
         <v>0</v>
       </c>
       <c r="G263">
-        <v>291.1157368336276</v>
+        <v>290.3400277777778</v>
       </c>
       <c r="H263">
-        <v>291.1157368336276</v>
+        <v>290.5201917145521</v>
       </c>
       <c r="I263">
         <v>78600</v>
@@ -8828,25 +8828,25 @@
         <v>38139.90972222222</v>
       </c>
       <c r="B264">
-        <v>290.6700093076706</v>
+        <v>289.799002276702</v>
       </c>
       <c r="C264">
-        <v>290.634390825404</v>
+        <v>289.7584828425908</v>
       </c>
       <c r="D264">
         <v>294.54</v>
       </c>
       <c r="E264">
-        <v>289.4178148355327</v>
+        <v>288.6721745108058</v>
       </c>
       <c r="F264">
         <v>0</v>
       </c>
       <c r="G264">
-        <v>290.9770994412635</v>
+        <v>290.3084305555555</v>
       </c>
       <c r="H264">
-        <v>290.9770994412635</v>
+        <v>290.4925208447129</v>
       </c>
       <c r="I264">
         <v>78900</v>
@@ -8860,25 +8860,25 @@
         <v>38139.91319444445</v>
       </c>
       <c r="B265">
-        <v>290.5153452519661</v>
+        <v>289.7243176806108</v>
       </c>
       <c r="C265">
-        <v>290.4770938472141</v>
+        <v>289.6798357426882</v>
       </c>
       <c r="D265">
         <v>294.54</v>
       </c>
       <c r="E265">
-        <v>289.2039452014301</v>
+        <v>288.524659543487</v>
       </c>
       <c r="F265">
         <v>0</v>
       </c>
       <c r="G265">
-        <v>290.7728062179319</v>
+        <v>290.2768333333333</v>
       </c>
       <c r="H265">
-        <v>290.7728062179319</v>
+        <v>290.2555034136727</v>
       </c>
       <c r="I265">
         <v>79200</v>
@@ -8892,25 +8892,25 @@
         <v>38139.91666666666</v>
       </c>
       <c r="B266">
-        <v>290.3465166269107</v>
+        <v>289.6496378815516</v>
       </c>
       <c r="C266">
-        <v>290.3064437338599</v>
+        <v>289.601104705371</v>
       </c>
       <c r="D266">
         <v>294.54</v>
       </c>
       <c r="E266">
-        <v>289.0928140233852</v>
+        <v>288.4662112102137</v>
       </c>
       <c r="F266">
         <v>0</v>
       </c>
       <c r="G266">
-        <v>290.6346410606214</v>
+        <v>290.1690555555555</v>
       </c>
       <c r="H266">
-        <v>290.6346410606214</v>
+        <v>290.2357875614126</v>
       </c>
       <c r="I266">
         <v>79500</v>
@@ -8924,25 +8924,25 @@
         <v>38139.92013888889</v>
       </c>
       <c r="B267">
-        <v>290.2301700548559</v>
+        <v>289.5978674859022</v>
       </c>
       <c r="C267">
-        <v>290.1903753131253</v>
+        <v>289.5493668965606</v>
       </c>
       <c r="D267">
         <v>294.54</v>
       </c>
       <c r="E267">
-        <v>289.0182971019305</v>
+        <v>288.4447530541298</v>
       </c>
       <c r="F267">
         <v>0</v>
       </c>
       <c r="G267">
-        <v>290.459724100783</v>
+        <v>290.0612777777778</v>
       </c>
       <c r="H267">
-        <v>290.459724100783</v>
+        <v>290.0155413648963</v>
       </c>
       <c r="I267">
         <v>79800</v>
@@ -8956,25 +8956,25 @@
         <v>38139.92361111111</v>
       </c>
       <c r="B268">
-        <v>290.1240770843289</v>
+        <v>289.5549607545676</v>
       </c>
       <c r="C268">
-        <v>290.0861776660132</v>
+        <v>289.5082972833607</v>
       </c>
       <c r="D268">
         <v>294.54</v>
       </c>
       <c r="E268">
-        <v>288.9852245460064</v>
+        <v>288.4466084968579</v>
       </c>
       <c r="F268">
         <v>0</v>
       </c>
       <c r="G268">
-        <v>290.3815311783482</v>
+        <v>289.9535</v>
       </c>
       <c r="H268">
-        <v>290.3815311783482</v>
+        <v>290.0533968326054</v>
       </c>
       <c r="I268">
         <v>80100</v>
@@ -8988,25 +8988,25 @@
         <v>38139.92708333334</v>
       </c>
       <c r="B269">
-        <v>290.0526160868689</v>
+        <v>289.5170994366573</v>
       </c>
       <c r="C269">
-        <v>290.0166156793055</v>
+        <v>289.4733189836598</v>
       </c>
       <c r="D269">
         <v>294.54</v>
       </c>
       <c r="E269">
-        <v>288.9703316110072</v>
+        <v>288.4640306841039</v>
       </c>
       <c r="F269">
         <v>0</v>
       </c>
       <c r="G269">
-        <v>290.2644123808194</v>
+        <v>289.8457222222222</v>
       </c>
       <c r="H269">
-        <v>290.2644123808194</v>
+        <v>289.8723718977212</v>
       </c>
       <c r="I269">
         <v>80400</v>
@@ -9020,25 +9020,25 @@
         <v>38139.93055555555</v>
       </c>
       <c r="B270">
-        <v>289.9870646503456</v>
+        <v>289.482201672857</v>
       </c>
       <c r="C270">
-        <v>289.9536158843322</v>
+        <v>289.4418378240772</v>
       </c>
       <c r="D270">
         <v>294.54</v>
       </c>
       <c r="E270">
-        <v>288.9867076889304</v>
+        <v>288.4912711180789</v>
       </c>
       <c r="F270">
         <v>0</v>
       </c>
       <c r="G270">
-        <v>290.23124544393</v>
+        <v>289.7379444444444</v>
       </c>
       <c r="H270">
-        <v>290.23124544393</v>
+        <v>289.9470590485467</v>
       </c>
       <c r="I270">
         <v>80700</v>
@@ -9052,25 +9052,25 @@
         <v>38139.93402777778</v>
       </c>
       <c r="B271">
-        <v>289.9519866912382</v>
+        <v>289.4489074525093</v>
       </c>
       <c r="C271">
-        <v>289.9209059284441</v>
+        <v>289.4121005840017</v>
       </c>
       <c r="D271">
         <v>294.54</v>
       </c>
       <c r="E271">
-        <v>289.0101456493188</v>
+        <v>288.5238692471242</v>
       </c>
       <c r="F271">
         <v>0</v>
       </c>
       <c r="G271">
-        <v>290.1471889285428</v>
+        <v>289.6301666666666</v>
       </c>
       <c r="H271">
-        <v>290.1471889285428</v>
+        <v>289.7798854028978</v>
       </c>
       <c r="I271">
         <v>81000</v>
@@ -9084,25 +9084,25 @@
         <v>38139.9375</v>
       </c>
       <c r="B272">
-        <v>289.9169965573971</v>
+        <v>289.4162871176823</v>
       </c>
       <c r="C272">
-        <v>289.8885146878114</v>
+        <v>289.3828732148467</v>
       </c>
       <c r="D272">
         <v>294.54</v>
       </c>
       <c r="E272">
-        <v>289.0586657459615</v>
+        <v>288.5583793656113</v>
       </c>
       <c r="F272">
         <v>0</v>
       </c>
       <c r="G272">
-        <v>290.1431462578002</v>
+        <v>289.5223888888889</v>
       </c>
       <c r="H272">
-        <v>290.1431462578002</v>
+        <v>289.876489006319</v>
       </c>
       <c r="I272">
         <v>81300</v>
@@ -9116,25 +9116,25 @@
         <v>38139.94097222222</v>
       </c>
       <c r="B273">
-        <v>289.9094209846809</v>
+        <v>289.3836934270561</v>
       </c>
       <c r="C273">
-        <v>289.8833685665329</v>
+        <v>289.3532760209229</v>
       </c>
       <c r="D273">
         <v>294.54</v>
       </c>
       <c r="E273">
-        <v>289.0148152503001</v>
+        <v>288.5921851424962</v>
       </c>
       <c r="F273">
         <v>0</v>
       </c>
       <c r="G273">
-        <v>289.705067821706</v>
+        <v>289.4146111111111</v>
       </c>
       <c r="H273">
-        <v>289.705067821706</v>
+        <v>289.7077830749173</v>
       </c>
       <c r="I273">
         <v>81600</v>
@@ -9148,25 +9148,25 @@
         <v>38139.94444444445</v>
       </c>
       <c r="B274">
-        <v>289.7835791174853</v>
+        <v>289.3506559254727</v>
       </c>
       <c r="C274">
-        <v>289.7593285735427</v>
+        <v>289.3226760051418</v>
       </c>
       <c r="D274">
         <v>294.54</v>
       </c>
       <c r="E274">
-        <v>288.9332966096945</v>
+        <v>288.6233478964176</v>
       </c>
       <c r="F274">
         <v>0</v>
       </c>
       <c r="G274">
-        <v>289.2912654118143</v>
+        <v>289.3068333333333</v>
       </c>
       <c r="H274">
-        <v>289.2912654118143</v>
+        <v>289.817148665697</v>
       </c>
       <c r="I274">
         <v>81900</v>
@@ -9180,25 +9180,25 @@
         <v>38139.94791666666</v>
       </c>
       <c r="B275">
-        <v>289.6170693771759</v>
+        <v>289.3168419449732</v>
       </c>
       <c r="C275">
-        <v>289.592987157016</v>
+        <v>289.2906050235365</v>
       </c>
       <c r="D275">
         <v>294.54</v>
       </c>
       <c r="E275">
-        <v>288.918625915276</v>
+        <v>288.6504765860294</v>
       </c>
       <c r="F275">
         <v>0</v>
       </c>
       <c r="G275">
-        <v>289.2454077982752</v>
+        <v>289.1990555555556</v>
       </c>
       <c r="H275">
-        <v>289.2454077982752</v>
+        <v>289.6406926305937</v>
       </c>
       <c r="I275">
         <v>82200</v>
@@ -9212,25 +9212,25 @@
         <v>38139.95138888889</v>
       </c>
       <c r="B276">
-        <v>289.5371949982408</v>
+        <v>289.2820067749971</v>
       </c>
       <c r="C276">
-        <v>289.5132605415097</v>
+        <v>289.2567549839518</v>
       </c>
       <c r="D276">
         <v>294.54</v>
       </c>
       <c r="E276">
-        <v>288.9549822839975</v>
+        <v>288.6726149770649</v>
       </c>
       <c r="F276">
         <v>0</v>
       </c>
       <c r="G276">
-        <v>289.3186123608189</v>
+        <v>289.0912777777777</v>
       </c>
       <c r="H276">
-        <v>289.3186123608189</v>
+        <v>289.7595122446662</v>
       </c>
       <c r="I276">
         <v>82500</v>
@@ -9244,25 +9244,25 @@
         <v>38139.95486111111</v>
       </c>
       <c r="B277">
-        <v>289.5225177978231</v>
+        <v>289.2459807660832</v>
       </c>
       <c r="C277">
-        <v>289.4992810278267</v>
+        <v>289.220892649251</v>
       </c>
       <c r="D277">
         <v>294.54</v>
       </c>
       <c r="E277">
-        <v>288.985292307704</v>
+        <v>288.6891420761729</v>
       </c>
       <c r="F277">
         <v>0</v>
       </c>
       <c r="G277">
-        <v>289.2871930499275</v>
+        <v>288.9835</v>
       </c>
       <c r="H277">
-        <v>289.2871930499275</v>
+        <v>289.5716944251373</v>
       </c>
       <c r="I277">
         <v>82800</v>
@@ -9276,25 +9276,25 @@
         <v>38139.95833333334</v>
       </c>
       <c r="B278">
-        <v>289.5057867302882</v>
+        <v>289.208666844751</v>
       </c>
       <c r="C278">
-        <v>289.4824530127627</v>
+        <v>289.182891876306</v>
       </c>
       <c r="D278">
         <v>294.54</v>
       </c>
       <c r="E278">
-        <v>289.0001183444563</v>
+        <v>288.6805000693278</v>
       </c>
       <c r="F278">
         <v>0</v>
       </c>
       <c r="G278">
-        <v>289.3206032238876</v>
+        <v>288.9344305555555</v>
       </c>
       <c r="H278">
-        <v>289.3206032238876</v>
+        <v>289.3758402137122</v>
       </c>
       <c r="I278">
         <v>83100</v>
@@ -9308,25 +9308,25 @@
         <v>38139.96180555555</v>
       </c>
       <c r="B279">
-        <v>289.4948489467429</v>
+        <v>289.1675652735724</v>
       </c>
       <c r="C279">
-        <v>289.4724862906938</v>
+        <v>289.1419022610249</v>
       </c>
       <c r="D279">
         <v>294.54</v>
       </c>
       <c r="E279">
-        <v>288.9815811866023</v>
+        <v>288.6615779758714</v>
       </c>
       <c r="F279">
         <v>0</v>
       </c>
       <c r="G279">
-        <v>289.2484496902686</v>
+        <v>288.8853611111111</v>
       </c>
       <c r="H279">
-        <v>289.2484496902686</v>
+        <v>288.9493764009186</v>
       </c>
       <c r="I279">
         <v>83400</v>
@@ -9340,25 +9340,25 @@
         <v>38139.96527777778</v>
       </c>
       <c r="B280">
-        <v>289.4554158245939</v>
+        <v>289.1248856732144</v>
       </c>
       <c r="C280">
-        <v>289.4332693660116</v>
+        <v>289.0995077203705</v>
       </c>
       <c r="D280">
         <v>294.54</v>
       </c>
       <c r="E280">
-        <v>288.9792366630864</v>
+        <v>288.6359342149236</v>
       </c>
       <c r="F280">
         <v>0</v>
       </c>
       <c r="G280">
-        <v>289.2771069338131</v>
+        <v>288.8362916666666</v>
       </c>
       <c r="H280">
-        <v>289.2771069338131</v>
+        <v>289.0359129168823</v>
       </c>
       <c r="I280">
         <v>83700</v>
@@ -9372,25 +9372,25 @@
         <v>38139.96875</v>
       </c>
       <c r="B281">
-        <v>289.4390603001589</v>
+        <v>289.0812532588199</v>
       </c>
       <c r="C281">
-        <v>289.4179820314368</v>
+        <v>289.0562309524573</v>
       </c>
       <c r="D281">
         <v>294.54</v>
       </c>
       <c r="E281">
-        <v>288.9523621721302</v>
+        <v>288.6053802440701</v>
       </c>
       <c r="F281">
         <v>0</v>
       </c>
       <c r="G281">
-        <v>289.2100815098284</v>
+        <v>288.7872222222222</v>
       </c>
       <c r="H281">
-        <v>289.2100815098284</v>
+        <v>289.0387537739466</v>
       </c>
       <c r="I281">
         <v>84000</v>
@@ -9404,25 +9404,25 @@
         <v>38139.97222222222</v>
       </c>
       <c r="B282">
-        <v>289.3997339636129</v>
+        <v>289.0370007610684</v>
       </c>
       <c r="C282">
-        <v>289.3789741354848</v>
+        <v>289.0123661361026</v>
       </c>
       <c r="D282">
         <v>294.54</v>
       </c>
       <c r="E282">
-        <v>288.9450855781206</v>
+        <v>288.571141609524</v>
       </c>
       <c r="F282">
         <v>0</v>
       </c>
       <c r="G282">
-        <v>289.243225164595</v>
+        <v>288.7381527777778</v>
       </c>
       <c r="H282">
-        <v>289.243225164595</v>
+        <v>289.1317634009667</v>
       </c>
       <c r="I282">
         <v>84300</v>
@@ -9436,25 +9436,25 @@
         <v>38139.97569444445</v>
       </c>
       <c r="B283">
-        <v>289.3851009781336</v>
+        <v>288.9923371752314</v>
       </c>
       <c r="C283">
-        <v>289.3654780088642</v>
+        <v>288.9681017998396</v>
       </c>
       <c r="D283">
         <v>294.54</v>
       </c>
       <c r="E283">
-        <v>288.9161662045184</v>
+        <v>288.5341067812489</v>
       </c>
       <c r="F283">
         <v>0</v>
       </c>
       <c r="G283">
-        <v>289.1831723785728</v>
+        <v>288.6890833333333</v>
       </c>
       <c r="H283">
-        <v>289.1831723785728</v>
+        <v>289.0745097611713</v>
       </c>
       <c r="I283">
         <v>84600</v>
@@ -9468,25 +9468,25 @@
         <v>38139.97916666666</v>
       </c>
       <c r="B284">
-        <v>289.3491540352198</v>
+        <v>288.9474001733566</v>
       </c>
       <c r="C284">
-        <v>289.3299156148519</v>
+        <v>288.9235636243968</v>
       </c>
       <c r="D284">
         <v>294.54</v>
       </c>
       <c r="E284">
-        <v>288.9072006555805</v>
+        <v>288.4949345769182</v>
       </c>
       <c r="F284">
         <v>0</v>
       </c>
       <c r="G284">
-        <v>289.2182809339965</v>
+        <v>288.6400138888889</v>
       </c>
       <c r="H284">
-        <v>289.2182809339965</v>
+        <v>289.1209906580095</v>
       </c>
       <c r="I284">
         <v>84900</v>
@@ -9500,25 +9500,25 @@
         <v>38139.98263888889</v>
       </c>
       <c r="B285">
-        <v>289.3370845305087</v>
+        <v>288.9022826496536</v>
       </c>
       <c r="C285">
-        <v>289.3189901432955</v>
+        <v>288.8788371988143</v>
       </c>
       <c r="D285">
         <v>294.54</v>
       </c>
       <c r="E285">
-        <v>288.8778995329024</v>
+        <v>288.4541197171471</v>
       </c>
       <c r="F285">
         <v>0</v>
       </c>
       <c r="G285">
-        <v>289.1621069221021</v>
+        <v>288.5909444444444</v>
       </c>
       <c r="H285">
-        <v>289.1621069221021</v>
+        <v>289.0370806572953</v>
       </c>
       <c r="I285">
         <v>85200</v>
@@ -9532,25 +9532,25 @@
         <v>38139.98611111111</v>
       </c>
       <c r="B286">
-        <v>289.3041732173678</v>
+        <v>288.8570483218035</v>
       </c>
       <c r="C286">
-        <v>289.286467348306</v>
+        <v>288.8339817168865</v>
       </c>
       <c r="D286">
         <v>294.54</v>
       </c>
       <c r="E286">
-        <v>288.8682047976677</v>
+        <v>288.4120372994595</v>
       </c>
       <c r="F286">
         <v>0</v>
       </c>
       <c r="G286">
-        <v>289.197119634158</v>
+        <v>288.541875</v>
       </c>
       <c r="H286">
-        <v>289.197119634158</v>
+        <v>289.079004674002</v>
       </c>
       <c r="I286">
         <v>85500</v>
@@ -9564,25 +9564,25 @@
         <v>38139.98958333334</v>
       </c>
       <c r="B287">
-        <v>289.294012860543</v>
+        <v>288.8117414365708</v>
       </c>
       <c r="C287">
-        <v>289.2774118485078</v>
+        <v>288.7890386302175</v>
       </c>
       <c r="D287">
         <v>294.54</v>
       </c>
       <c r="E287">
-        <v>288.8390571614626</v>
+        <v>288.3689743409516</v>
       </c>
       <c r="F287">
         <v>0</v>
       </c>
       <c r="G287">
-        <v>289.1433213553606</v>
+        <v>288.4928055555555</v>
       </c>
       <c r="H287">
-        <v>289.1433213553606</v>
+        <v>289.2299967661593</v>
       </c>
       <c r="I287">
         <v>85800</v>
@@ -9596,25 +9596,25 @@
         <v>38139.99305555555</v>
       </c>
       <c r="B288">
-        <v>289.2633885857528</v>
+        <v>288.7663930037482</v>
       </c>
       <c r="C288">
-        <v>289.2471472264444</v>
+        <v>288.7440372664041</v>
       </c>
       <c r="D288">
         <v>294.54</v>
       </c>
       <c r="E288">
-        <v>288.8289816041639</v>
+        <v>288.3251533874806</v>
       </c>
       <c r="F288">
         <v>0</v>
       </c>
       <c r="G288">
-        <v>289.1774009181221</v>
+        <v>288.4437361111111</v>
       </c>
       <c r="H288">
-        <v>289.1774009181221</v>
+        <v>289.4419791953001</v>
       </c>
       <c r="I288">
         <v>86100</v>
@@ -9628,25 +9628,25 @@
         <v>38139.99652777778</v>
       </c>
       <c r="B289">
-        <v>289.2544902356041</v>
+        <v>288.721024889838</v>
       </c>
       <c r="C289">
-        <v>289.2392947015621</v>
+        <v>288.698998546473</v>
       </c>
       <c r="D289">
         <v>294.54</v>
       </c>
       <c r="E289">
-        <v>288.8002241203173</v>
+        <v>288.2807567388685</v>
       </c>
       <c r="F289">
         <v>0</v>
       </c>
       <c r="G289">
-        <v>289.1255002479674</v>
+        <v>288.3946666666666</v>
       </c>
       <c r="H289">
-        <v>289.1255002479674</v>
+        <v>289.3136909942384</v>
       </c>
       <c r="I289">
         <v>86400</v>
